--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\git2\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517CC4C7-32DC-4E19-931C-01C318B3FF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8058CF-AF7A-4565-AC82-DBDC78248E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="131">
   <si>
     <t>Debtor</t>
   </si>
@@ -407,6 +416,12 @@
   </si>
   <si>
     <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>BankName</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,16 +479,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,15 +844,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,8 +887,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -883,8 +925,16 @@
       <c r="J2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="str">
+        <f>MID(F2&amp;" ",1,4)</f>
+        <v>CHAS</v>
+      </c>
+      <c r="L2" t="str">
+        <f>MID(F2&amp;" ",5,2)</f>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -915,8 +965,16 @@
       <c r="J3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="0">MID(F3&amp;" ",1,4)</f>
+        <v>BINA</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="1">MID(F3&amp;" ",5,2)</f>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -947,8 +1005,16 @@
       <c r="J4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1045,16 @@
       <c r="J5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>BINA</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1011,8 +1085,16 @@
       <c r="J6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>BSJU</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>AR</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1125,16 @@
       <c r="J7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1165,16 @@
       <c r="J8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1107,8 +1205,16 @@
       <c r="J9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1139,8 +1245,16 @@
       <c r="J10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1285,16 @@
       <c r="J11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1203,8 +1325,16 @@
       <c r="J12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1235,8 +1365,16 @@
       <c r="J13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1267,8 +1405,16 @@
       <c r="J14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1299,8 +1445,16 @@
       <c r="J15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>BINA</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1485,16 @@
       <c r="J16" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1525,16 @@
       <c r="J17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1395,8 +1565,16 @@
       <c r="J18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1427,8 +1605,16 @@
       <c r="J19" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1459,8 +1645,16 @@
       <c r="J20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1491,8 +1685,16 @@
       <c r="J21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1523,8 +1725,16 @@
       <c r="J22" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1555,8 +1765,16 @@
       <c r="J23" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1587,8 +1805,16 @@
       <c r="J24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>BINA</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1619,8 +1845,16 @@
       <c r="J25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +1885,16 @@
       <c r="J26" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1683,8 +1925,16 @@
       <c r="J27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1715,8 +1965,16 @@
       <c r="J28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +2005,16 @@
       <c r="J29" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1779,8 +2045,16 @@
       <c r="J30" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1811,8 +2085,16 @@
       <c r="J31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1843,8 +2125,16 @@
       <c r="J32" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1875,8 +2165,16 @@
       <c r="J33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1907,8 +2205,16 @@
       <c r="J34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1939,8 +2245,16 @@
       <c r="J35" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1971,8 +2285,16 @@
       <c r="J36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2003,8 +2325,16 @@
       <c r="J37" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>FINV</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>AL</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2035,8 +2365,16 @@
       <c r="J38" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2067,8 +2405,16 @@
       <c r="J39" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2099,8 +2445,16 @@
       <c r="J40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2131,8 +2485,16 @@
       <c r="J41" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="str">
+        <f t="shared" si="0"/>
+        <v>FINV</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>AL</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2163,8 +2525,16 @@
       <c r="J42" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2195,8 +2565,16 @@
       <c r="J43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2227,8 +2605,16 @@
       <c r="J44" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2259,8 +2645,16 @@
       <c r="J45" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2291,8 +2685,16 @@
       <c r="J46" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2323,8 +2725,16 @@
       <c r="J47" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2355,8 +2765,16 @@
       <c r="J48" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2387,8 +2805,16 @@
       <c r="J49" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2419,8 +2845,16 @@
       <c r="J50" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2451,8 +2885,16 @@
       <c r="J51" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2483,8 +2925,16 @@
       <c r="J52" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2515,8 +2965,16 @@
       <c r="J53" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2547,8 +3005,16 @@
       <c r="J54" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>FNRO</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>CN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2579,8 +3045,16 @@
       <c r="J55" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2611,8 +3085,16 @@
       <c r="J56" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2643,8 +3125,16 @@
       <c r="J57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2675,8 +3165,16 @@
       <c r="J58" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2707,8 +3205,16 @@
       <c r="J59" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2739,8 +3245,16 @@
       <c r="J60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2771,8 +3285,16 @@
       <c r="J61" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2803,8 +3325,16 @@
       <c r="J62" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" t="str">
+        <f t="shared" si="0"/>
+        <v>TSIB</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>AU</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2835,8 +3365,16 @@
       <c r="J63" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2867,8 +3405,16 @@
       <c r="J64" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" t="str">
+        <f t="shared" si="0"/>
+        <v>BINA</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2899,8 +3445,16 @@
       <c r="J65" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2931,8 +3485,16 @@
       <c r="J66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" t="str">
+        <f t="shared" si="0"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2963,8 +3525,16 @@
       <c r="J67" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K91" si="2">MID(F67&amp;" ",1,4)</f>
+        <v>CHAS</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L91" si="3">MID(F67&amp;" ",5,2)</f>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2995,8 +3565,16 @@
       <c r="J68" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" t="str">
+        <f t="shared" si="2"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="3"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3027,8 +3605,16 @@
       <c r="J69" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3059,8 +3645,16 @@
       <c r="J70" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" t="str">
+        <f t="shared" si="2"/>
+        <v>BINA</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="3"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3091,8 +3685,16 @@
       <c r="J71" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3123,8 +3725,16 @@
       <c r="J72" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" t="str">
+        <f t="shared" si="2"/>
+        <v>BINA</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="3"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3155,8 +3765,16 @@
       <c r="J73" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" t="str">
+        <f t="shared" si="2"/>
+        <v>BSJU</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="3"/>
+        <v>AR</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3187,8 +3805,16 @@
       <c r="J74" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3219,8 +3845,16 @@
       <c r="J75" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" t="str">
+        <f t="shared" si="2"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="3"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3251,8 +3885,16 @@
       <c r="J76" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" t="str">
+        <f t="shared" si="2"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="3"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3283,8 +3925,16 @@
       <c r="J77" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3315,8 +3965,16 @@
       <c r="J78" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" t="str">
+        <f t="shared" si="2"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="3"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3347,8 +4005,16 @@
       <c r="J79" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3379,8 +4045,16 @@
       <c r="J80" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" t="str">
+        <f t="shared" si="2"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="3"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3411,8 +4085,16 @@
       <c r="J81" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3443,8 +4125,16 @@
       <c r="J82" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" t="str">
+        <f t="shared" si="2"/>
+        <v>BINA</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="3"/>
+        <v>AD</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3475,8 +4165,16 @@
       <c r="J83" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3507,8 +4205,16 @@
       <c r="J84" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" t="str">
+        <f t="shared" si="2"/>
+        <v>AGRI</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="3"/>
+        <v>FR</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3539,8 +4245,16 @@
       <c r="J85" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" t="str">
+        <f t="shared" si="2"/>
+        <v>REDJ</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="3"/>
+        <v>BY</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3571,8 +4285,16 @@
       <c r="J86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3603,8 +4325,16 @@
       <c r="J87" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3635,8 +4365,16 @@
       <c r="J88" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3667,8 +4405,16 @@
       <c r="J89" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3699,8 +4445,16 @@
       <c r="J90" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" t="str">
+        <f t="shared" si="2"/>
+        <v>CHAS</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="3"/>
+        <v>US</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3731,8 +4485,17 @@
       <c r="J91" t="s">
         <v>125</v>
       </c>
+      <c r="K91" t="str">
+        <f t="shared" si="2"/>
+        <v>BINA</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="3"/>
+        <v>AD</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\git2\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8058CF-AF7A-4565-AC82-DBDC78248E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D38706-0257-4836-B5F4-D953CC572BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="134">
   <si>
     <t>Debtor</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>BankName</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -494,18 +503,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,19 +854,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
     <col min="10" max="10" width="12.21875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,14 +901,23 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -916,7 +939,7 @@
       <c r="G2">
         <v>0.02</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>44271</v>
       </c>
       <c r="I2" t="s">
@@ -933,8 +956,23 @@
         <f>MID(F2&amp;" ",5,2)</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>C2</f>
+        <v>REF211</v>
+      </c>
+      <c r="O2" t="e">
+        <f>TEXT(H2,"dd/mm/yyyy")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2" s="5">
+        <f ca="1">TODAY()</f>
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -956,7 +994,7 @@
       <c r="G3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>44272</v>
       </c>
       <c r="I3" t="s">
@@ -973,8 +1011,19 @@
         <f t="shared" ref="L3:L66" si="1">MID(F3&amp;" ",5,2)</f>
         <v>AD</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(C3=C2,N2,C3&amp;M3)</f>
+        <v>REF211</v>
+      </c>
+      <c r="O3" t="e">
+        <f>DATEVALUE(H3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -996,7 +1045,7 @@
       <c r="G4">
         <v>0.02</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>44271</v>
       </c>
       <c r="I4" t="s">
@@ -1013,8 +1062,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N67" si="2">IF(C4=C3,N3,C4&amp;M4)</f>
+        <v>REFTEST013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1092,7 @@
       <c r="G5">
         <v>0.01</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>44271</v>
       </c>
       <c r="I5" t="s">
@@ -1053,8 +1109,15 @@
         <f t="shared" si="1"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>REFTEST013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1139,7 @@
       <c r="G6">
         <v>0.02</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>44273</v>
       </c>
       <c r="I6" t="s">
@@ -1093,8 +1156,15 @@
         <f t="shared" si="1"/>
         <v>AR</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>REFTEST013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1186,7 @@
       <c r="G7">
         <v>0.01</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>44502</v>
       </c>
       <c r="I7" t="s">
@@ -1133,8 +1203,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1156,7 +1233,7 @@
       <c r="G8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>44503</v>
       </c>
       <c r="I8" t="s">
@@ -1173,8 +1250,15 @@
         <f t="shared" si="1"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1280,7 @@
       <c r="G9">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>44503</v>
       </c>
       <c r="I9" t="s">
@@ -1213,8 +1297,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1327,7 @@
       <c r="G10">
         <v>0.02</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>44271</v>
       </c>
       <c r="I10" t="s">
@@ -1253,8 +1344,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1374,7 @@
       <c r="G11">
         <v>0.01</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>44271</v>
       </c>
       <c r="I11" t="s">
@@ -1293,8 +1391,15 @@
         <f t="shared" si="1"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1421,7 @@
       <c r="G12">
         <v>0.02</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>44271</v>
       </c>
       <c r="I12" t="s">
@@ -1333,8 +1438,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1468,7 @@
       <c r="G13">
         <v>0.03</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>44271</v>
       </c>
       <c r="I13" t="s">
@@ -1373,8 +1485,15 @@
         <f t="shared" si="1"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="2"/>
+        <v>REF2111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1515,7 @@
       <c r="G14">
         <v>0.02</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>44275</v>
       </c>
       <c r="I14" t="s">
@@ -1413,8 +1532,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="2"/>
+        <v>REF11113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1562,7 @@
       <c r="G15">
         <v>0.01</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>44276</v>
       </c>
       <c r="I15" t="s">
@@ -1453,8 +1579,15 @@
         <f t="shared" si="1"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="2"/>
+        <v>REF11113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1609,7 @@
       <c r="G16">
         <v>0.02</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>44248</v>
       </c>
       <c r="I16" t="s">
@@ -1493,8 +1626,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1656,7 @@
       <c r="G17">
         <v>0.01</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>44248</v>
       </c>
       <c r="I17" t="s">
@@ -1533,8 +1673,15 @@
         <f t="shared" si="1"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1556,7 +1703,7 @@
       <c r="G18">
         <v>0.08</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>44248</v>
       </c>
       <c r="I18" t="s">
@@ -1573,8 +1720,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1750,7 @@
       <c r="G19">
         <v>0.01</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>44253</v>
       </c>
       <c r="I19" t="s">
@@ -1613,8 +1767,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1636,7 +1797,7 @@
       <c r="G20">
         <v>0.02</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>44253</v>
       </c>
       <c r="I20" t="s">
@@ -1653,8 +1814,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1844,7 @@
       <c r="G21">
         <v>0.01</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>44253</v>
       </c>
       <c r="I21" t="s">
@@ -1693,8 +1861,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD20210318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1716,7 +1891,7 @@
       <c r="G22">
         <v>0.01</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>44571</v>
       </c>
       <c r="I22" t="s">
@@ -1733,8 +1908,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>REF00121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1756,7 +1938,7 @@
       <c r="G23">
         <v>0.02</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>44572</v>
       </c>
       <c r="I23" t="s">
@@ -1773,8 +1955,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>REF00121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1796,7 +1985,7 @@
       <c r="G24">
         <v>0.01</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>44572</v>
       </c>
       <c r="I24" t="s">
@@ -1813,8 +2002,15 @@
         <f t="shared" si="1"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>REF00121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1836,7 +2032,7 @@
       <c r="G25">
         <v>0.02</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>44234</v>
       </c>
       <c r="I25" t="s">
@@ -1853,8 +2049,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>REF001DEMO24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +2079,7 @@
       <c r="G26">
         <v>0.01</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>44235</v>
       </c>
       <c r="I26" t="s">
@@ -1893,8 +2096,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>REF001DEMO24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +2126,7 @@
       <c r="G27">
         <v>0.08</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>44257</v>
       </c>
       <c r="I27" t="s">
@@ -1933,8 +2143,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +2173,7 @@
       <c r="G28">
         <v>0.01</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>44257</v>
       </c>
       <c r="I28" t="s">
@@ -1973,8 +2190,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2220,7 @@
       <c r="G29">
         <v>0.02</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>44258</v>
       </c>
       <c r="I29" t="s">
@@ -2013,8 +2237,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2267,7 @@
       <c r="G30">
         <v>0.01</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>44522</v>
       </c>
       <c r="I30" t="s">
@@ -2053,8 +2284,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2314,7 @@
       <c r="G31">
         <v>0.01</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>44524</v>
       </c>
       <c r="I31" t="s">
@@ -2093,8 +2331,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2116,7 +2361,7 @@
       <c r="G32">
         <v>0.02</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>44520</v>
       </c>
       <c r="I32" t="s">
@@ -2133,8 +2378,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2408,7 @@
       <c r="G33">
         <v>0.01</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>44521</v>
       </c>
       <c r="I33" t="s">
@@ -2173,8 +2425,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2455,7 @@
       <c r="G34">
         <v>0.08</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>44211</v>
       </c>
       <c r="I34" t="s">
@@ -2213,8 +2472,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM01233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2502,7 @@
       <c r="G35">
         <v>0.08</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>44211</v>
       </c>
       <c r="I35" t="s">
@@ -2253,8 +2519,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>34</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM01233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2276,7 +2549,7 @@
       <c r="G36">
         <v>0.01</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="4">
         <v>44209</v>
       </c>
       <c r="I36" t="s">
@@ -2293,8 +2566,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM999235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2596,7 @@
       <c r="G37">
         <v>0.03</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="4">
         <v>44209</v>
       </c>
       <c r="I37" t="s">
@@ -2333,8 +2613,15 @@
         <f t="shared" si="1"/>
         <v>AL</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM999235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +2643,7 @@
       <c r="G38">
         <v>0.01</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="4">
         <v>44210</v>
       </c>
       <c r="I38" t="s">
@@ -2373,8 +2660,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM009137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2396,7 +2690,7 @@
       <c r="G39">
         <v>0.01</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="4">
         <v>44210</v>
       </c>
       <c r="I39" t="s">
@@ -2413,8 +2707,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM009137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2436,7 +2737,7 @@
       <c r="G40">
         <v>0.01</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="4">
         <v>44201</v>
       </c>
       <c r="I40" t="s">
@@ -2453,8 +2754,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM559139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2784,7 @@
       <c r="G41">
         <v>0.01</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="4">
         <v>44201</v>
       </c>
       <c r="I41" t="s">
@@ -2493,8 +2801,15 @@
         <f t="shared" si="1"/>
         <v>AL</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>40</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM559139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2831,7 @@
       <c r="G42">
         <v>0.01</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="4">
         <v>44201</v>
       </c>
       <c r="I42" t="s">
@@ -2533,8 +2848,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM559139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2556,7 +2878,7 @@
       <c r="G43">
         <v>0.02</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="4">
         <v>44224</v>
       </c>
       <c r="I43" t="s">
@@ -2573,8 +2895,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>42</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM559139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2925,7 @@
       <c r="G44">
         <v>0.02</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="4">
         <v>44224</v>
       </c>
       <c r="I44" t="s">
@@ -2613,8 +2942,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM559139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2636,7 +2972,7 @@
       <c r="G45">
         <v>0.01</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="4">
         <v>44209</v>
       </c>
       <c r="I45" t="s">
@@ -2653,8 +2989,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD1009244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2676,7 +3019,7 @@
       <c r="G46">
         <v>0.01</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>44209</v>
       </c>
       <c r="I46" t="s">
@@ -2693,8 +3036,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>45</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD1009244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +3066,7 @@
       <c r="G47">
         <v>0.02</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="4">
         <v>44277</v>
       </c>
       <c r="I47" t="s">
@@ -2733,8 +3083,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>REF20146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2756,7 +3113,7 @@
       <c r="G48">
         <v>0.02</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="4">
         <v>44277</v>
       </c>
       <c r="I48" t="s">
@@ -2773,8 +3130,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>47</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>REF20146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2796,7 +3160,7 @@
       <c r="G49">
         <v>0.01</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>44155</v>
       </c>
       <c r="I49" t="s">
@@ -2813,8 +3177,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>48</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2836,7 +3207,7 @@
       <c r="G50">
         <v>0.01</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="4">
         <v>44157</v>
       </c>
       <c r="I50" t="s">
@@ -2853,8 +3224,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>49</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +3254,7 @@
       <c r="G51">
         <v>0.08</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>44155</v>
       </c>
       <c r="I51" t="s">
@@ -2893,8 +3271,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>50</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2916,7 +3301,7 @@
       <c r="G52">
         <v>0.08</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="4">
         <v>44155</v>
       </c>
       <c r="I52" t="s">
@@ -2933,8 +3318,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>51</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +3348,7 @@
       <c r="G53">
         <v>0.01</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="4">
         <v>44156</v>
       </c>
       <c r="I53" t="s">
@@ -2973,8 +3365,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>52</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2996,7 +3395,7 @@
       <c r="G54">
         <v>0.01</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="4">
         <v>44156</v>
       </c>
       <c r="I54" t="s">
@@ -3013,8 +3412,15 @@
         <f t="shared" si="1"/>
         <v>CN</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>53</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO0152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3036,7 +3442,7 @@
       <c r="G55">
         <v>0.04</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="4">
         <v>44162</v>
       </c>
       <c r="I55" t="s">
@@ -3053,8 +3459,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>54</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO90154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3076,7 +3489,7 @@
       <c r="G56">
         <v>0.01</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="4">
         <v>44162</v>
       </c>
       <c r="I56" t="s">
@@ -3093,8 +3506,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>55</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEMO90154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3116,7 +3536,7 @@
       <c r="G57">
         <v>0.01</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="4">
         <v>44256</v>
       </c>
       <c r="I57" t="s">
@@ -3133,8 +3553,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>56</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3583,7 @@
       <c r="G58">
         <v>0.08</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="4">
         <v>44256</v>
       </c>
       <c r="I58" t="s">
@@ -3173,8 +3600,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>57</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3196,7 +3630,7 @@
       <c r="G59">
         <v>0.02</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="4">
         <v>44256</v>
       </c>
       <c r="I59" t="s">
@@ -3213,8 +3647,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>58</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3236,7 +3677,7 @@
       <c r="G60">
         <v>0.01</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="4">
         <v>44256</v>
       </c>
       <c r="I60" t="s">
@@ -3253,8 +3694,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>59</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3276,7 +3724,7 @@
       <c r="G61">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="4">
         <v>44211</v>
       </c>
       <c r="I61" t="s">
@@ -3293,8 +3741,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>60</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM159160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3316,7 +3771,7 @@
       <c r="G62">
         <v>0.01</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="4">
         <v>44211</v>
       </c>
       <c r="I62" t="s">
@@ -3333,8 +3788,15 @@
         <f t="shared" si="1"/>
         <v>AU</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>61</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>REFDEM159160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3356,7 +3818,7 @@
       <c r="G63">
         <v>0.01</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="4">
         <v>44217</v>
       </c>
       <c r="I63" t="s">
@@ -3373,8 +3835,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>62</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD1019262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3396,7 +3865,7 @@
       <c r="G64">
         <v>0.08</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="4">
         <v>44218</v>
       </c>
       <c r="I64" t="s">
@@ -3413,8 +3882,15 @@
         <f t="shared" si="1"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>63</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD1019262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3436,7 +3912,7 @@
       <c r="G65">
         <v>0.01</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="4">
         <v>44257</v>
       </c>
       <c r="I65" t="s">
@@ -3453,8 +3929,15 @@
         <f t="shared" si="1"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>64</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3476,7 +3959,7 @@
       <c r="G66">
         <v>0.01</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="4">
         <v>44258</v>
       </c>
       <c r="I66" t="s">
@@ -3493,8 +3976,15 @@
         <f t="shared" si="1"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>65</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="2"/>
+        <v>REFD54310564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +4006,7 @@
       <c r="G67">
         <v>0.08</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="4">
         <v>44278</v>
       </c>
       <c r="I67" t="s">
@@ -3526,15 +4016,22 @@
         <v>123</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K91" si="2">MID(F67&amp;" ",1,4)</f>
+        <f t="shared" ref="K67:K91" si="3">MID(F67&amp;" ",1,4)</f>
         <v>CHAS</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L91" si="3">MID(F67&amp;" ",5,2)</f>
+        <f t="shared" ref="L67:L91" si="4">MID(F67&amp;" ",5,2)</f>
         <v>US</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>66</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="2"/>
+        <v>REFZ99966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +4053,7 @@
       <c r="G68">
         <v>0.08</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="4">
         <v>44278</v>
       </c>
       <c r="I68" t="s">
@@ -3566,15 +4063,22 @@
         <v>124</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>REDJ</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>67</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" ref="N68:N91" si="5">IF(C68=C67,N67,C68&amp;M68)</f>
+        <v>REFZ99966</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3596,7 +4100,7 @@
       <c r="G69">
         <v>0.02</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="4">
         <v>44217</v>
       </c>
       <c r="I69" t="s">
@@ -3606,15 +4110,22 @@
         <v>123</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>68</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3636,7 +4147,7 @@
       <c r="G70">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="4">
         <v>44223</v>
       </c>
       <c r="I70" t="s">
@@ -3646,15 +4157,22 @@
         <v>124</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BINA</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>69</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3676,7 +4194,7 @@
       <c r="G71">
         <v>0.02</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="4">
         <v>44549</v>
       </c>
       <c r="I71" t="s">
@@ -3686,15 +4204,22 @@
         <v>123</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71">
+        <v>70</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="5"/>
+        <v>REFTEST0170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3716,7 +4241,7 @@
       <c r="G72">
         <v>0.01</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="4">
         <v>44550</v>
       </c>
       <c r="I72" t="s">
@@ -3726,15 +4251,22 @@
         <v>125</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BINA</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72">
+        <v>71</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="5"/>
+        <v>REFTEST0170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3756,7 +4288,7 @@
       <c r="G73">
         <v>0.02</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="4">
         <v>44550</v>
       </c>
       <c r="I73" t="s">
@@ -3766,15 +4298,22 @@
         <v>124</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BSJU</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AR</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73">
+        <v>72</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="5"/>
+        <v>REFTEST0170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3796,7 +4335,7 @@
       <c r="G74">
         <v>0.01</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="4">
         <v>44297</v>
       </c>
       <c r="I74" t="s">
@@ -3806,15 +4345,22 @@
         <v>123</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M74">
+        <v>73</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3836,7 +4382,7 @@
       <c r="G75">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="4">
         <v>44297</v>
       </c>
       <c r="I75" t="s">
@@ -3846,15 +4392,22 @@
         <v>125</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AGRI</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75">
+        <v>74</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3876,7 +4429,7 @@
       <c r="G76">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="4">
         <v>44299</v>
       </c>
       <c r="I76" t="s">
@@ -3886,15 +4439,22 @@
         <v>124</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>REDJ</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76">
+        <v>75</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3916,7 +4476,7 @@
       <c r="G77">
         <v>0.02</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="4">
         <v>44240</v>
       </c>
       <c r="I77" t="s">
@@ -3926,15 +4486,22 @@
         <v>123</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77">
+        <v>76</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +4523,7 @@
       <c r="G78">
         <v>0.01</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="4">
         <v>44241</v>
       </c>
       <c r="I78" t="s">
@@ -3966,15 +4533,22 @@
         <v>124</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AGRI</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>77</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="5"/>
+        <v>REF21173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +4570,7 @@
       <c r="G79">
         <v>0.02</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="4">
         <v>44388</v>
       </c>
       <c r="I79" t="s">
@@ -4006,15 +4580,22 @@
         <v>123</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <v>78</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="5"/>
+        <v>REF2178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4036,7 +4617,7 @@
       <c r="G80">
         <v>0.03</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="4">
         <v>44388</v>
       </c>
       <c r="I80" t="s">
@@ -4046,15 +4627,22 @@
         <v>126</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AGRI</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <v>79</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="5"/>
+        <v>REF2178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4076,7 +4664,7 @@
       <c r="G81">
         <v>0.02</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="4">
         <v>44305</v>
       </c>
       <c r="I81" t="s">
@@ -4086,15 +4674,22 @@
         <v>123</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <v>80</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="5"/>
+        <v>REF11180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4116,7 +4711,7 @@
       <c r="G82">
         <v>0.01</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="4">
         <v>44306</v>
       </c>
       <c r="I82" t="s">
@@ -4126,15 +4721,22 @@
         <v>124</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BINA</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AD</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <v>81</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="5"/>
+        <v>REF11180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4758,7 @@
       <c r="G83">
         <v>0.02</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="4">
         <v>44454</v>
       </c>
       <c r="I83" t="s">
@@ -4166,15 +4768,22 @@
         <v>123</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <v>82</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4196,7 +4805,7 @@
       <c r="G84">
         <v>0.01</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="4">
         <v>44455</v>
       </c>
       <c r="I84" t="s">
@@ -4206,15 +4815,22 @@
         <v>127</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AGRI</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>FR</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <v>83</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4236,7 +4852,7 @@
       <c r="G85">
         <v>0.08</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="4">
         <v>44455</v>
       </c>
       <c r="I85" t="s">
@@ -4246,15 +4862,22 @@
         <v>127</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>REDJ</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BY</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>84</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4276,7 +4899,7 @@
       <c r="G86">
         <v>0.01</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="4">
         <v>44388</v>
       </c>
       <c r="I86" t="s">
@@ -4286,15 +4909,22 @@
         <v>123</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <v>85</v>
+      </c>
+      <c r="N86" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4946,7 @@
       <c r="G87">
         <v>0.02</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="4">
         <v>44389</v>
       </c>
       <c r="I87" t="s">
@@ -4326,15 +4956,22 @@
         <v>125</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <v>86</v>
+      </c>
+      <c r="N87" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -4356,7 +4993,7 @@
       <c r="G88">
         <v>0.01</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="4">
         <v>44390</v>
       </c>
       <c r="I88" t="s">
@@ -4366,15 +5003,22 @@
         <v>126</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88">
+        <v>87</v>
+      </c>
+      <c r="N88" t="str">
+        <f t="shared" si="5"/>
+        <v>REFD20210385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -4396,7 +5040,7 @@
       <c r="G89">
         <v>0.01</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="4">
         <v>44474</v>
       </c>
       <c r="I89" t="s">
@@ -4406,15 +5050,22 @@
         <v>123</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89">
+        <v>88</v>
+      </c>
+      <c r="N89" t="str">
+        <f t="shared" si="5"/>
+        <v>REF00188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +5087,7 @@
       <c r="G90">
         <v>0.02</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="4">
         <v>44474</v>
       </c>
       <c r="I90" t="s">
@@ -4446,15 +5097,22 @@
         <v>125</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CHAS</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>US</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90">
+        <v>89</v>
+      </c>
+      <c r="N90" t="str">
+        <f t="shared" si="5"/>
+        <v>REF00188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +5134,7 @@
       <c r="G91">
         <v>0.01</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="4">
         <v>44476</v>
       </c>
       <c r="I91" t="s">
@@ -4486,12 +5144,19 @@
         <v>125</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BINA</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AD</v>
+      </c>
+      <c r="M91">
+        <v>90</v>
+      </c>
+      <c r="N91" t="str">
+        <f t="shared" si="5"/>
+        <v>REF00188</v>
       </c>
     </row>
   </sheetData>

--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\git2\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D38706-0257-4836-B5F4-D953CC572BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E341AF-0B90-450B-A373-677D36BE3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$91</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="170">
   <si>
     <t>Debtor</t>
   </si>
@@ -431,14 +437,123 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>REFTEST0145373</t>
+  </si>
+  <si>
+    <t>REF21110000006</t>
+  </si>
+  <si>
+    <t>REF212390011</t>
+  </si>
+  <si>
+    <t>REF111564313</t>
+  </si>
+  <si>
+    <t>REFD202102456915</t>
+  </si>
+  <si>
+    <t>REFD20210345618</t>
+  </si>
+  <si>
+    <t>REF001332621</t>
+  </si>
+  <si>
+    <t>REF001DEMO110024</t>
+  </si>
+  <si>
+    <t>REFD543105110026</t>
+  </si>
+  <si>
+    <t>REFDEMO0190029</t>
+  </si>
+  <si>
+    <t>REFDEM01223833</t>
+  </si>
+  <si>
+    <t>REFDEM9992670935</t>
+  </si>
+  <si>
+    <t>REFDEM0091518837</t>
+  </si>
+  <si>
+    <t>REFDEM559112039</t>
+  </si>
+  <si>
+    <t>REFD100926756944</t>
+  </si>
+  <si>
+    <t>REF201210046</t>
+  </si>
+  <si>
+    <t>REFDEMO0180048</t>
+  </si>
+  <si>
+    <t>REFDEMO02102550</t>
+  </si>
+  <si>
+    <t>REFDEMO018760052</t>
+  </si>
+  <si>
+    <t>REFDEMO901160054</t>
+  </si>
+  <si>
+    <t>REFD543104310056</t>
+  </si>
+  <si>
+    <t>REFD54310345658</t>
+  </si>
+  <si>
+    <t>REFDEM159134860</t>
+  </si>
+  <si>
+    <t>REFD101926756962</t>
+  </si>
+  <si>
+    <t>REFD543105110064</t>
+  </si>
+  <si>
+    <t>REFZ9991210066</t>
+  </si>
+  <si>
+    <t>REF2111000068</t>
+  </si>
+  <si>
+    <t>REFTEST01234570</t>
+  </si>
+  <si>
+    <t>REF211789073</t>
+  </si>
+  <si>
+    <t>REF211200078</t>
+  </si>
+  <si>
+    <t>REF1113000080</t>
+  </si>
+  <si>
+    <t>REFD2021021240082</t>
+  </si>
+  <si>
+    <t>REFD2021031743085</t>
+  </si>
+  <si>
+    <t>REF0011200088</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -503,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -514,8 +629,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +651,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -854,23 +971,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P91"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +1038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -963,16 +1084,16 @@
         <f>C2</f>
         <v>REF211</v>
       </c>
-      <c r="O2" t="e">
-        <f>TEXT(H2,"dd/mm/yyyy")</f>
-        <v>#VALUE!</v>
+      <c r="O2" s="6">
+        <f>H2+I2</f>
+        <v>44271.34375</v>
       </c>
       <c r="P2" s="5">
         <f ca="1">TODAY()</f>
         <v>44582</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1015,15 +1136,19 @@
         <v>2</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(C3=C2,N2,C3&amp;M3)</f>
+        <f>IF(C3=C2,N2,C3&amp;D3&amp;M3)</f>
         <v>REF211</v>
       </c>
-      <c r="O3" t="e">
-        <f>DATEVALUE(H3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O3" s="6">
+        <f>H3+I3</f>
+        <v>44272.65625</v>
+      </c>
+      <c r="Q3">
+        <f>(I3-I2)*24</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1066,11 +1191,15 @@
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="2">IF(C4=C3,N3,C4&amp;M4)</f>
-        <v>REFTEST013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N4:N67" si="2">IF(C4=C3,N3,C4&amp;D4&amp;M4)</f>
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:O67" si="3">H4+I4</f>
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1114,10 +1243,14 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="2"/>
-        <v>REFTEST013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.53125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1161,10 +1294,14 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>REFTEST013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>44273.59375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1311,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>1000000</v>
       </c>
       <c r="E7" t="s">
@@ -1208,10 +1345,14 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>REF2116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF21110000006</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>44502.356944444444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1221,7 +1362,7 @@
       <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>1000000</v>
       </c>
       <c r="E8" t="s">
@@ -1255,10 +1396,14 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>REF2116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF21110000006</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>44503.527777777781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1268,7 +1413,7 @@
       <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>1000000</v>
       </c>
       <c r="E9" t="s">
@@ -1302,10 +1447,22 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>REF2116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF21110000006</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="3"/>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="P9" s="7">
+        <f>(O9-O8)*24</f>
+        <v>4.8999999999068677</v>
+      </c>
+      <c r="Q9">
+        <f>(I9-I8)*24</f>
+        <v>4.8999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1472,7 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>11000</v>
       </c>
       <c r="E10" t="s">
@@ -1349,10 +1506,14 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="2"/>
-        <v>REF2116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF21110000006</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.386111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1523,7 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>11000</v>
       </c>
       <c r="E11" t="s">
@@ -1396,10 +1557,14 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="2"/>
-        <v>REF2116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF21110000006</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.522222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1443,10 +1608,14 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="2"/>
-        <v>REF2111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF212390011</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.424305555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1490,10 +1659,14 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="2"/>
-        <v>REF2111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF212390011</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.731944444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1537,10 +1710,14 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="2"/>
-        <v>REF11113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF111564313</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="3"/>
+        <v>44275.551388888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1584,10 +1761,14 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="2"/>
-        <v>REF11113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>REF111564313</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="3"/>
+        <v>44276.523611111108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1631,10 +1812,14 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="3"/>
+        <v>44248.432638888888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1678,10 +1863,14 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="3"/>
+        <v>44248.488194444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1725,10 +1914,14 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="3"/>
+        <v>44248.709722222222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1772,10 +1965,14 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="3"/>
+        <v>44253.529861111114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1819,10 +2016,14 @@
       </c>
       <c r="N20" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="3"/>
+        <v>44253.65347222222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1866,10 +2067,14 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="2"/>
-        <v>REFD20210318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="3"/>
+        <v>44253.756944444445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1913,10 +2118,14 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="2"/>
-        <v>REF00121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF001332621</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="3"/>
+        <v>44571.529861111114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1960,10 +2169,14 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="2"/>
-        <v>REF00121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF001332621</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="3"/>
+        <v>44572.605555555558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2007,10 +2220,14 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="2"/>
-        <v>REF00121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF001332621</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="3"/>
+        <v>44572.76458333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2054,10 +2271,14 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="2"/>
-        <v>REF001DEMO24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF001DEMO110024</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="3"/>
+        <v>44234.654861111114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2101,10 +2322,14 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="2"/>
-        <v>REF001DEMO24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF001DEMO110024</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="3"/>
+        <v>44235.722916666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2148,10 +2373,14 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310526</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="3"/>
+        <v>44257.508333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2195,10 +2424,14 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>44257.571527777778</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2242,10 +2475,14 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="3"/>
+        <v>44258.756944444445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2289,10 +2526,14 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="3"/>
+        <v>44522.466666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2336,10 +2577,14 @@
       </c>
       <c r="N31" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="3"/>
+        <v>44524.613888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2383,10 +2628,14 @@
       </c>
       <c r="N32" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="3"/>
+        <v>44520.432638888888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2430,10 +2679,14 @@
       </c>
       <c r="N33" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="3"/>
+        <v>44521.480555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2477,10 +2730,14 @@
       </c>
       <c r="N34" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM01233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM01223833</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="3"/>
+        <v>44211.756944444445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2524,10 +2781,14 @@
       </c>
       <c r="N35" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM01233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM01223833</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="3"/>
+        <v>44211.529861111114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2571,10 +2832,14 @@
       </c>
       <c r="N36" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM999235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM9992670935</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="3"/>
+        <v>44209.605555555558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2618,10 +2883,14 @@
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM999235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM9992670935</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="3"/>
+        <v>44209.605555555558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2665,10 +2934,14 @@
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM009137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM0091518837</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="3"/>
+        <v>44210.654861111114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2712,10 +2985,14 @@
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM009137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM0091518837</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="3"/>
+        <v>44210.654861111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2759,10 +3036,14 @@
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM559139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="3"/>
+        <v>44201.508333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2806,10 +3087,14 @@
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM559139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="3"/>
+        <v>44201.513194444444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2853,10 +3138,14 @@
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM559139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="3"/>
+        <v>44201.722222222219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2900,10 +3189,14 @@
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM559139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="3"/>
+        <v>44224.557638888888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2947,10 +3240,14 @@
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM559139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="3"/>
+        <v>44224.798611111109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2994,10 +3291,14 @@
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
-        <v>REFD1009244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD100926756944</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="3"/>
+        <v>44209.474305555559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3041,10 +3342,14 @@
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
-        <v>REFD1009244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD100926756944</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="3"/>
+        <v>44209.53125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3088,10 +3393,14 @@
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
-        <v>REF20146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF201210046</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="3"/>
+        <v>44277.591666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3135,10 +3444,14 @@
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
-        <v>REF20146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REF201210046</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="3"/>
+        <v>44277.715277777781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3182,10 +3495,14 @@
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0180048</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="3"/>
+        <v>44155.383333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3229,10 +3546,14 @@
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO0180048</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="3"/>
+        <v>44157.715277777781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3276,10 +3597,14 @@
       </c>
       <c r="N51" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO02102550</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="3"/>
+        <v>44155.47152777778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3323,10 +3648,14 @@
       </c>
       <c r="N52" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO02102550</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="3"/>
+        <v>44155.881944444445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3370,10 +3699,14 @@
       </c>
       <c r="N53" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO018760052</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="3"/>
+        <v>44156.474305555559</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3417,10 +3750,14 @@
       </c>
       <c r="N54" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO0152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO018760052</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="3"/>
+        <v>44156.591666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3464,10 +3801,14 @@
       </c>
       <c r="N55" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO90154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO901160054</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="3"/>
+        <v>44162.40625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3511,10 +3852,14 @@
       </c>
       <c r="N56" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEMO90154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEMO901160054</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="3"/>
+        <v>44162.763888888891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3558,10 +3903,14 @@
       </c>
       <c r="N57" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543104310056</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="3"/>
+        <v>44256.474305555559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3605,10 +3954,14 @@
       </c>
       <c r="N58" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543104310056</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="3"/>
+        <v>44256.756944444445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -3652,10 +4005,14 @@
       </c>
       <c r="N59" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD54310345658</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="3"/>
+        <v>44256.599305555559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3699,10 +4056,14 @@
       </c>
       <c r="N60" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310358</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD54310345658</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="3"/>
+        <v>44256.800000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -3746,10 +4107,14 @@
       </c>
       <c r="N61" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM159160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM159134860</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="3"/>
+        <v>44211.356944444444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -3793,10 +4158,14 @@
       </c>
       <c r="N62" t="str">
         <f t="shared" si="2"/>
-        <v>REFDEM159160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFDEM159134860</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="3"/>
+        <v>44211.527083333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -3840,10 +4209,14 @@
       </c>
       <c r="N63" t="str">
         <f t="shared" si="2"/>
-        <v>REFD1019262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD101926756962</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="3"/>
+        <v>44217.412499999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3887,10 +4260,14 @@
       </c>
       <c r="N64" t="str">
         <f t="shared" si="2"/>
-        <v>REFD1019262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD101926756962</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="3"/>
+        <v>44218.730555555558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3934,10 +4311,14 @@
       </c>
       <c r="N65" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310564</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543105110064</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="3"/>
+        <v>44257.605555555558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3981,10 +4362,14 @@
       </c>
       <c r="N66" t="str">
         <f t="shared" si="2"/>
-        <v>REFD54310564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFD543105110064</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="3"/>
+        <v>44258.648611111108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -4016,11 +4401,11 @@
         <v>123</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K91" si="3">MID(F67&amp;" ",1,4)</f>
+        <f t="shared" ref="K67:K91" si="4">MID(F67&amp;" ",1,4)</f>
         <v>CHAS</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L91" si="4">MID(F67&amp;" ",5,2)</f>
+        <f t="shared" ref="L67:L91" si="5">MID(F67&amp;" ",5,2)</f>
         <v>US</v>
       </c>
       <c r="M67">
@@ -4028,10 +4413,14 @@
       </c>
       <c r="N67" t="str">
         <f t="shared" si="2"/>
-        <v>REFZ99966</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+        <v>REFZ9991210066</v>
+      </c>
+      <c r="O67" s="6">
+        <f t="shared" si="3"/>
+        <v>44278.341666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4063,22 +4452,26 @@
         <v>124</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>REDJ</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BY</v>
       </c>
       <c r="M68">
         <v>67</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N91" si="5">IF(C68=C67,N67,C68&amp;M68)</f>
-        <v>REFZ99966</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="N68:N91" si="6">IF(C68=C67,N67,C68&amp;D68&amp;M68)</f>
+        <v>REFZ9991210066</v>
+      </c>
+      <c r="O68" s="6">
+        <f t="shared" ref="O68:O91" si="7">H68+I68</f>
+        <v>44278.523611111108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -4110,22 +4503,26 @@
         <v>123</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M69">
         <v>68</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF2111000068</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="7"/>
+        <v>44217.40625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4157,22 +4554,26 @@
         <v>124</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BINA</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AD</v>
       </c>
       <c r="M70">
         <v>69</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF2111000068</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="7"/>
+        <v>44223.533333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -4204,22 +4605,26 @@
         <v>123</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M71">
         <v>70</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="5"/>
-        <v>REFTEST0170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="7"/>
+        <v>44549.425000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -4251,22 +4656,26 @@
         <v>125</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BINA</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AD</v>
       </c>
       <c r="M72">
         <v>71</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="5"/>
-        <v>REFTEST0170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="7"/>
+        <v>44550.561805555553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -4298,22 +4707,26 @@
         <v>124</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BSJU</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AR</v>
       </c>
       <c r="M73">
         <v>72</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="5"/>
-        <v>REFTEST0170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="7"/>
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4345,22 +4758,26 @@
         <v>123</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M74">
         <v>73</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211789073</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="7"/>
+        <v>44297.523611111108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4392,22 +4809,26 @@
         <v>125</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AGRI</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FR</v>
       </c>
       <c r="M75">
         <v>74</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211789073</v>
+      </c>
+      <c r="O75" s="6">
+        <f t="shared" si="7"/>
+        <v>44297.716666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4439,22 +4860,26 @@
         <v>124</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>REDJ</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BY</v>
       </c>
       <c r="M76">
         <v>75</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211789073</v>
+      </c>
+      <c r="O76" s="6">
+        <f t="shared" si="7"/>
+        <v>44299.756944444445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4486,22 +4911,26 @@
         <v>123</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M77">
         <v>76</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211789073</v>
+      </c>
+      <c r="O77" s="6">
+        <f t="shared" si="7"/>
+        <v>44240.386111111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4533,22 +4962,26 @@
         <v>124</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AGRI</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FR</v>
       </c>
       <c r="M78">
         <v>77</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="5"/>
-        <v>REF21173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211789073</v>
+      </c>
+      <c r="O78" s="6">
+        <f t="shared" si="7"/>
+        <v>44241.522222222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4580,22 +5013,26 @@
         <v>123</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M79">
         <v>78</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="5"/>
-        <v>REF2178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211200078</v>
+      </c>
+      <c r="O79" s="6">
+        <f t="shared" si="7"/>
+        <v>44388.424305555556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -4627,22 +5064,26 @@
         <v>126</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AGRI</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FR</v>
       </c>
       <c r="M80">
         <v>79</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="5"/>
-        <v>REF2178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF211200078</v>
+      </c>
+      <c r="O80" s="6">
+        <f t="shared" si="7"/>
+        <v>44388.731944444444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4674,22 +5115,26 @@
         <v>123</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M81">
         <v>80</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="5"/>
-        <v>REF11180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF1113000080</v>
+      </c>
+      <c r="O81" s="6">
+        <f t="shared" si="7"/>
+        <v>44305.551388888889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -4721,22 +5166,26 @@
         <v>124</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BINA</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AD</v>
       </c>
       <c r="M82">
         <v>81</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="5"/>
-        <v>REF11180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF1113000080</v>
+      </c>
+      <c r="O82" s="6">
+        <f t="shared" si="7"/>
+        <v>44306.523611111108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4768,22 +5217,26 @@
         <v>123</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M83">
         <v>82</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O83" s="6">
+        <f t="shared" si="7"/>
+        <v>44454.432638888888</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -4815,22 +5268,26 @@
         <v>127</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AGRI</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FR</v>
       </c>
       <c r="M84">
         <v>83</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O84" s="6">
+        <f t="shared" si="7"/>
+        <v>44455.488194444442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -4862,22 +5319,26 @@
         <v>127</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>REDJ</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BY</v>
       </c>
       <c r="M85">
         <v>84</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O85" s="6">
+        <f t="shared" si="7"/>
+        <v>44455.709722222222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -4909,22 +5370,26 @@
         <v>123</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M86">
         <v>85</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210385</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O86" s="6">
+        <f t="shared" si="7"/>
+        <v>44388.529861111114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -4956,22 +5421,26 @@
         <v>125</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M87">
         <v>86</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210385</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O87" s="6">
+        <f t="shared" si="7"/>
+        <v>44389.65347222222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -5003,22 +5472,26 @@
         <v>126</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M88">
         <v>87</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="5"/>
-        <v>REFD20210385</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="7"/>
+        <v>44390.756944444445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -5050,22 +5523,26 @@
         <v>123</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M89">
         <v>88</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="5"/>
-        <v>REF00188</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O89" s="6">
+        <f t="shared" si="7"/>
+        <v>44474.529861111114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -5097,22 +5574,26 @@
         <v>125</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CHAS</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>US</v>
       </c>
       <c r="M90">
         <v>89</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="5"/>
-        <v>REF00188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O90" s="6">
+        <f t="shared" si="7"/>
+        <v>44474.605555555558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -5144,23 +5625,664 @@
         <v>125</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BINA</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AD</v>
       </c>
       <c r="M91">
         <v>90</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="5"/>
-        <v>REF00188</v>
+        <f t="shared" si="6"/>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O91" s="6">
+        <f t="shared" si="7"/>
+        <v>44476.76458333333</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q91" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="REF212390011"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E696A89E-917A-4B42-88D2-26C248F71D6E}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44272.65625</v>
+      </c>
+      <c r="C3" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44271.34375</v>
+      </c>
+      <c r="D3" s="7">
+        <f>(B3-C3)*24</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44273.59375</v>
+      </c>
+      <c r="C4" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44271</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(B4-C4)*24</f>
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="C5" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44502.356944444444</v>
+      </c>
+      <c r="D5" s="7">
+        <f>(B5-C5)*24</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44271.424305555556</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" ref="D6:D37" si="0">(B6-C6)*24</f>
+        <v>-1062514.1833333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44276.523611111108</v>
+      </c>
+      <c r="C7" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44275.551388888889</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>23.333333333255723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44248.432638888888</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>-1061962.3833333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44253.529861111114</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>-1062084.7166666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44571.529861111114</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>-1069716.7166666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44235.722916666666</v>
+      </c>
+      <c r="C11" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44234.654861111114</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>25.633333333244082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44258.756944444445</v>
+      </c>
+      <c r="C12" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44257.508333333331</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>29.966666666732635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44524.613888888889</v>
+      </c>
+      <c r="C13" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44522.466666666667</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>51.533333333325572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44211.756944444445</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>-1061082.1666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="C15" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44224.798611111109</v>
+      </c>
+      <c r="C17" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44224.557638888888</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7833333333255723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44209.53125</v>
+      </c>
+      <c r="C18" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44209.474305555559</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3666666665812954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44277.715277777781</v>
+      </c>
+      <c r="C19" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44277.591666666667</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9666666667326353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44157.715277777781</v>
+      </c>
+      <c r="C20" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44155.383333333331</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>55.966666666790843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44155.881944444445</v>
+      </c>
+      <c r="C21" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44155.47152777778</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8499999999767169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44156.591666666667</v>
+      </c>
+      <c r="C22" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44156.474305555559</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.816666666592937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44162.763888888891</v>
+      </c>
+      <c r="C23" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44162.40625</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5833333333721384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44256.474305555559</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>-1062155.3833333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44256.800000000003</v>
+      </c>
+      <c r="C25" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44256.599305555559</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8166666666511446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44211.527083333334</v>
+      </c>
+      <c r="C26" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44211.356944444444</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0833333333721384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44218.730555555558</v>
+      </c>
+      <c r="C27" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44217.412499999999</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>31.633333333418705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44257.605555555558</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>-1062182.5333333334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44278.523611111108</v>
+      </c>
+      <c r="C29" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44278.341666666667</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3666666665812954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44223.533333333333</v>
+      </c>
+      <c r="C30" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44217.40625</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>147.04999999998836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44550</v>
+      </c>
+      <c r="C31" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44549.425000000003</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>13.799999999930151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44299.756944444445</v>
+      </c>
+      <c r="C32" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44297.523611111108</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>53.600000000093132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44388.424305555556</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>-1065322.1833333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>44306.523611111108</v>
+      </c>
+      <c r="C34" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44305.551388888889</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>23.333333333255723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44454.432638888888</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>-1066906.3833333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44388.529861111114</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>-1065324.7166666668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+        <v>44474.529861111114</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>-1067388.7166666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E341AF-0B90-450B-A373-677D36BE3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127691D-6114-4DB2-BDF3-336FC4266AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet OS" sheetId="1" r:id="rId1"/>
+    <sheet name="AvgTime" sheetId="2" r:id="rId2"/>
+    <sheet name="Charges" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId4"/>
+    <sheet name="Last Status" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AvgTime!$A$9:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Charges!$A$4:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet OS'!$A$1:$Q$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="197">
   <si>
     <t>Debtor</t>
   </si>
@@ -545,6 +550,87 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>REF211110009</t>
+  </si>
+  <si>
+    <t>REFDEMO01102531</t>
+  </si>
+  <si>
+    <t>REFDEM5591672042</t>
+  </si>
+  <si>
+    <t>REF2111200076</t>
+  </si>
+  <si>
+    <t>REF111300081</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Charges total</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ANDORA</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>ALBANIE</t>
+  </si>
+  <si>
+    <t>AUSTRALIE</t>
+  </si>
+  <si>
+    <t>ARGENTINE</t>
+  </si>
+  <si>
+    <t>BELORUS</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -553,9 +639,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,13 +657,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -618,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -631,8 +730,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,11 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,12 +1090,12 @@
     <col min="8" max="8" width="21.90625" customWidth="1"/>
     <col min="10" max="10" width="12.1796875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +1141,14 @@
       <c r="O1" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1088,12 +1198,24 @@
         <f>H2+I2</f>
         <v>44271.34375</v>
       </c>
-      <c r="P2" s="5">
-        <f ca="1">TODAY()</f>
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <f>COUNTIF($C$2:$C$91,$C2)</f>
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF($N$2:$N$91,$N2)</f>
+        <v>2</v>
+      </c>
+      <c r="R2" t="str">
+        <f>VLOOKUP(N2,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S2" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N2,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J2,Charges!$A$3:$S$3,0))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1136,19 +1258,31 @@
         <v>2</v>
       </c>
       <c r="N3" t="str">
-        <f>IF(C3=C2,N2,C3&amp;D3&amp;M3)</f>
+        <f>IF(AND(C3=C2,D3=D2),N2,C3&amp;D3&amp;M3)</f>
         <v>REF211</v>
       </c>
       <c r="O3" s="6">
         <f>H3+I3</f>
         <v>44272.65625</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:Q66" si="2">COUNTIF($C$2:$C$91,$C3)</f>
+        <v>14</v>
+      </c>
       <c r="Q3">
-        <f>(I3-I2)*24</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <f>COUNTIF($N$2:$N$91,$N3)</f>
+        <v>2</v>
+      </c>
+      <c r="R3" t="str">
+        <f>VLOOKUP(N3,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S3" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N3,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J3,Charges!$A$3:$S$3,0))</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1191,15 +1325,31 @@
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="2">IF(C4=C3,N3,C4&amp;D4&amp;M4)</f>
+        <f t="shared" ref="N4:N67" si="3">IF(AND(C4=C3,D4=D3),N3,C4&amp;D4&amp;M4)</f>
         <v>REFTEST0145373</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:O67" si="3">H4+I4</f>
+        <f t="shared" ref="O4:O67" si="4">H4+I4</f>
         <v>44271</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIF($N$2:$N$91,$N4)</f>
+        <v>3</v>
+      </c>
+      <c r="R4" t="str">
+        <f>VLOOKUP(N4,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S4" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N4,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J4,Charges!$A$3:$S$3,0))</f>
+        <v>90.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1242,15 +1392,31 @@
         <v>4</v>
       </c>
       <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="4"/>
+        <v>44271.53125</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>REFTEST0145373</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.53125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <f>COUNTIF($N$2:$N$91,$N5)</f>
+        <v>3</v>
+      </c>
+      <c r="R5" t="str">
+        <f>VLOOKUP(N5,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S5" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N5,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J5,Charges!$A$3:$S$3,0))</f>
+        <v>44.462600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1293,15 +1459,31 @@
         <v>5</v>
       </c>
       <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="4"/>
+        <v>44273.59375</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="2"/>
-        <v>REFTEST0145373</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="3"/>
-        <v>44273.59375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <f>COUNTIF($N$2:$N$91,$N6)</f>
+        <v>3</v>
+      </c>
+      <c r="R6" t="str">
+        <f>VLOOKUP(N6,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S6" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N6,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J6,Charges!$A$3:$S$3,0))</f>
+        <v>88.035948000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1344,15 +1526,31 @@
         <v>6</v>
       </c>
       <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="4"/>
+        <v>44502.356944444444</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="3"/>
-        <v>44502.356944444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q7">
+        <f>COUNTIF($N$2:$N$91,$N7)</f>
+        <v>3</v>
+      </c>
+      <c r="R7" t="str">
+        <f>VLOOKUP(N7,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S7" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N7,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J7,Charges!$A$3:$S$3,0))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1395,15 +1593,31 @@
         <v>7</v>
       </c>
       <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="4"/>
+        <v>44503.527777777781</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="3"/>
-        <v>44503.527777777781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <f>COUNTIF($N$2:$N$91,$N8)</f>
+        <v>3</v>
+      </c>
+      <c r="R8" t="str">
+        <f>VLOOKUP(N8,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S8" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N8,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J8,Charges!$A$3:$S$3,0))</f>
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1446,23 +1660,31 @@
         <v>8</v>
       </c>
       <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="4"/>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="3"/>
-        <v>44503.731944444444</v>
-      </c>
-      <c r="P9" s="7">
-        <f>(O9-O8)*24</f>
-        <v>4.8999999999068677</v>
+        <v>14</v>
       </c>
       <c r="Q9">
-        <f>(I9-I8)*24</f>
-        <v>4.8999999999999986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <f>COUNTIF($N$2:$N$91,$N9)</f>
+        <v>3</v>
+      </c>
+      <c r="R9" t="str">
+        <f>VLOOKUP(N9,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S9" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N9,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J9,Charges!$A$3:$S$3,0))</f>
+        <v>14627.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1505,15 +1727,31 @@
         <v>9</v>
       </c>
       <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>REF211110009</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="4"/>
+        <v>44271.386111111111</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.386111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <f>COUNTIF($N$2:$N$91,$N10)</f>
+        <v>2</v>
+      </c>
+      <c r="R10" t="str">
+        <f>VLOOKUP(N10,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S10" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N10,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J10,Charges!$A$3:$S$3,0))</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1556,15 +1794,31 @@
         <v>10</v>
       </c>
       <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>REF211110009</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="4"/>
+        <v>44271.522222222222</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.522222222222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q11">
+        <f>COUNTIF($N$2:$N$91,$N11)</f>
+        <v>2</v>
+      </c>
+      <c r="R11" t="str">
+        <f>VLOOKUP(N11,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S11" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N11,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J11,Charges!$A$3:$S$3,0))</f>
+        <v>107.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1607,15 +1861,31 @@
         <v>11</v>
       </c>
       <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>REF212390011</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="4"/>
+        <v>44271.424305555556</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="2"/>
-        <v>REF212390011</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.424305555556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <f>COUNTIF($N$2:$N$91,$N12)</f>
+        <v>2</v>
+      </c>
+      <c r="R12" t="str">
+        <f>VLOOKUP(N12,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S12" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N12,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J12,Charges!$A$3:$S$3,0))</f>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1658,15 +1928,31 @@
         <v>12</v>
       </c>
       <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>REF212390011</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="4"/>
+        <v>44271.731944444444</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="2"/>
-        <v>REF212390011</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.731944444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <f>COUNTIF($N$2:$N$91,$N13)</f>
+        <v>2</v>
+      </c>
+      <c r="R13" t="str">
+        <f>VLOOKUP(N13,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S13" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N13,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J13,Charges!$A$3:$S$3,0))</f>
+        <v>702.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1709,15 +1995,31 @@
         <v>13</v>
       </c>
       <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>REF111564313</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="4"/>
+        <v>44275.551388888889</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="2"/>
-        <v>REF111564313</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="3"/>
-        <v>44275.551388888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <f>COUNTIF($N$2:$N$91,$N14)</f>
+        <v>2</v>
+      </c>
+      <c r="R14" t="str">
+        <f>VLOOKUP(N14,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S14" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N14,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J14,Charges!$A$3:$S$3,0))</f>
+        <v>112.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1760,15 +2062,31 @@
         <v>14</v>
       </c>
       <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>REF111564313</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="4"/>
+        <v>44276.523611111108</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="2"/>
-        <v>REF111564313</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="3"/>
-        <v>44276.523611111108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <f>COUNTIF($N$2:$N$91,$N15)</f>
+        <v>2</v>
+      </c>
+      <c r="R15" t="str">
+        <f>VLOOKUP(N15,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S15" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N15,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J15,Charges!$A$3:$S$3,0))</f>
+        <v>55.301400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1811,15 +2129,31 @@
         <v>15</v>
       </c>
       <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="4"/>
+        <v>44248.432638888888</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="2"/>
-        <v>REFD202102456915</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="3"/>
-        <v>44248.432638888888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <f>COUNTIF($N$2:$N$91,$N16)</f>
+        <v>3</v>
+      </c>
+      <c r="R16" t="str">
+        <f>VLOOKUP(N16,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S16" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N16,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J16,Charges!$A$3:$S$3,0))</f>
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1862,15 +2196,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="4"/>
+        <v>44248.488194444442</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="2"/>
-        <v>REFD202102456915</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="3"/>
-        <v>44248.488194444442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <f>COUNTIF($N$2:$N$91,$N17)</f>
+        <v>3</v>
+      </c>
+      <c r="R17" t="str">
+        <f>VLOOKUP(N17,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S17" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N17,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J17,Charges!$A$3:$S$3,0))</f>
+        <v>814.19580000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1913,15 +2263,31 @@
         <v>17</v>
       </c>
       <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD202102456915</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="4"/>
+        <v>44248.709722222222</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="2"/>
-        <v>REFD202102456915</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="3"/>
-        <v>44248.709722222222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <f>COUNTIF($N$2:$N$91,$N18)</f>
+        <v>3</v>
+      </c>
+      <c r="R18" t="str">
+        <f>VLOOKUP(N18,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S18" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N18,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J18,Charges!$A$3:$S$3,0))</f>
+        <v>814.19580000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1964,15 +2330,31 @@
         <v>18</v>
       </c>
       <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="4"/>
+        <v>44253.529861111114</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="2"/>
-        <v>REFD20210345618</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="3"/>
-        <v>44253.529861111114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <f>COUNTIF($N$2:$N$91,$N19)</f>
+        <v>3</v>
+      </c>
+      <c r="R19" t="str">
+        <f>VLOOKUP(N19,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S19" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N19,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J19,Charges!$A$3:$S$3,0))</f>
+        <v>4.5600000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2015,15 +2397,31 @@
         <v>19</v>
       </c>
       <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="4"/>
+        <v>44253.65347222222</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="2"/>
-        <v>REFD20210345618</v>
-      </c>
-      <c r="O20" s="6">
-        <f t="shared" si="3"/>
-        <v>44253.65347222222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <f>COUNTIF($N$2:$N$91,$N20)</f>
+        <v>3</v>
+      </c>
+      <c r="R20" t="str">
+        <f>VLOOKUP(N20,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S20" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N20,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J20,Charges!$A$3:$S$3,0))</f>
+        <v>9.0288000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2066,15 +2464,31 @@
         <v>20</v>
       </c>
       <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD20210345618</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="4"/>
+        <v>44253.756944444445</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="2"/>
-        <v>REFD20210345618</v>
-      </c>
-      <c r="O21" s="6">
-        <f t="shared" si="3"/>
-        <v>44253.756944444445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <f>COUNTIF($N$2:$N$91,$N21)</f>
+        <v>3</v>
+      </c>
+      <c r="R21" t="str">
+        <f>VLOOKUP(N21,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S21" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N21,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J21,Charges!$A$3:$S$3,0))</f>
+        <v>4.424112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2117,15 +2531,31 @@
         <v>21</v>
       </c>
       <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>REF001332621</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="4"/>
+        <v>44571.529861111114</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="2"/>
-        <v>REF001332621</v>
-      </c>
-      <c r="O22" s="6">
-        <f t="shared" si="3"/>
-        <v>44571.529861111114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <f>COUNTIF($N$2:$N$91,$N22)</f>
+        <v>3</v>
+      </c>
+      <c r="R22" t="str">
+        <f>VLOOKUP(N22,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S22" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N22,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J22,Charges!$A$3:$S$3,0))</f>
+        <v>33.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2168,15 +2598,31 @@
         <v>22</v>
       </c>
       <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>REF001332621</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="4"/>
+        <v>44572.605555555558</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="2"/>
-        <v>REF001332621</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="3"/>
-        <v>44572.605555555558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <f>COUNTIF($N$2:$N$91,$N23)</f>
+        <v>3</v>
+      </c>
+      <c r="R23" t="str">
+        <f>VLOOKUP(N23,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S23" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N23,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J23,Charges!$A$3:$S$3,0))</f>
+        <v>198.56219999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2219,15 +2665,31 @@
         <v>23</v>
       </c>
       <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>REF001332621</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="4"/>
+        <v>44572.76458333333</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="2"/>
-        <v>REF001332621</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="3"/>
-        <v>44572.76458333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <f>COUNTIF($N$2:$N$91,$N24)</f>
+        <v>3</v>
+      </c>
+      <c r="R24" t="str">
+        <f>VLOOKUP(N24,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S24" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N24,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J24,Charges!$A$3:$S$3,0))</f>
+        <v>198.56219999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2270,15 +2732,31 @@
         <v>24</v>
       </c>
       <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>REF001DEMO110024</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="4"/>
+        <v>44234.654861111114</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="2"/>
-        <v>REF001DEMO110024</v>
-      </c>
-      <c r="O25" s="6">
-        <f t="shared" si="3"/>
-        <v>44234.654861111114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <f>COUNTIF($N$2:$N$91,$N25)</f>
+        <v>2</v>
+      </c>
+      <c r="R25" t="str">
+        <f>VLOOKUP(N25,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S25" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N25,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J25,Charges!$A$3:$S$3,0))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2321,15 +2799,31 @@
         <v>25</v>
       </c>
       <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>REF001DEMO110024</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="4"/>
+        <v>44235.722916666666</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="2"/>
-        <v>REF001DEMO110024</v>
-      </c>
-      <c r="O26" s="6">
-        <f t="shared" si="3"/>
-        <v>44235.722916666666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <f>COUNTIF($N$2:$N$91,$N26)</f>
+        <v>2</v>
+      </c>
+      <c r="R26" t="str">
+        <f>VLOOKUP(N26,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S26" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N26,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J26,Charges!$A$3:$S$3,0))</f>
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2372,15 +2866,31 @@
         <v>26</v>
       </c>
       <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="4"/>
+        <v>44257.508333333331</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="2"/>
-        <v>REFD543105110026</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="3"/>
-        <v>44257.508333333331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <f>COUNTIF($N$2:$N$91,$N27)</f>
+        <v>3</v>
+      </c>
+      <c r="R27" t="str">
+        <f>VLOOKUP(N27,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S27" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N27,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J27,Charges!$A$3:$S$3,0))</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2423,15 +2933,31 @@
         <v>27</v>
       </c>
       <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="4"/>
+        <v>44257.571527777778</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="2"/>
-        <v>REFD543105110026</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" si="3"/>
-        <v>44257.571527777778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <f>COUNTIF($N$2:$N$91,$N28)</f>
+        <v>3</v>
+      </c>
+      <c r="R28" t="str">
+        <f>VLOOKUP(N28,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S28" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N28,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J28,Charges!$A$3:$S$3,0))</f>
+        <v>10.120000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2474,15 +3000,31 @@
         <v>28</v>
       </c>
       <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543105110026</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="4"/>
+        <v>44258.756944444445</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="2"/>
-        <v>REFD543105110026</v>
-      </c>
-      <c r="O29" s="6">
-        <f t="shared" si="3"/>
-        <v>44258.756944444445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <f>COUNTIF($N$2:$N$91,$N29)</f>
+        <v>3</v>
+      </c>
+      <c r="R29" t="str">
+        <f>VLOOKUP(N29,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S29" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N29,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J29,Charges!$A$3:$S$3,0))</f>
+        <v>20.037600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2525,15 +3067,31 @@
         <v>29</v>
       </c>
       <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="4"/>
+        <v>44522.466666666667</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="3"/>
-        <v>44522.466666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <f>COUNTIF($N$2:$N$91,$N30)</f>
+        <v>2</v>
+      </c>
+      <c r="R30" t="str">
+        <f>VLOOKUP(N30,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S30" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N30,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J30,Charges!$A$3:$S$3,0))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2576,15 +3134,31 @@
         <v>30</v>
       </c>
       <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO0190029</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="4"/>
+        <v>44524.613888888889</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
-      </c>
-      <c r="O31" s="6">
-        <f t="shared" si="3"/>
-        <v>44524.613888888889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q31">
+        <f>COUNTIF($N$2:$N$91,$N31)</f>
+        <v>2</v>
+      </c>
+      <c r="R31" t="str">
+        <f>VLOOKUP(N31,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S31" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N31,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J31,Charges!$A$3:$S$3,0))</f>
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2627,15 +3201,31 @@
         <v>31</v>
       </c>
       <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO01102531</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="4"/>
+        <v>44520.432638888888</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" si="3"/>
-        <v>44520.432638888888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <f>COUNTIF($N$2:$N$91,$N32)</f>
+        <v>2</v>
+      </c>
+      <c r="R32" t="str">
+        <f>VLOOKUP(N32,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S32" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N32,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J32,Charges!$A$3:$S$3,0))</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2678,15 +3268,31 @@
         <v>32</v>
       </c>
       <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO01102531</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="4"/>
+        <v>44521.480555555558</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="3"/>
-        <v>44521.480555555558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q33">
+        <f>COUNTIF($N$2:$N$91,$N33)</f>
+        <v>2</v>
+      </c>
+      <c r="R33" t="str">
+        <f>VLOOKUP(N33,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S33" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N33,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J33,Charges!$A$3:$S$3,0))</f>
+        <v>10.045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2729,15 +3335,31 @@
         <v>33</v>
       </c>
       <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM01223833</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="4"/>
+        <v>44211.756944444445</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="2"/>
-        <v>REFDEM01223833</v>
-      </c>
-      <c r="O34" s="6">
-        <f t="shared" si="3"/>
-        <v>44211.756944444445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q34">
+        <f>COUNTIF($N$2:$N$91,$N34)</f>
+        <v>2</v>
+      </c>
+      <c r="R34" t="str">
+        <f>VLOOKUP(N34,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S34" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N34,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J34,Charges!$A$3:$S$3,0))</f>
+        <v>19.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2780,15 +3402,31 @@
         <v>34</v>
       </c>
       <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM01223833</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="4"/>
+        <v>44211.529861111114</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>REFDEM01223833</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" si="3"/>
-        <v>44211.529861111114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <f>COUNTIF($N$2:$N$91,$N35)</f>
+        <v>2</v>
+      </c>
+      <c r="R35" t="str">
+        <f>VLOOKUP(N35,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S35" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N35,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J35,Charges!$A$3:$S$3,0))</f>
+        <v>17.5168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2831,15 +3469,31 @@
         <v>35</v>
       </c>
       <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM9992670935</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="4"/>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>REFDEM9992670935</v>
-      </c>
-      <c r="O36" s="6">
-        <f t="shared" si="3"/>
-        <v>44209.605555555558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <f>COUNTIF($N$2:$N$91,$N36)</f>
+        <v>2</v>
+      </c>
+      <c r="R36" t="str">
+        <f>VLOOKUP(N36,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S36" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N36,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J36,Charges!$A$3:$S$3,0))</f>
+        <v>67.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2882,15 +3536,31 @@
         <v>36</v>
       </c>
       <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM9992670935</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="4"/>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
-        <v>REFDEM9992670935</v>
-      </c>
-      <c r="O37" s="6">
-        <f t="shared" si="3"/>
-        <v>44209.605555555558</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <f>COUNTIF($N$2:$N$91,$N37)</f>
+        <v>2</v>
+      </c>
+      <c r="R37" t="str">
+        <f>VLOOKUP(N37,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S37" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N37,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J37,Charges!$A$3:$S$3,0))</f>
+        <v>199.25729999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2933,15 +3603,31 @@
         <v>37</v>
       </c>
       <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM0091518837</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="4"/>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>REFDEM0091518837</v>
-      </c>
-      <c r="O38" s="6">
-        <f t="shared" si="3"/>
-        <v>44210.654861111114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <f>COUNTIF($N$2:$N$91,$N38)</f>
+        <v>2</v>
+      </c>
+      <c r="R38" t="str">
+        <f>VLOOKUP(N38,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S38" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N38,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J38,Charges!$A$3:$S$3,0))</f>
+        <v>51.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2984,15 +3670,31 @@
         <v>38</v>
       </c>
       <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM0091518837</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="4"/>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>REFDEM0091518837</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="3"/>
-        <v>44210.654861111114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <f>COUNTIF($N$2:$N$91,$N39)</f>
+        <v>2</v>
+      </c>
+      <c r="R39" t="str">
+        <f>VLOOKUP(N39,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S39" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N39,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J39,Charges!$A$3:$S$3,0))</f>
+        <v>51.361199999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3035,15 +3737,31 @@
         <v>39</v>
       </c>
       <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="4"/>
+        <v>44201.508333333331</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
-      </c>
-      <c r="O40" s="6">
-        <f t="shared" si="3"/>
-        <v>44201.508333333331</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <f>COUNTIF($N$2:$N$91,$N40)</f>
+        <v>3</v>
+      </c>
+      <c r="R40" t="str">
+        <f>VLOOKUP(N40,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S40" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N40,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J40,Charges!$A$3:$S$3,0))</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3086,15 +3804,31 @@
         <v>40</v>
       </c>
       <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="4"/>
+        <v>44201.513194444444</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
-      </c>
-      <c r="O41" s="6">
-        <f t="shared" si="3"/>
-        <v>44201.513194444444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <f>COUNTIF($N$2:$N$91,$N41)</f>
+        <v>3</v>
+      </c>
+      <c r="R41" t="str">
+        <f>VLOOKUP(N41,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S41" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N41,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J41,Charges!$A$3:$S$3,0))</f>
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3137,15 +3871,31 @@
         <v>41</v>
       </c>
       <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM559112039</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="4"/>
+        <v>44201.722222222219</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
-      </c>
-      <c r="O42" s="6">
-        <f t="shared" si="3"/>
-        <v>44201.722222222219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <f>COUNTIF($N$2:$N$91,$N42)</f>
+        <v>3</v>
+      </c>
+      <c r="R42" t="str">
+        <f>VLOOKUP(N42,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S42" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N42,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J42,Charges!$A$3:$S$3,0))</f>
+        <v>1.1761200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3188,15 +3938,31 @@
         <v>42</v>
       </c>
       <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM5591672042</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="4"/>
+        <v>44224.557638888888</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
-      </c>
-      <c r="O43" s="6">
-        <f t="shared" si="3"/>
-        <v>44224.557638888888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f>COUNTIF($N$2:$N$91,$N43)</f>
+        <v>2</v>
+      </c>
+      <c r="R43" t="str">
+        <f>VLOOKUP(N43,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S43" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N43,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J43,Charges!$A$3:$S$3,0))</f>
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3239,15 +4005,31 @@
         <v>43</v>
       </c>
       <c r="N44" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM5591672042</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="4"/>
+        <v>44224.798611111109</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="3"/>
-        <v>44224.798611111109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <f>COUNTIF($N$2:$N$91,$N44)</f>
+        <v>2</v>
+      </c>
+      <c r="R44" t="str">
+        <f>VLOOKUP(N44,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S44" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N44,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J44,Charges!$A$3:$S$3,0))</f>
+        <v>131.71200000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3290,15 +4072,31 @@
         <v>44</v>
       </c>
       <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD100926756944</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="4"/>
+        <v>44209.474305555559</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>REFD100926756944</v>
-      </c>
-      <c r="O45" s="6">
-        <f t="shared" si="3"/>
-        <v>44209.474305555559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <f>COUNTIF($N$2:$N$91,$N45)</f>
+        <v>2</v>
+      </c>
+      <c r="R45" t="str">
+        <f>VLOOKUP(N45,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S45" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N45,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J45,Charges!$A$3:$S$3,0))</f>
+        <v>675.69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3341,15 +4139,31 @@
         <v>45</v>
       </c>
       <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD100926756944</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="4"/>
+        <v>44209.53125</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="2"/>
-        <v>REFD100926756944</v>
-      </c>
-      <c r="O46" s="6">
-        <f t="shared" si="3"/>
-        <v>44209.53125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f>COUNTIF($N$2:$N$91,$N46)</f>
+        <v>2</v>
+      </c>
+      <c r="R46" t="str">
+        <f>VLOOKUP(N46,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S46" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N46,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J46,Charges!$A$3:$S$3,0))</f>
+        <v>668.93309999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3392,15 +4206,31 @@
         <v>46</v>
       </c>
       <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>REF201210046</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="4"/>
+        <v>44277.591666666667</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>REF201210046</v>
-      </c>
-      <c r="O47" s="6">
-        <f t="shared" si="3"/>
-        <v>44277.591666666667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <f>COUNTIF($N$2:$N$91,$N47)</f>
+        <v>2</v>
+      </c>
+      <c r="R47" t="str">
+        <f>VLOOKUP(N47,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S47" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N47,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J47,Charges!$A$3:$S$3,0))</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3443,15 +4273,31 @@
         <v>47</v>
       </c>
       <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>REF201210046</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="4"/>
+        <v>44277.715277777781</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
-        <v>REF201210046</v>
-      </c>
-      <c r="O48" s="6">
-        <f t="shared" si="3"/>
-        <v>44277.715277777781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <f>COUNTIF($N$2:$N$91,$N48)</f>
+        <v>2</v>
+      </c>
+      <c r="R48" t="str">
+        <f>VLOOKUP(N48,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S48" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N48,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J48,Charges!$A$3:$S$3,0))</f>
+        <v>41.160000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3494,15 +4340,31 @@
         <v>48</v>
       </c>
       <c r="N49" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO0180048</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="4"/>
+        <v>44155.383333333331</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="2"/>
-        <v>REFDEMO0180048</v>
-      </c>
-      <c r="O49" s="6">
-        <f t="shared" si="3"/>
-        <v>44155.383333333331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q49">
+        <f>COUNTIF($N$2:$N$91,$N49)</f>
+        <v>2</v>
+      </c>
+      <c r="R49" t="str">
+        <f>VLOOKUP(N49,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S49" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N49,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J49,Charges!$A$3:$S$3,0))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3545,15 +4407,31 @@
         <v>49</v>
       </c>
       <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO0180048</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="4"/>
+        <v>44157.715277777781</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="2"/>
-        <v>REFDEMO0180048</v>
-      </c>
-      <c r="O50" s="6">
-        <f t="shared" si="3"/>
-        <v>44157.715277777781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q50">
+        <f>COUNTIF($N$2:$N$91,$N50)</f>
+        <v>2</v>
+      </c>
+      <c r="R50" t="str">
+        <f>VLOOKUP(N50,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S50" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N50,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J50,Charges!$A$3:$S$3,0))</f>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3596,15 +4474,31 @@
         <v>50</v>
       </c>
       <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO02102550</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="4"/>
+        <v>44155.47152777778</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="2"/>
-        <v>REFDEMO02102550</v>
-      </c>
-      <c r="O51" s="6">
-        <f t="shared" si="3"/>
-        <v>44155.47152777778</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <f>COUNTIF($N$2:$N$91,$N51)</f>
+        <v>2</v>
+      </c>
+      <c r="R51" t="str">
+        <f>VLOOKUP(N51,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S51" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N51,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J51,Charges!$A$3:$S$3,0))</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3647,15 +4541,31 @@
         <v>51</v>
       </c>
       <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO02102550</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="4"/>
+        <v>44155.881944444445</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="2"/>
-        <v>REFDEMO02102550</v>
-      </c>
-      <c r="O52" s="6">
-        <f t="shared" si="3"/>
-        <v>44155.881944444445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <f>COUNTIF($N$2:$N$91,$N52)</f>
+        <v>2</v>
+      </c>
+      <c r="R52" t="str">
+        <f>VLOOKUP(N52,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S52" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N52,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J52,Charges!$A$3:$S$3,0))</f>
+        <v>75.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3698,15 +4608,31 @@
         <v>52</v>
       </c>
       <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO018760052</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="4"/>
+        <v>44156.474305555559</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="2"/>
-        <v>REFDEMO018760052</v>
-      </c>
-      <c r="O53" s="6">
-        <f t="shared" si="3"/>
-        <v>44156.474305555559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q53">
+        <f>COUNTIF($N$2:$N$91,$N53)</f>
+        <v>2</v>
+      </c>
+      <c r="R53" t="str">
+        <f>VLOOKUP(N53,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S53" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N53,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J53,Charges!$A$3:$S$3,0))</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3749,15 +4675,31 @@
         <v>53</v>
       </c>
       <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO018760052</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="4"/>
+        <v>44156.591666666667</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="2"/>
-        <v>REFDEMO018760052</v>
-      </c>
-      <c r="O54" s="6">
-        <f t="shared" si="3"/>
-        <v>44156.591666666667</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="Q54">
+        <f>COUNTIF($N$2:$N$91,$N54)</f>
+        <v>2</v>
+      </c>
+      <c r="R54" t="str">
+        <f>VLOOKUP(N54,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S54" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N54,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J54,Charges!$A$3:$S$3,0))</f>
+        <v>867.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3800,15 +4742,31 @@
         <v>54</v>
       </c>
       <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO901160054</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="4"/>
+        <v>44162.40625</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="2"/>
-        <v>REFDEMO901160054</v>
-      </c>
-      <c r="O55" s="6">
-        <f t="shared" si="3"/>
-        <v>44162.40625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <f>COUNTIF($N$2:$N$91,$N55)</f>
+        <v>2</v>
+      </c>
+      <c r="R55" t="str">
+        <f>VLOOKUP(N55,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S55" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N55,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J55,Charges!$A$3:$S$3,0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3851,15 +4809,31 @@
         <v>55</v>
       </c>
       <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEMO901160054</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="4"/>
+        <v>44162.763888888891</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="2"/>
-        <v>REFDEMO901160054</v>
-      </c>
-      <c r="O56" s="6">
-        <f t="shared" si="3"/>
-        <v>44162.763888888891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q56">
+        <f>COUNTIF($N$2:$N$91,$N56)</f>
+        <v>2</v>
+      </c>
+      <c r="R56" t="str">
+        <f>VLOOKUP(N56,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S56" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N56,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J56,Charges!$A$3:$S$3,0))</f>
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3902,15 +4876,31 @@
         <v>56</v>
       </c>
       <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543104310056</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="4"/>
+        <v>44256.474305555559</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="2"/>
-        <v>REFD543104310056</v>
-      </c>
-      <c r="O57" s="6">
-        <f t="shared" si="3"/>
-        <v>44256.474305555559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <f>COUNTIF($N$2:$N$91,$N57)</f>
+        <v>2</v>
+      </c>
+      <c r="R57" t="str">
+        <f>VLOOKUP(N57,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S57" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N57,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J57,Charges!$A$3:$S$3,0))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3953,15 +4943,31 @@
         <v>57</v>
       </c>
       <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543104310056</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="4"/>
+        <v>44256.756944444445</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="2"/>
-        <v>REFD543104310056</v>
-      </c>
-      <c r="O58" s="6">
-        <f t="shared" si="3"/>
-        <v>44256.756944444445</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <f>COUNTIF($N$2:$N$91,$N58)</f>
+        <v>2</v>
+      </c>
+      <c r="R58" t="str">
+        <f>VLOOKUP(N58,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S58" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N58,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J58,Charges!$A$3:$S$3,0))</f>
+        <v>245.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -4004,15 +5010,31 @@
         <v>58</v>
       </c>
       <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD54310345658</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" si="4"/>
+        <v>44256.599305555559</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="2"/>
-        <v>REFD54310345658</v>
-      </c>
-      <c r="O59" s="6">
-        <f t="shared" si="3"/>
-        <v>44256.599305555559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <f>COUNTIF($N$2:$N$91,$N59)</f>
+        <v>2</v>
+      </c>
+      <c r="R59" t="str">
+        <f>VLOOKUP(N59,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S59" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N59,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J59,Charges!$A$3:$S$3,0))</f>
+        <v>9.120000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4055,15 +5077,31 @@
         <v>59</v>
       </c>
       <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD54310345658</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="4"/>
+        <v>44256.800000000003</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="2"/>
-        <v>REFD54310345658</v>
-      </c>
-      <c r="O60" s="6">
-        <f t="shared" si="3"/>
-        <v>44256.800000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <f>COUNTIF($N$2:$N$91,$N60)</f>
+        <v>2</v>
+      </c>
+      <c r="R60" t="str">
+        <f>VLOOKUP(N60,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S60" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N60,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J60,Charges!$A$3:$S$3,0))</f>
+        <v>4.4687999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4106,15 +5144,31 @@
         <v>60</v>
       </c>
       <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM159134860</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="4"/>
+        <v>44211.356944444444</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="2"/>
-        <v>REFDEM159134860</v>
-      </c>
-      <c r="O61" s="6">
-        <f t="shared" si="3"/>
-        <v>44211.356944444444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <f>COUNTIF($N$2:$N$91,$N61)</f>
+        <v>2</v>
+      </c>
+      <c r="R61" t="str">
+        <f>VLOOKUP(N61,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S61" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N61,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J61,Charges!$A$3:$S$3,0))</f>
+        <v>24.360000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4157,15 +5211,31 @@
         <v>61</v>
       </c>
       <c r="N62" t="str">
+        <f t="shared" si="3"/>
+        <v>REFDEM159134860</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="4"/>
+        <v>44211.527083333334</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="2"/>
-        <v>REFDEM159134860</v>
-      </c>
-      <c r="O62" s="6">
-        <f t="shared" si="3"/>
-        <v>44211.527083333334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <f>COUNTIF($N$2:$N$91,$N62)</f>
+        <v>2</v>
+      </c>
+      <c r="R62" t="str">
+        <f>VLOOKUP(N62,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S62" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N62,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J62,Charges!$A$3:$S$3,0))</f>
+        <v>3.2363999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4208,15 +5278,31 @@
         <v>62</v>
       </c>
       <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD101926756962</v>
+      </c>
+      <c r="O63" s="6">
+        <f t="shared" si="4"/>
+        <v>44217.412499999999</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="2"/>
-        <v>REFD101926756962</v>
-      </c>
-      <c r="O63" s="6">
-        <f t="shared" si="3"/>
-        <v>44217.412499999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <f>COUNTIF($N$2:$N$91,$N63)</f>
+        <v>2</v>
+      </c>
+      <c r="R63" t="str">
+        <f>VLOOKUP(N63,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S63" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N63,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J63,Charges!$A$3:$S$3,0))</f>
+        <v>675.69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4259,15 +5345,31 @@
         <v>63</v>
       </c>
       <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD101926756962</v>
+      </c>
+      <c r="O64" s="6">
+        <f t="shared" si="4"/>
+        <v>44218.730555555558</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="2"/>
-        <v>REFD101926756962</v>
-      </c>
-      <c r="O64" s="6">
-        <f t="shared" si="3"/>
-        <v>44218.730555555558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="Q64">
+        <f>COUNTIF($N$2:$N$91,$N64)</f>
+        <v>2</v>
+      </c>
+      <c r="R64" t="str">
+        <f>VLOOKUP(N64,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S64" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N64,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J64,Charges!$A$3:$S$3,0))</f>
+        <v>5351.4647999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4310,15 +5412,31 @@
         <v>64</v>
       </c>
       <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543105110064</v>
+      </c>
+      <c r="O65" s="6">
+        <f t="shared" si="4"/>
+        <v>44257.605555555558</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="2"/>
-        <v>REFD543105110064</v>
-      </c>
-      <c r="O65" s="6">
-        <f t="shared" si="3"/>
-        <v>44257.605555555558</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q65">
+        <f>COUNTIF($N$2:$N$91,$N65)</f>
+        <v>2</v>
+      </c>
+      <c r="R65" t="str">
+        <f>VLOOKUP(N65,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S65" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N65,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J65,Charges!$A$3:$S$3,0))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4361,15 +5479,31 @@
         <v>65</v>
       </c>
       <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v>REFD543105110064</v>
+      </c>
+      <c r="O66" s="6">
+        <f t="shared" si="4"/>
+        <v>44258.648611111108</v>
+      </c>
+      <c r="P66">
         <f t="shared" si="2"/>
-        <v>REFD543105110064</v>
-      </c>
-      <c r="O66" s="6">
-        <f t="shared" si="3"/>
-        <v>44258.648611111108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <f>COUNTIF($N$2:$N$91,$N66)</f>
+        <v>2</v>
+      </c>
+      <c r="R66" t="str">
+        <f>VLOOKUP(N66,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S66" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N66,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J66,Charges!$A$3:$S$3,0))</f>
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -4401,26 +5535,42 @@
         <v>123</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K91" si="4">MID(F67&amp;" ",1,4)</f>
+        <f t="shared" ref="K67:K91" si="5">MID(F67&amp;" ",1,4)</f>
         <v>CHAS</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L91" si="5">MID(F67&amp;" ",5,2)</f>
+        <f t="shared" ref="L67:L91" si="6">MID(F67&amp;" ",5,2)</f>
         <v>US</v>
       </c>
       <c r="M67">
         <v>66</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>REFZ9991210066</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44278.341666666667</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P67">
+        <f t="shared" ref="P67:Q91" si="7">COUNTIF($C$2:$C$91,$C67)</f>
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <f>COUNTIF($N$2:$N$91,$N67)</f>
+        <v>2</v>
+      </c>
+      <c r="R67" t="str">
+        <f>VLOOKUP(N67,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S67" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N67,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J67,Charges!$A$3:$S$3,0))</f>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4452,26 +5602,42 @@
         <v>124</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REDJ</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>BY</v>
       </c>
       <c r="M68">
         <v>67</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N91" si="6">IF(C68=C67,N67,C68&amp;D68&amp;M68)</f>
+        <f t="shared" ref="N68:N91" si="8">IF(AND(C68=C67,D68=D67),N67,C68&amp;D68&amp;M68)</f>
         <v>REFZ9991210066</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" ref="O68:O91" si="7">H68+I68</f>
+        <f t="shared" ref="O68:O91" si="9">H68+I68</f>
         <v>44278.523611111108</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q68">
+        <f>COUNTIF($N$2:$N$91,$N68)</f>
+        <v>2</v>
+      </c>
+      <c r="R68" t="str">
+        <f>VLOOKUP(N68,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S68" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N68,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J68,Charges!$A$3:$S$3,0))</f>
+        <v>890.56000000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -4503,26 +5669,42 @@
         <v>123</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M69">
         <v>68</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF2111000068</v>
       </c>
       <c r="O69" s="6">
+        <f t="shared" si="9"/>
+        <v>44217.40625</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="7"/>
-        <v>44217.40625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q69">
+        <f>COUNTIF($N$2:$N$91,$N69)</f>
+        <v>2</v>
+      </c>
+      <c r="R69" t="str">
+        <f>VLOOKUP(N69,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S69" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N69,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J69,Charges!$A$3:$S$3,0))</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4554,26 +5736,42 @@
         <v>124</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BINA</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>AD</v>
       </c>
       <c r="M70">
         <v>69</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF2111000068</v>
       </c>
       <c r="O70" s="6">
+        <f t="shared" si="9"/>
+        <v>44223.533333333333</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="7"/>
-        <v>44223.533333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q70">
+        <f>COUNTIF($N$2:$N$91,$N70)</f>
+        <v>2</v>
+      </c>
+      <c r="R70" t="str">
+        <f>VLOOKUP(N70,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S70" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N70,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J70,Charges!$A$3:$S$3,0))</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -4605,26 +5803,42 @@
         <v>123</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M71">
         <v>70</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O71" s="6">
+        <f t="shared" si="9"/>
+        <v>44549.425000000003</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="7"/>
-        <v>44549.425000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q71">
+        <f>COUNTIF($N$2:$N$91,$N71)</f>
+        <v>3</v>
+      </c>
+      <c r="R71" t="str">
+        <f>VLOOKUP(N71,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S71" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N71,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J71,Charges!$A$3:$S$3,0))</f>
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -4656,26 +5870,42 @@
         <v>125</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BINA</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>AD</v>
       </c>
       <c r="M72">
         <v>71</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O72" s="6">
+        <f t="shared" si="9"/>
+        <v>44550.561805555553</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="7"/>
-        <v>44550.561805555553</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q72">
+        <f>COUNTIF($N$2:$N$91,$N72)</f>
+        <v>3</v>
+      </c>
+      <c r="R72" t="str">
+        <f>VLOOKUP(N72,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S72" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N72,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J72,Charges!$A$3:$S$3,0))</f>
+        <v>22.980999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -4707,26 +5937,42 @@
         <v>124</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BSJU</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>AR</v>
       </c>
       <c r="M73">
         <v>72</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O73" s="6">
+        <f t="shared" si="9"/>
+        <v>44550</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="7"/>
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q73">
+        <f>COUNTIF($N$2:$N$91,$N73)</f>
+        <v>3</v>
+      </c>
+      <c r="R73" t="str">
+        <f>VLOOKUP(N73,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S73" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N73,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J73,Charges!$A$3:$S$3,0))</f>
+        <v>45.502380000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4758,26 +6004,42 @@
         <v>123</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M74">
         <v>73</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF211789073</v>
       </c>
       <c r="O74" s="6">
+        <f t="shared" si="9"/>
+        <v>44297.523611111108</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="7"/>
-        <v>44297.523611111108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q74">
+        <f>COUNTIF($N$2:$N$91,$N74)</f>
+        <v>3</v>
+      </c>
+      <c r="R74" t="str">
+        <f>VLOOKUP(N74,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S74" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N74,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J74,Charges!$A$3:$S$3,0))</f>
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4809,26 +6071,42 @@
         <v>125</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AGRI</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FR</v>
       </c>
       <c r="M75">
         <v>74</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF211789073</v>
       </c>
       <c r="O75" s="6">
+        <f t="shared" si="9"/>
+        <v>44297.716666666667</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="7"/>
-        <v>44297.716666666667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q75">
+        <f>COUNTIF($N$2:$N$91,$N75)</f>
+        <v>3</v>
+      </c>
+      <c r="R75" t="str">
+        <f>VLOOKUP(N75,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S75" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N75,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J75,Charges!$A$3:$S$3,0))</f>
+        <v>117.1665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4860,26 +6138,42 @@
         <v>124</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REDJ</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>BY</v>
       </c>
       <c r="M76">
         <v>75</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF211789073</v>
       </c>
       <c r="O76" s="6">
+        <f t="shared" si="9"/>
+        <v>44299.756944444445</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="7"/>
-        <v>44299.756944444445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q76">
+        <f>COUNTIF($N$2:$N$91,$N76)</f>
+        <v>3</v>
+      </c>
+      <c r="R76" t="str">
+        <f>VLOOKUP(N76,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S76" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N76,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J76,Charges!$A$3:$S$3,0))</f>
+        <v>115.4090025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4911,26 +6205,42 @@
         <v>123</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M77">
         <v>76</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="6"/>
-        <v>REF211789073</v>
+        <f t="shared" si="8"/>
+        <v>REF2111200076</v>
       </c>
       <c r="O77" s="6">
+        <f t="shared" si="9"/>
+        <v>44240.386111111111</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="7"/>
-        <v>44240.386111111111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q77">
+        <f>COUNTIF($N$2:$N$91,$N77)</f>
+        <v>2</v>
+      </c>
+      <c r="R77" t="str">
+        <f>VLOOKUP(N77,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S77" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N77,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J77,Charges!$A$3:$S$3,0))</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4962,26 +6272,42 @@
         <v>124</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AGRI</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FR</v>
       </c>
       <c r="M78">
         <v>77</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="6"/>
-        <v>REF211789073</v>
+        <f t="shared" si="8"/>
+        <v>REF2111200076</v>
       </c>
       <c r="O78" s="6">
+        <f t="shared" si="9"/>
+        <v>44241.522222222222</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="7"/>
-        <v>44241.522222222222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="Q78">
+        <f>COUNTIF($N$2:$N$91,$N78)</f>
+        <v>2</v>
+      </c>
+      <c r="R78" t="str">
+        <f>VLOOKUP(N78,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S78" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N78,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J78,Charges!$A$3:$S$3,0))</f>
+        <v>117.60000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5013,26 +6339,42 @@
         <v>123</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M79">
         <v>78</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF211200078</v>
       </c>
       <c r="O79" s="6">
+        <f t="shared" si="9"/>
+        <v>44388.424305555556</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="7"/>
-        <v>44388.424305555556</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <f>COUNTIF($N$2:$N$91,$N79)</f>
+        <v>2</v>
+      </c>
+      <c r="R79" t="str">
+        <f>VLOOKUP(N79,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S79" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N79,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J79,Charges!$A$3:$S$3,0))</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5064,26 +6406,42 @@
         <v>126</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AGRI</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FR</v>
       </c>
       <c r="M80">
         <v>79</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF211200078</v>
       </c>
       <c r="O80" s="6">
+        <f t="shared" si="9"/>
+        <v>44388.731944444444</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="7"/>
-        <v>44388.731944444444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <f>COUNTIF($N$2:$N$91,$N80)</f>
+        <v>2</v>
+      </c>
+      <c r="R80" t="str">
+        <f>VLOOKUP(N80,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S80" s="8">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N80,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J80,Charges!$A$3:$S$3,0))</f>
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -5115,26 +6473,42 @@
         <v>123</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M81">
         <v>80</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF1113000080</v>
       </c>
       <c r="O81" s="6">
+        <f t="shared" si="9"/>
+        <v>44305.551388888889</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="7"/>
-        <v>44305.551388888889</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <f>COUNTIF($N$2:$N$91,$N81)</f>
+        <v>1</v>
+      </c>
+      <c r="R81" t="str">
+        <f>VLOOKUP(N81,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S81" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N81,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J81,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -5166,26 +6540,42 @@
         <v>124</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BINA</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>AD</v>
       </c>
       <c r="M82">
         <v>81</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="6"/>
-        <v>REF1113000080</v>
+        <f t="shared" si="8"/>
+        <v>REF111300081</v>
       </c>
       <c r="O82" s="6">
+        <f t="shared" si="9"/>
+        <v>44306.523611111108</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="7"/>
-        <v>44306.523611111108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <f>COUNTIF($N$2:$N$91,$N82)</f>
+        <v>1</v>
+      </c>
+      <c r="R82" t="str">
+        <f>VLOOKUP(N82,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Less than 24h</v>
+      </c>
+      <c r="S82" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N82,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J82,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -5217,26 +6607,42 @@
         <v>123</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M83">
         <v>82</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O83" s="6">
+        <f t="shared" si="9"/>
+        <v>44454.432638888888</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="7"/>
-        <v>44454.432638888888</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q83">
+        <f>COUNTIF($N$2:$N$91,$N83)</f>
+        <v>3</v>
+      </c>
+      <c r="R83" t="str">
+        <f>VLOOKUP(N83,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S83" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N83,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J83,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -5268,26 +6674,42 @@
         <v>127</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AGRI</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>FR</v>
       </c>
       <c r="M84">
         <v>83</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O84" s="6">
+        <f t="shared" si="9"/>
+        <v>44455.488194444442</v>
+      </c>
+      <c r="P84">
         <f t="shared" si="7"/>
-        <v>44455.488194444442</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q84">
+        <f>COUNTIF($N$2:$N$91,$N84)</f>
+        <v>3</v>
+      </c>
+      <c r="R84" t="str">
+        <f>VLOOKUP(N84,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S84" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N84,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J84,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -5319,26 +6741,42 @@
         <v>127</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REDJ</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>BY</v>
       </c>
       <c r="M85">
         <v>84</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O85" s="6">
+        <f t="shared" si="9"/>
+        <v>44455.709722222222</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="7"/>
-        <v>44455.709722222222</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q85">
+        <f>COUNTIF($N$2:$N$91,$N85)</f>
+        <v>3</v>
+      </c>
+      <c r="R85" t="str">
+        <f>VLOOKUP(N85,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S85" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N85,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J85,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -5370,26 +6808,42 @@
         <v>123</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M86">
         <v>85</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O86" s="6">
+        <f t="shared" si="9"/>
+        <v>44388.529861111114</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="7"/>
-        <v>44388.529861111114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q86">
+        <f>COUNTIF($N$2:$N$91,$N86)</f>
+        <v>3</v>
+      </c>
+      <c r="R86" t="str">
+        <f>VLOOKUP(N86,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S86" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N86,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J86,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -5421,26 +6875,42 @@
         <v>125</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M87">
         <v>86</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O87" s="6">
+        <f t="shared" si="9"/>
+        <v>44389.65347222222</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="7"/>
-        <v>44389.65347222222</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q87">
+        <f>COUNTIF($N$2:$N$91,$N87)</f>
+        <v>3</v>
+      </c>
+      <c r="R87" t="str">
+        <f>VLOOKUP(N87,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S87" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N87,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J87,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -5472,26 +6942,42 @@
         <v>126</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M88">
         <v>87</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O88" s="6">
+        <f t="shared" si="9"/>
+        <v>44390.756944444445</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="7"/>
-        <v>44390.756944444445</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q88">
+        <f>COUNTIF($N$2:$N$91,$N88)</f>
+        <v>3</v>
+      </c>
+      <c r="R88" t="str">
+        <f>VLOOKUP(N88,AvgTime!$A:$E,5,FALSE)</f>
+        <v>Delay</v>
+      </c>
+      <c r="S88" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N88,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J88,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -5523,26 +7009,42 @@
         <v>123</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M89">
         <v>88</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF0011200088</v>
       </c>
       <c r="O89" s="6">
+        <f t="shared" si="9"/>
+        <v>44474.529861111114</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="7"/>
-        <v>44474.529861111114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q89">
+        <f>COUNTIF($N$2:$N$91,$N89)</f>
+        <v>3</v>
+      </c>
+      <c r="R89" t="str">
+        <f>VLOOKUP(N89,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S89" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N89,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J89,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -5574,26 +7076,42 @@
         <v>125</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CHAS</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>US</v>
       </c>
       <c r="M90">
         <v>89</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF0011200088</v>
       </c>
       <c r="O90" s="6">
+        <f t="shared" si="9"/>
+        <v>44474.605555555558</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="7"/>
-        <v>44474.605555555558</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="Q90">
+        <f>COUNTIF($N$2:$N$91,$N90)</f>
+        <v>3</v>
+      </c>
+      <c r="R90" t="str">
+        <f>VLOOKUP(N90,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S90" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N90,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J90,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -5625,33 +7143,43 @@
         <v>125</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BINA</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>AD</v>
       </c>
       <c r="M91">
         <v>90</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>REF0011200088</v>
       </c>
       <c r="O91" s="6">
+        <f t="shared" si="9"/>
+        <v>44476.76458333333</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="7"/>
-        <v>44476.76458333333</v>
+        <v>6</v>
+      </c>
+      <c r="Q91">
+        <f>COUNTIF($N$2:$N$91,$N91)</f>
+        <v>3</v>
+      </c>
+      <c r="R91" t="str">
+        <f>VLOOKUP(N91,AvgTime!$A:$E,5,FALSE)</f>
+        <v>NotCompleted</v>
+      </c>
+      <c r="S91" s="8" t="e">
+        <f>INDEX(Charges!$A$3:$S$38,MATCH('Sheet OS'!$N91,Charges!$A$3:$A$38,0),MATCH('Sheet OS'!$J91,Charges!$A$3:$S$3,0))</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q91" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="REF212390011"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -5659,627 +7187,4822 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E696A89E-917A-4B42-88D2-26C248F71D6E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44272.65625</v>
+      </c>
+      <c r="C9" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44271.34375</v>
+      </c>
+      <c r="D9" s="7">
+        <f>(B9-C9)*24</f>
+        <v>31.5</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(D9&gt;$E$1,"Delay",IF(D9&lt;0,"NotCompleted","Less than 24h"))</f>
+        <v>Delay</v>
+      </c>
+      <c r="F9" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!F$7)</f>
+        <v>44272.65625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A10,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44273.59375</v>
+      </c>
+      <c r="C10" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A10,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44271</v>
+      </c>
+      <c r="D10" s="7">
+        <f>(B10-C10)*24</f>
+        <v>62.25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E48" si="0">IF(D10&gt;$E$1,"Delay",IF(D10&lt;0,"NotCompleted","Less than 24h"))</f>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A11,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="C11" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A11,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44502.356944444444</v>
+      </c>
+      <c r="D11" s="7">
+        <f>(B11-C11)*24</f>
+        <v>33</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A12,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44271.522222222222</v>
+      </c>
+      <c r="C12" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A12,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44271.386111111111</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:D43" si="1">(B12-C12)*24</f>
+        <v>3.2666666666627862</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A13,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44271.731944444444</v>
+      </c>
+      <c r="C13" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A13,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44271.424305555556</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3833333333022892</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A14,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44276.523611111108</v>
+      </c>
+      <c r="C14" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A14,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44275.551388888889</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>23.333333333255723</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A15,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A15,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44248.432638888888</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>-1061962.3833333333</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A16,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44253.756944444445</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A16,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44253.529861111114</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4499999999534339</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A17,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A17,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44571.529861111114</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>-1069716.7166666668</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A18,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44235.722916666666</v>
+      </c>
+      <c r="C18" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A18,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44234.654861111114</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>25.633333333244082</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A19,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44258.756944444445</v>
+      </c>
+      <c r="C19" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A19,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44257.508333333331</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>29.966666666732635</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A20,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44524.613888888889</v>
+      </c>
+      <c r="C20" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A20,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44522.466666666667</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="1"/>
+        <v>51.533333333325572</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A21,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44521.480555555558</v>
+      </c>
+      <c r="C21" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A21,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44520.432638888888</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>25.150000000081491</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A22,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A22,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44211.756944444445</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>-1061082.1666666667</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A23,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="C23" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A23,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44209.605555555558</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A24,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="C24" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A24,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44210.654861111114</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A25,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44201.722222222219</v>
+      </c>
+      <c r="C25" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A25,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44201.508333333331</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>5.1333333333022892</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A26,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44224.798611111109</v>
+      </c>
+      <c r="C26" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A26,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44224.557638888888</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7833333333255723</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A27,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44209.53125</v>
+      </c>
+      <c r="C27" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A27,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44209.474305555559</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3666666665812954</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A28,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44277.715277777781</v>
+      </c>
+      <c r="C28" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A28,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44277.591666666667</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9666666667326353</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A29,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44157.715277777781</v>
+      </c>
+      <c r="C29" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A29,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44155.383333333331</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="1"/>
+        <v>55.966666666790843</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A30,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44155.881944444445</v>
+      </c>
+      <c r="C30" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A30,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44155.47152777778</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="1"/>
+        <v>9.8499999999767169</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A31,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44156.591666666667</v>
+      </c>
+      <c r="C31" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A31,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44156.474305555559</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.816666666592937</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A32,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44162.763888888891</v>
+      </c>
+      <c r="C32" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A32,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44162.40625</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="1"/>
+        <v>8.5833333333721384</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A33,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44256.756944444445</v>
+      </c>
+      <c r="C33" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A33,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44256.474305555559</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>6.7833333332673647</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A34,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44256.800000000003</v>
+      </c>
+      <c r="C34" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A34,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44256.599305555559</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8166666666511446</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A35,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44211.527083333334</v>
+      </c>
+      <c r="C35" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A35,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44211.356944444444</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>4.0833333333721384</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A36,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44218.730555555558</v>
+      </c>
+      <c r="C36" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A36,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44217.412499999999</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>31.633333333418705</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A37,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A37,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44257.605555555558</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="1"/>
+        <v>-1062182.5333333334</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A38,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44278.523611111108</v>
+      </c>
+      <c r="C38" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A38,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44278.341666666667</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3666666665812954</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A39,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44223.533333333333</v>
+      </c>
+      <c r="C39" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A39,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44217.40625</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="1"/>
+        <v>147.04999999998836</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A40,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44550</v>
+      </c>
+      <c r="C40" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A40,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44549.425000000003</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="1"/>
+        <v>13.799999999930151</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A41,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44299.756944444445</v>
+      </c>
+      <c r="C41" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A41,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44297.523611111108</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="1"/>
+        <v>53.600000000093132</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A42,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <v>44241.522222222222</v>
+      </c>
+      <c r="C42" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A42,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44240.386111111111</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="1"/>
+        <v>27.266666666662786</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A43,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44388.731944444444</v>
+      </c>
+      <c r="C43" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A43,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44388.424305555556</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3833333333022892</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A44,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A44,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44305.551388888889</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" ref="D44:D48" si="2">(B44-C44)*24</f>
+        <v>-1063333.2333333334</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A45,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A45,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Less than 24h</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A46,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A46,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44454.432638888888</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="2"/>
+        <v>-1066906.3833333333</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A47,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>44390.756944444445</v>
+      </c>
+      <c r="C47" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A47,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44388.529861111114</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="2"/>
+        <v>53.449999999953434</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Delay</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A48,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A48,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <v>44474.529861111114</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="2"/>
+        <v>-1067388.7166666668</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>NotCompleted</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A9:D48" xr:uid="{E696A89E-917A-4B42-88D2-26C248F71D6E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE311F3-D0A3-4B85-9013-750822797ACC}">
+  <dimension ref="A2:T43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.90625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>10000</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>10000</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <f>IF(B4=0,0,B4*H4)</f>
+        <v>200</v>
+      </c>
+      <c r="O4" s="7">
+        <f>IF(C4=0,0,(C4-SUM($N4:N4))*I4)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f>IF(D4=0,0,(D4-SUM($N4:O4))*J4)</f>
+        <v>147</v>
+      </c>
+      <c r="Q4">
+        <f>IF(E4=0,0,(E4-SUM($N4:P4))*K4)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>IF(F4=0,0,(F4-SUM($N4:Q4))*L4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>IF(G4=0,0,(G4-SUM($N4:R4))*M4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <f>SUM(N4:S4)</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>4537</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>4537</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>4537</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <f>IF(B5=0,0,B5*H5)</f>
+        <v>90.74</v>
+      </c>
+      <c r="O5" s="7">
+        <f>IF(C5=0,0,(C5-SUM($N5:N5))*I5)</f>
+        <v>44.462600000000002</v>
+      </c>
+      <c r="P5" s="7">
+        <f>IF(D5=0,0,(D5-SUM($N5:O5))*J5)</f>
+        <v>88.035948000000005</v>
+      </c>
+      <c r="Q5">
+        <f>IF(E5=0,0,(E5-SUM($N5:P5))*K5)</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>IF(F5=0,0,(F5-SUM($N5:Q5))*L5)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>IF(G5=0,0,(G5-SUM($N5:R5))*M5)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <f>SUM(N5:S5)</f>
+        <v>223.23854799999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>1000000</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f>IF(B6=0,0,B6*H6)</f>
+        <v>10000</v>
+      </c>
+      <c r="O6" s="7">
+        <f>IF(C6=0,0,(C6-SUM($N6:N6))*I6)</f>
+        <v>14850</v>
+      </c>
+      <c r="P6" s="7">
+        <f>IF(D6=0,0,(D6-SUM($N6:O6))*J6)</f>
+        <v>14627.25</v>
+      </c>
+      <c r="Q6">
+        <f>IF(E6=0,0,(E6-SUM($N6:P6))*K6)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>IF(F6=0,0,(F6-SUM($N6:Q6))*L6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>IF(G6=0,0,(G6-SUM($N6:R6))*M6)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f>SUM(N6:S6)</f>
+        <v>39477.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>11000</v>
+      </c>
+      <c r="C7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>11000</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7:N38" si="0">IF(B7=0,0,B7*H7)</f>
+        <v>220</v>
+      </c>
+      <c r="O7" s="7">
+        <f>IF(C7=0,0,(C7-SUM($N7:N7))*I7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f>IF(D7=0,0,(D7-SUM($N7:O7))*J7)</f>
+        <v>107.8</v>
+      </c>
+      <c r="Q7">
+        <f>IF(E7=0,0,(E7-SUM($N7:P7))*K7)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>IF(F7=0,0,(F7-SUM($N7:Q7))*L7)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>IF(G7=0,0,(G7-SUM($N7:R7))*M7)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <f>SUM(N7:S7)</f>
+        <v>327.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>23900</v>
+      </c>
+      <c r="C8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>23900</v>
+      </c>
+      <c r="F8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="O8" s="7">
+        <f>IF(C8=0,0,(C8-SUM($N8:N8))*I8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <f>IF(D8=0,0,(D8-SUM($N8:O8))*J8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>IF(E8=0,0,(E8-SUM($N8:P8))*K8)</f>
+        <v>702.66</v>
+      </c>
+      <c r="R8">
+        <f>IF(F8=0,0,(F8-SUM($N8:Q8))*L8)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>IF(G8=0,0,(G8-SUM($N8:R8))*M8)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <f>SUM(N8:S8)</f>
+        <v>1180.6599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>5643</v>
+      </c>
+      <c r="C9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>5643</v>
+      </c>
+      <c r="E9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>112.86</v>
+      </c>
+      <c r="O9" s="7">
+        <f>IF(C9=0,0,(C9-SUM($N9:N9))*I9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <f>IF(D9=0,0,(D9-SUM($N9:O9))*J9)</f>
+        <v>55.301400000000001</v>
+      </c>
+      <c r="Q9">
+        <f>IF(E9=0,0,(E9-SUM($N9:P9))*K9)</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>IF(F9=0,0,(F9-SUM($N9:Q9))*L9)</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>IF(G9=0,0,(G9-SUM($N9:R9))*M9)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <f>SUM(N9:S9)</f>
+        <v>168.16140000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>4569</v>
+      </c>
+      <c r="C10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>9138</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="M10" s="10">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="0"/>
+        <v>91.38</v>
+      </c>
+      <c r="O10" s="10">
+        <f>IF(C10=0,0,(C10-SUM($N10:N10))*I10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <f>IF(D10=0,0,(D10-SUM($N10:O10))*J10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <f>IF(E10=0,0,(E10-SUM($N10:P10))*K10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <f>IF(F10=0,0,(F10-SUM($N10:Q10))*L10)</f>
+        <v>814.19580000000008</v>
+      </c>
+      <c r="S10" s="11">
+        <f>IF(G10=0,0,(G10-SUM($N10:R10))*M10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <f>SUM(N10:S10)</f>
+        <v>905.57580000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>456</v>
+      </c>
+      <c r="C11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>456</v>
+      </c>
+      <c r="D11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>456</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="O11" s="7">
+        <f>IF(C11=0,0,(C11-SUM($N11:N11))*I11)</f>
+        <v>9.0288000000000004</v>
+      </c>
+      <c r="P11" s="7">
+        <f>IF(D11=0,0,(D11-SUM($N11:O11))*J11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>IF(E11=0,0,(E11-SUM($N11:P11))*K11)</f>
+        <v>4.424112</v>
+      </c>
+      <c r="R11">
+        <f>IF(F11=0,0,(F11-SUM($N11:Q11))*L11)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>IF(G11=0,0,(G11-SUM($N11:R11))*M11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <f>SUM(N11:S11)</f>
+        <v>18.012912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>3326</v>
+      </c>
+      <c r="C12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>6652</v>
+      </c>
+      <c r="D12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>33.26</v>
+      </c>
+      <c r="O12" s="7">
+        <f>IF(C12=0,0,(C12-SUM($N12:N12))*I12)</f>
+        <v>198.56219999999999</v>
+      </c>
+      <c r="P12" s="7">
+        <f>IF(D12=0,0,(D12-SUM($N12:O12))*J12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>IF(E12=0,0,(E12-SUM($N12:P12))*K12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>IF(F12=0,0,(F12-SUM($N12:Q12))*L12)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>IF(G12=0,0,(G12-SUM($N12:R12))*M12)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <f>SUM(N12:S12)</f>
+        <v>231.82219999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="O13" s="7">
+        <f>IF(C13=0,0,(C13-SUM($N13:N13))*I13)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <f>IF(D13=0,0,(D13-SUM($N13:O13))*J13)</f>
+        <v>10.78</v>
+      </c>
+      <c r="Q13">
+        <f>IF(E13=0,0,(E13-SUM($N13:P13))*K13)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>IF(F13=0,0,(F13-SUM($N13:Q13))*L13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>IF(G13=0,0,(G13-SUM($N13:R13))*M13)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <f>SUM(N13:S13)</f>
+        <v>32.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="D14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="E14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="O14" s="7">
+        <f>IF(C14=0,0,(C14-SUM($N14:N14))*I14)</f>
+        <v>10.120000000000001</v>
+      </c>
+      <c r="P14" s="7">
+        <f>IF(D14=0,0,(D14-SUM($N14:O14))*J14)</f>
+        <v>20.037600000000001</v>
+      </c>
+      <c r="Q14">
+        <f>IF(E14=0,0,(E14-SUM($N14:P14))*K14)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>IF(F14=0,0,(F14-SUM($N14:Q14))*L14)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>IF(G14=0,0,(G14-SUM($N14:R14))*M14)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <f>SUM(N14:S14)</f>
+        <v>118.1576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>900</v>
+      </c>
+      <c r="C15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>900</v>
+      </c>
+      <c r="E15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O15" s="7">
+        <f>IF(C15=0,0,(C15-SUM($N15:N15))*I15)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <f>IF(D15=0,0,(D15-SUM($N15:O15))*J15)</f>
+        <v>8.91</v>
+      </c>
+      <c r="Q15">
+        <f>IF(E15=0,0,(E15-SUM($N15:P15))*K15)</f>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f>IF(F15=0,0,(F15-SUM($N15:Q15))*L15)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>IF(G15=0,0,(G15-SUM($N15:R15))*M15)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <f>SUM(N15:S15)</f>
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1025</v>
+      </c>
+      <c r="C16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1025</v>
+      </c>
+      <c r="E16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="O16" s="7">
+        <f>IF(C16=0,0,(C16-SUM($N16:N16))*I16)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <f>IF(D16=0,0,(D16-SUM($N16:O16))*J16)</f>
+        <v>10.045</v>
+      </c>
+      <c r="Q16">
+        <f>IF(E16=0,0,(E16-SUM($N16:P16))*K16)</f>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f>IF(F16=0,0,(F16-SUM($N16:Q16))*L16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f>IF(G16=0,0,(G16-SUM($N16:R16))*M16)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f>SUM(N16:S16)</f>
+        <v>30.545000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>238</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>238</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="0"/>
+        <v>19.04</v>
+      </c>
+      <c r="O17" s="7">
+        <f>IF(C17=0,0,(C17-SUM($N17:N17))*I17)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f>IF(D17=0,0,(D17-SUM($N17:O17))*J17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>IF(E17=0,0,(E17-SUM($N17:P17))*K17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>IF(F17=0,0,(F17-SUM($N17:Q17))*L17)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>IF(G17=0,0,(G17-SUM($N17:R17))*M17)</f>
+        <v>17.5168</v>
+      </c>
+      <c r="T17" s="7">
+        <f>SUM(N17:S17)</f>
+        <v>36.556799999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>6709</v>
+      </c>
+      <c r="C18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>6709</v>
+      </c>
+      <c r="E18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>67.09</v>
+      </c>
+      <c r="O18" s="7">
+        <f>IF(C18=0,0,(C18-SUM($N18:N18))*I18)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f>IF(D18=0,0,(D18-SUM($N18:O18))*J18)</f>
+        <v>199.25729999999999</v>
+      </c>
+      <c r="Q18">
+        <f>IF(E18=0,0,(E18-SUM($N18:P18))*K18)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>IF(F18=0,0,(F18-SUM($N18:Q18))*L18)</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>IF(G18=0,0,(G18-SUM($N18:R18))*M18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <f>SUM(N18:S18)</f>
+        <v>266.34730000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>5188</v>
+      </c>
+      <c r="C19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>5188</v>
+      </c>
+      <c r="E19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>51.88</v>
+      </c>
+      <c r="O19" s="7">
+        <f>IF(C19=0,0,(C19-SUM($N19:N19))*I19)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <f>IF(D19=0,0,(D19-SUM($N19:O19))*J19)</f>
+        <v>51.361199999999997</v>
+      </c>
+      <c r="Q19">
+        <f>IF(E19=0,0,(E19-SUM($N19:P19))*K19)</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>IF(F19=0,0,(F19-SUM($N19:Q19))*L19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>IF(G19=0,0,(G19-SUM($N19:R19))*M19)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <f>SUM(N19:S19)</f>
+        <v>103.24119999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>120</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>120</v>
+      </c>
+      <c r="F20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O20" s="7">
+        <f>IF(C20=0,0,(C20-SUM($N20:N20))*I20)</f>
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="P20" s="7">
+        <f>IF(D20=0,0,(D20-SUM($N20:O20))*J20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>IF(E20=0,0,(E20-SUM($N20:P20))*K20)</f>
+        <v>1.1761200000000001</v>
+      </c>
+      <c r="R20">
+        <f>IF(F20=0,0,(F20-SUM($N20:Q20))*L20)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f>IF(G20=0,0,(G20-SUM($N20:R20))*M20)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <f>SUM(N20:S20)</f>
+        <v>3.56412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>6720</v>
+      </c>
+      <c r="C21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>6720</v>
+      </c>
+      <c r="E21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="0"/>
+        <v>134.4</v>
+      </c>
+      <c r="O21" s="7">
+        <f>IF(C21=0,0,(C21-SUM($N21:N21))*I21)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <f>IF(D21=0,0,(D21-SUM($N21:O21))*J21)</f>
+        <v>131.71200000000002</v>
+      </c>
+      <c r="Q21">
+        <f>IF(E21=0,0,(E21-SUM($N21:P21))*K21)</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>IF(F21=0,0,(F21-SUM($N21:Q21))*L21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>IF(G21=0,0,(G21-SUM($N21:R21))*M21)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <f>SUM(N21:S21)</f>
+        <v>266.11200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>67569</v>
+      </c>
+      <c r="C22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>67569</v>
+      </c>
+      <c r="E22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="0"/>
+        <v>675.69</v>
+      </c>
+      <c r="O22" s="7">
+        <f>IF(C22=0,0,(C22-SUM($N22:N22))*I22)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <f>IF(D22=0,0,(D22-SUM($N22:O22))*J22)</f>
+        <v>668.93309999999997</v>
+      </c>
+      <c r="Q22">
+        <f>IF(E22=0,0,(E22-SUM($N22:P22))*K22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>IF(F22=0,0,(F22-SUM($N22:Q22))*L22)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f>IF(G22=0,0,(G22-SUM($N22:R22))*M22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <f>SUM(N22:S22)</f>
+        <v>1344.6231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>2100</v>
+      </c>
+      <c r="C23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>2100</v>
+      </c>
+      <c r="E23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="O23" s="7">
+        <f>IF(C23=0,0,(C23-SUM($N23:N23))*I23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <f>IF(D23=0,0,(D23-SUM($N23:O23))*J23)</f>
+        <v>41.160000000000004</v>
+      </c>
+      <c r="Q23">
+        <f>IF(E23=0,0,(E23-SUM($N23:P23))*K23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>IF(F23=0,0,(F23-SUM($N23:Q23))*L23)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>IF(G23=0,0,(G23-SUM($N23:R23))*M23)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <f>SUM(N23:S23)</f>
+        <v>83.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>800</v>
+      </c>
+      <c r="C24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>800</v>
+      </c>
+      <c r="E24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O24" s="7">
+        <f>IF(C24=0,0,(C24-SUM($N24:N24))*I24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <f>IF(D24=0,0,(D24-SUM($N24:O24))*J24)</f>
+        <v>7.92</v>
+      </c>
+      <c r="Q24">
+        <f>IF(E24=0,0,(E24-SUM($N24:P24))*K24)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>IF(F24=0,0,(F24-SUM($N24:Q24))*L24)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>IF(G24=0,0,(G24-SUM($N24:R24))*M24)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <f>SUM(N24:S24)</f>
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1025</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1025</v>
+      </c>
+      <c r="E25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="O25" s="7">
+        <f>IF(C25=0,0,(C25-SUM($N25:N25))*I25)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <f>IF(D25=0,0,(D25-SUM($N25:O25))*J25)</f>
+        <v>75.44</v>
+      </c>
+      <c r="Q25">
+        <f>IF(E25=0,0,(E25-SUM($N25:P25))*K25)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>IF(F25=0,0,(F25-SUM($N25:Q25))*L25)</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f>IF(G25=0,0,(G25-SUM($N25:R25))*M25)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <f>SUM(N25:S25)</f>
+        <v>157.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>87600</v>
+      </c>
+      <c r="C26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>87600</v>
+      </c>
+      <c r="E26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="O26" s="7">
+        <f>IF(C26=0,0,(C26-SUM($N26:N26))*I26)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <f>IF(D26=0,0,(D26-SUM($N26:O26))*J26)</f>
+        <v>867.24</v>
+      </c>
+      <c r="Q26">
+        <f>IF(E26=0,0,(E26-SUM($N26:P26))*K26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>IF(F26=0,0,(F26-SUM($N26:Q26))*L26)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>IF(G26=0,0,(G26-SUM($N26:R26))*M26)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <f>SUM(N26:S26)</f>
+        <v>1743.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1600</v>
+      </c>
+      <c r="C27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>1600</v>
+      </c>
+      <c r="E27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="I27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="O27" s="7">
+        <f>IF(C27=0,0,(C27-SUM($N27:N27))*I27)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f>IF(D27=0,0,(D27-SUM($N27:O27))*J27)</f>
+        <v>15.36</v>
+      </c>
+      <c r="Q27">
+        <f>IF(E27=0,0,(E27-SUM($N27:P27))*K27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>IF(F27=0,0,(F27-SUM($N27:Q27))*L27)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>IF(G27=0,0,(G27-SUM($N27:R27))*M27)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <f>SUM(N27:S27)</f>
+        <v>79.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>3100</v>
+      </c>
+      <c r="C28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>3100</v>
+      </c>
+      <c r="F28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="L28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O28" s="7">
+        <f>IF(C28=0,0,(C28-SUM($N28:N28))*I28)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <f>IF(D28=0,0,(D28-SUM($N28:O28))*J28)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>IF(E28=0,0,(E28-SUM($N28:P28))*K28)</f>
+        <v>245.52</v>
+      </c>
+      <c r="R28">
+        <f>IF(F28=0,0,(F28-SUM($N28:Q28))*L28)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>IF(G28=0,0,(G28-SUM($N28:R28))*M28)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <f>SUM(N28:S28)</f>
+        <v>276.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>456</v>
+      </c>
+      <c r="C29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>456</v>
+      </c>
+      <c r="E29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="0"/>
+        <v>9.120000000000001</v>
+      </c>
+      <c r="O29" s="7">
+        <f>IF(C29=0,0,(C29-SUM($N29:N29))*I29)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <f>IF(D29=0,0,(D29-SUM($N29:O29))*J29)</f>
+        <v>4.4687999999999999</v>
+      </c>
+      <c r="Q29">
+        <f>IF(E29=0,0,(E29-SUM($N29:P29))*K29)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>IF(F29=0,0,(F29-SUM($N29:Q29))*L29)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>IF(G29=0,0,(G29-SUM($N29:R29))*M29)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <f>SUM(N29:S29)</f>
+        <v>13.588800000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>348</v>
+      </c>
+      <c r="C30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>348</v>
+      </c>
+      <c r="E30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="0"/>
+        <v>24.360000000000003</v>
+      </c>
+      <c r="O30" s="7">
+        <f>IF(C30=0,0,(C30-SUM($N30:N30))*I30)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <f>IF(D30=0,0,(D30-SUM($N30:O30))*J30)</f>
+        <v>3.2363999999999997</v>
+      </c>
+      <c r="Q30">
+        <f>IF(E30=0,0,(E30-SUM($N30:P30))*K30)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>IF(F30=0,0,(F30-SUM($N30:Q30))*L30)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>IF(G30=0,0,(G30-SUM($N30:R30))*M30)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <f>SUM(N30:S30)</f>
+        <v>27.596400000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>67569</v>
+      </c>
+      <c r="C31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>67569</v>
+      </c>
+      <c r="E31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="0"/>
+        <v>675.69</v>
+      </c>
+      <c r="O31" s="7">
+        <f>IF(C31=0,0,(C31-SUM($N31:N31))*I31)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <f>IF(D31=0,0,(D31-SUM($N31:O31))*J31)</f>
+        <v>5351.4647999999997</v>
+      </c>
+      <c r="Q31">
+        <f>IF(E31=0,0,(E31-SUM($N31:P31))*K31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>IF(F31=0,0,(F31-SUM($N31:Q31))*L31)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f>IF(G31=0,0,(G31-SUM($N31:R31))*M31)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <f>SUM(N31:S31)</f>
+        <v>6027.1548000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>1100</v>
+      </c>
+      <c r="D32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O32" s="7">
+        <f>IF(C32=0,0,(C32-SUM($N32:N32))*I32)</f>
+        <v>10.89</v>
+      </c>
+      <c r="P32" s="7">
+        <f>IF(D32=0,0,(D32-SUM($N32:O32))*J32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f>IF(E32=0,0,(E32-SUM($N32:P32))*K32)</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>IF(F32=0,0,(F32-SUM($N32:Q32))*L32)</f>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f>IF(G32=0,0,(G32-SUM($N32:R32))*M32)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <f>SUM(N32:S32)</f>
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>12100</v>
+      </c>
+      <c r="C33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>12100</v>
+      </c>
+      <c r="E33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="I33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="0"/>
+        <v>968</v>
+      </c>
+      <c r="O33" s="7">
+        <f>IF(C33=0,0,(C33-SUM($N33:N33))*I33)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <f>IF(D33=0,0,(D33-SUM($N33:O33))*J33)</f>
+        <v>890.56000000000006</v>
+      </c>
+      <c r="Q33">
+        <f>IF(E33=0,0,(E33-SUM($N33:P33))*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f>IF(F33=0,0,(F33-SUM($N33:Q33))*L33)</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f>IF(G33=0,0,(G33-SUM($N33:R33))*M33)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <f>SUM(N33:S33)</f>
+        <v>1858.56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>10000</v>
+      </c>
+      <c r="C34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>10000</v>
+      </c>
+      <c r="E34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O34" s="7">
+        <f>IF(C34=0,0,(C34-SUM($N34:N34))*I34)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <f>IF(D34=0,0,(D34-SUM($N34:O34))*J34)</f>
+        <v>147</v>
+      </c>
+      <c r="Q34">
+        <f>IF(E34=0,0,(E34-SUM($N34:P34))*K34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>IF(F34=0,0,(F34-SUM($N34:Q34))*L34)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>IF(G34=0,0,(G34-SUM($N34:R34))*M34)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <f>SUM(N34:S34)</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>2345</v>
+      </c>
+      <c r="C35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>2345</v>
+      </c>
+      <c r="D35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>2345</v>
+      </c>
+      <c r="E35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="J35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="K35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" si="0"/>
+        <v>46.9</v>
+      </c>
+      <c r="O35" s="7">
+        <f>IF(C35=0,0,(C35-SUM($N35:N35))*I35)</f>
+        <v>22.980999999999998</v>
+      </c>
+      <c r="P35" s="7">
+        <f>IF(D35=0,0,(D35-SUM($N35:O35))*J35)</f>
+        <v>45.502380000000002</v>
+      </c>
+      <c r="Q35">
+        <f>IF(E35=0,0,(E35-SUM($N35:P35))*K35)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>IF(F35=0,0,(F35-SUM($N35:Q35))*L35)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>IF(G35=0,0,(G35-SUM($N35:R35))*M35)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <f>SUM(N35:S35)</f>
+        <v>115.38338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>7890</v>
+      </c>
+      <c r="C36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>7890</v>
+      </c>
+      <c r="D36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>7890</v>
+      </c>
+      <c r="E36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" si="0"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="O36" s="7">
+        <f>IF(C36=0,0,(C36-SUM($N36:N36))*I36)</f>
+        <v>117.1665</v>
+      </c>
+      <c r="P36" s="7">
+        <f>IF(D36=0,0,(D36-SUM($N36:O36))*J36)</f>
+        <v>115.4090025</v>
+      </c>
+      <c r="Q36">
+        <f>IF(E36=0,0,(E36-SUM($N36:P36))*K36)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>IF(F36=0,0,(F36-SUM($N36:Q36))*L36)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>IF(G36=0,0,(G36-SUM($N36:R36))*M36)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <f>SUM(N36:S36)</f>
+        <v>311.4755025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>12000</v>
+      </c>
+      <c r="C37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>12000</v>
+      </c>
+      <c r="E37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="O37" s="7">
+        <f>IF(C37=0,0,(C37-SUM($N37:N37))*I37)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <f>IF(D37=0,0,(D37-SUM($N37:O37))*J37)</f>
+        <v>117.60000000000001</v>
+      </c>
+      <c r="Q37">
+        <f>IF(E37=0,0,(E37-SUM($N37:P37))*K37)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>IF(F37=0,0,(F37-SUM($N37:Q37))*L37)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>IF(G37=0,0,(G37-SUM($N37:R37))*M37)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <f>SUM(N37:S37)</f>
+        <v>357.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>12000</v>
+      </c>
+      <c r="C38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>12000</v>
+      </c>
+      <c r="F38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="L38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="O38" s="7">
+        <f>IF(C38=0,0,(C38-SUM($N38:N38))*I38)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <f>IF(D38=0,0,(D38-SUM($N38:O38))*J38)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f>IF(E38=0,0,(E38-SUM($N38:P38))*K38)</f>
+        <v>352.8</v>
+      </c>
+      <c r="R38">
+        <f>IF(F38=0,0,(F38-SUM($N38:Q38))*L38)</f>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f>IF(G38=0,0,(G38-SUM($N38:R38))*M38)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <f>SUM(N38:S38)</f>
+        <v>592.79999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>30000</v>
+      </c>
+      <c r="C39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" ref="N39:N43" si="1">IF(B39=0,0,B39*H39)</f>
+        <v>600</v>
+      </c>
+      <c r="O39" s="7">
+        <f>IF(C39=0,0,(C39-SUM($N39:N39))*I39)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <f>IF(D39=0,0,(D39-SUM($N39:O39))*J39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f>IF(E39=0,0,(E39-SUM($N39:P39))*K39)</f>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f>IF(F39=0,0,(F39-SUM($N39:Q39))*L39)</f>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f>IF(G39=0,0,(G39-SUM($N39:R39))*M39)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" ref="T39:T43" si="2">SUM(N39:S39)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>3000</v>
+      </c>
+      <c r="E40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <f>IF(C40=0,0,(C40-SUM($N40:N40))*I40)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <f>IF(D40=0,0,(D40-SUM($N40:O40))*J40)</f>
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <f>IF(E40=0,0,(E40-SUM($N40:P40))*K40)</f>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f>IF(F40=0,0,(F40-SUM($N40:Q40))*L40)</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f>IF(G40=0,0,(G40-SUM($N40:R40))*M40)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>12400</v>
+      </c>
+      <c r="C41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>24800</v>
+      </c>
+      <c r="G41" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="I41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="M41" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="O41" s="7">
+        <f>IF(C41=0,0,(C41-SUM($N41:N41))*I41)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <f>IF(D41=0,0,(D41-SUM($N41:O41))*J41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f>IF(E41=0,0,(E41-SUM($N41:P41))*K41)</f>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f>IF(F41=0,0,(F41-SUM($N41:Q41))*L41)</f>
+        <v>2209.6799999999998</v>
+      </c>
+      <c r="S41">
+        <f>IF(G41=0,0,(G41-SUM($N41:R41))*M41)</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="2"/>
+        <v>2457.6799999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>17430</v>
+      </c>
+      <c r="C42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>17430</v>
+      </c>
+      <c r="D42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>17430</v>
+      </c>
+      <c r="F42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="J42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="L42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="1"/>
+        <v>174.3</v>
+      </c>
+      <c r="O42" s="7">
+        <f>IF(C42=0,0,(C42-SUM($N42:N42))*I42)</f>
+        <v>345.11400000000003</v>
+      </c>
+      <c r="P42" s="7">
+        <f>IF(D42=0,0,(D42-SUM($N42:O42))*J42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>IF(E42=0,0,(E42-SUM($N42:P42))*K42)</f>
+        <v>169.10586000000001</v>
+      </c>
+      <c r="R42">
+        <f>IF(F42=0,0,(F42-SUM($N42:Q42))*L42)</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>IF(G42=0,0,(G42-SUM($N42:R42))*M42)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="2"/>
+        <v>688.51985999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <v>12000</v>
+      </c>
+      <c r="C43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <v>24000</v>
+      </c>
+      <c r="D43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <v>0.03</v>
+      </c>
+      <c r="J43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="O43" s="7">
+        <f>IF(C43=0,0,(C43-SUM($N43:N43))*I43)</f>
+        <v>716.4</v>
+      </c>
+      <c r="P43" s="7">
+        <f>IF(D43=0,0,(D43-SUM($N43:O43))*J43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f>IF(E43=0,0,(E43-SUM($N43:P43))*K43)</f>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f>IF(F43=0,0,(F43-SUM($N43:Q43))*L43)</f>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f>IF(G43=0,0,(G43-SUM($N43:R43))*M43)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" si="2"/>
+        <v>836.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:C38" xr:uid="{E696A89E-917A-4B42-88D2-26C248F71D6E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C4129-34A2-4758-98A5-4FE6D78C58AF}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99560A2B-B11F-44A7-AB9F-02ADF0B8E838}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>44272.65625</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44272.65625</v>
-      </c>
-      <c r="C3" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271.34375</v>
-      </c>
-      <c r="D3" s="7">
-        <f>(B3-C3)*24</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+      <c r="B3">
+        <v>44273.59375</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44273.59375</v>
-      </c>
-      <c r="C4" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271</v>
-      </c>
-      <c r="D4" s="7">
-        <f>(B4-C4)*24</f>
-        <v>62.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>44503.731944444444</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44503.731944444444</v>
-      </c>
-      <c r="C5" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44502.356944444444</v>
-      </c>
-      <c r="D5" s="7">
-        <f>(B5-C5)*24</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="B5">
+        <v>44271.522222222222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271.424305555556</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:D37" si="0">(B6-C6)*24</f>
-        <v>-1062514.1833333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>44271.731944444444</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B7">
         <v>44276.523611111108</v>
       </c>
-      <c r="C7" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44275.551388888889</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>23.333333333255723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44248.432638888888</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1061962.3833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>44248.709722222222</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44253.529861111114</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062084.7166666668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>44253.756944444445</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44571.529861111114</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1069716.7166666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>44572.76458333333</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B11">
         <v>44235.722916666666</v>
       </c>
-      <c r="C11" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44234.654861111114</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>25.633333333244082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B12">
         <v>44258.756944444445</v>
       </c>
-      <c r="C12" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44257.508333333331</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>29.966666666732635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B13">
         <v>44524.613888888889</v>
       </c>
-      <c r="C13" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44522.466666666667</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>51.533333333325572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14">
+        <v>44521.480555555558</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+      <c r="B15">
         <v>44211.756944444445</v>
       </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>-1061082.1666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B16">
         <v>44209.605555555558</v>
       </c>
-      <c r="C15" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17">
         <v>44209.605555555558</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B18">
         <v>44210.654861111114</v>
       </c>
-      <c r="C16" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19">
         <v>44210.654861111114</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B20">
+        <v>44201.722222222219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21">
         <v>44224.798611111109</v>
       </c>
-      <c r="C17" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44224.557638888888</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>5.7833333333255723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B22">
         <v>44209.53125</v>
       </c>
-      <c r="C18" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44209.474305555559</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3666666665812954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B23">
         <v>44277.715277777781</v>
       </c>
-      <c r="C19" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44277.591666666667</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9666666667326353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B24">
         <v>44157.715277777781</v>
       </c>
-      <c r="C20" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44155.383333333331</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>55.966666666790843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B25">
         <v>44155.881944444445</v>
       </c>
-      <c r="C21" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44155.47152777778</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>9.8499999999767169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B26">
         <v>44156.591666666667</v>
       </c>
-      <c r="C22" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44156.474305555559</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.816666666592937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B27">
         <v>44162.763888888891</v>
       </c>
-      <c r="C23" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44162.40625</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>8.5833333333721384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44256.474305555559</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062155.3833333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B28">
+        <v>44256.756944444445</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B29">
         <v>44256.800000000003</v>
       </c>
-      <c r="C25" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44256.599305555559</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8166666666511446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B30">
         <v>44211.527083333334</v>
       </c>
-      <c r="C26" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44211.356944444444</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0833333333721384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B31">
         <v>44218.730555555558</v>
       </c>
-      <c r="C27" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44217.412499999999</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>31.633333333418705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44257.605555555558</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062182.5333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B32">
+        <v>44258.648611111108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B33">
         <v>44278.523611111108</v>
       </c>
-      <c r="C29" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44278.341666666667</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>4.3666666665812954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B34">
         <v>44223.533333333333</v>
       </c>
-      <c r="C30" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44217.40625</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>147.04999999998836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44550</v>
-      </c>
-      <c r="C31" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44549.425000000003</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>13.799999999930151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B35">
+        <v>44550.561805555553</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B36">
         <v>44299.756944444445</v>
       </c>
-      <c r="C32" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44297.523611111108</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>53.600000000093132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37">
+        <v>44241.522222222222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44388.424305555556</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>-1065322.1833333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B38">
+        <v>44388.731944444444</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
+      <c r="B39">
+        <v>44305.551388888889</v>
+      </c>
+      <c r="C39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40">
         <v>44306.523611111108</v>
       </c>
-      <c r="C34" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44305.551388888889</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>23.333333333255723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="C40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44454.432638888888</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="0"/>
-        <v>-1066906.3833333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B41">
+        <v>44455.709722222222</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44388.529861111114</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" si="0"/>
-        <v>-1065324.7166666668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B42">
+        <v>44390.756944444445</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44474.529861111114</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>-1067388.7166666668</v>
+      <c r="B43">
+        <v>44476.76458333333</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\git2\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E341AF-0B90-450B-A373-677D36BE3025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25572D-8E4D-4DD5-B740-09F7245380FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetMichel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SheetMichel!$A$1:$O$91</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="138">
   <si>
     <t>Debtor</t>
   </si>
@@ -439,112 +436,16 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>REFTEST0145373</t>
-  </si>
-  <si>
-    <t>REF21110000006</t>
-  </si>
-  <si>
-    <t>REF212390011</t>
-  </si>
-  <si>
-    <t>REF111564313</t>
-  </si>
-  <si>
-    <t>REFD202102456915</t>
-  </si>
-  <si>
-    <t>REFD20210345618</t>
-  </si>
-  <si>
-    <t>REF001332621</t>
-  </si>
-  <si>
-    <t>REF001DEMO110024</t>
-  </si>
-  <si>
-    <t>REFD543105110026</t>
-  </si>
-  <si>
-    <t>REFDEMO0190029</t>
-  </si>
-  <si>
-    <t>REFDEM01223833</t>
-  </si>
-  <si>
-    <t>REFDEM9992670935</t>
-  </si>
-  <si>
-    <t>REFDEM0091518837</t>
-  </si>
-  <si>
-    <t>REFDEM559112039</t>
-  </si>
-  <si>
-    <t>REFD100926756944</t>
-  </si>
-  <si>
-    <t>REF201210046</t>
-  </si>
-  <si>
-    <t>REFDEMO0180048</t>
-  </si>
-  <si>
-    <t>REFDEMO02102550</t>
-  </si>
-  <si>
-    <t>REFDEMO018760052</t>
-  </si>
-  <si>
-    <t>REFDEMO901160054</t>
-  </si>
-  <si>
-    <t>REFD543104310056</t>
-  </si>
-  <si>
-    <t>REFD54310345658</t>
-  </si>
-  <si>
-    <t>REFDEM159134860</t>
-  </si>
-  <si>
-    <t>REFD101926756962</t>
-  </si>
-  <si>
-    <t>REFD543105110064</t>
-  </si>
-  <si>
-    <t>REFZ9991210066</t>
-  </si>
-  <si>
-    <t>REF2111000068</t>
-  </si>
-  <si>
-    <t>REFTEST01234570</t>
-  </si>
-  <si>
-    <t>REF211789073</t>
-  </si>
-  <si>
-    <t>REF211200078</t>
-  </si>
-  <si>
-    <t>REF1113000080</t>
-  </si>
-  <si>
-    <t>REFD2021021240082</t>
-  </si>
-  <si>
-    <t>REFD2021031743085</t>
-  </si>
-  <si>
-    <t>REF0011200088</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>MIN</t>
+    <t>LastStatus</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>BINA</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -553,7 +454,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -631,7 +532,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,27 +872,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="19.77734375" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,8 +939,11 @@
       <c r="O1" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1088,12 +993,15 @@
         <f>H2+I2</f>
         <v>44271.34375</v>
       </c>
-      <c r="P2" s="5">
-        <f ca="1">TODAY()</f>
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="6">
+        <v>44272.65625</v>
+      </c>
+      <c r="Q2" t="e">
+        <f>VLOOKUP(P2,J2:P169,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1143,12 +1051,16 @@
         <f>H3+I3</f>
         <v>44272.65625</v>
       </c>
-      <c r="Q3">
-        <f>(I3-I2)*24</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="6">
+        <f t="array" ref="P3">MAX((N3:N101=N3)*O3:O101)</f>
+        <v>44272.65625</v>
+      </c>
+      <c r="Q3" t="e">
+        <f t="shared" ref="Q2:Q10" si="2">VLOOKUP(P3,J3:P170,1,TRUE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1191,15 +1103,23 @@
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="2">IF(C4=C3,N3,C4&amp;D4&amp;M4)</f>
+        <f>IF(AND(C4=C3,D4=D3),N3,C4&amp;D4&amp;M4)</f>
         <v>REFTEST0145373</v>
       </c>
       <c r="O4" s="6">
         <f t="shared" ref="O4:O67" si="3">H4+I4</f>
         <v>44271</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="6">
+        <f t="array" ref="P4">MAX((N4:N102=N4)*O4:O102)</f>
+        <v>44273.59375</v>
+      </c>
+      <c r="Q4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1242,15 +1162,23 @@
         <v>4</v>
       </c>
       <c r="N5" t="str">
+        <f>IF(AND(C5=C4,D5=D4),N4,C5&amp;D5&amp;M5)</f>
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.53125</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="array" ref="P5">MAX((N5:N103=N5)*O5:O103)</f>
+        <v>44273.59375</v>
+      </c>
+      <c r="Q5" t="e">
         <f t="shared" si="2"/>
-        <v>REFTEST0145373</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.53125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1293,15 +1221,23 @@
         <v>5</v>
       </c>
       <c r="N6" t="str">
+        <f>IF(AND(C6=C5,D6=D5),N5,C6&amp;D6&amp;M6)</f>
+        <v>REFTEST0145373</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>44273.59375</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="array" ref="P6">MAX((N6:N104=N6)*O6:O104)</f>
+        <v>44273.59375</v>
+      </c>
+      <c r="Q6" t="e">
         <f t="shared" si="2"/>
-        <v>REFTEST0145373</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="3"/>
-        <v>44273.59375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1344,15 +1280,23 @@
         <v>6</v>
       </c>
       <c r="N7" t="str">
+        <f>IF(AND(C7=C6,D7=D6),N6,C7&amp;D7&amp;M7)</f>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>44502.356944444444</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="array" ref="P7">MAX((N7:N105=N7)*O7:O105)</f>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="Q7" t="e">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="3"/>
-        <v>44502.356944444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1395,15 +1339,23 @@
         <v>7</v>
       </c>
       <c r="N8" t="str">
+        <f>IF(AND(C8=C7,D8=D7),N7,C8&amp;D8&amp;M8)</f>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>44503.527777777781</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="array" ref="P8">MAX((N8:N106=N8)*O8:O106)</f>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="Q8" t="e">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="3"/>
-        <v>44503.527777777781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1446,23 +1398,23 @@
         <v>8</v>
       </c>
       <c r="N9" t="str">
+        <f>IF(AND(C9=C8,D9=D8),N8,C9&amp;D9&amp;M9)</f>
+        <v>REF21110000006</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="3"/>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="array" ref="P9">MAX((N9:N107=N9)*O9:O107)</f>
+        <v>44503.731944444444</v>
+      </c>
+      <c r="Q9" t="e">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="3"/>
-        <v>44503.731944444444</v>
-      </c>
-      <c r="P9" s="7">
-        <f>(O9-O8)*24</f>
-        <v>4.8999999999068677</v>
-      </c>
-      <c r="Q9">
-        <f>(I9-I8)*24</f>
-        <v>4.8999999999999986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1505,15 +1457,23 @@
         <v>9</v>
       </c>
       <c r="N10" t="str">
+        <f>IF(AND(C10=C9,D10=D9),N9,C10&amp;D10&amp;M10)</f>
+        <v>REF211110009</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="3"/>
+        <v>44271.386111111111</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="array" ref="P10">MAX((N10:N108=N10)*O10:O108)</f>
+        <v>44271.522222222222</v>
+      </c>
+      <c r="Q10" t="e">
         <f t="shared" si="2"/>
-        <v>REF21110000006</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="3"/>
-        <v>44271.386111111111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1556,15 +1516,19 @@
         <v>10</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>REF21110000006</v>
+        <f>IF(AND(C11=C10,D11=D10),N10,C11&amp;D11&amp;M11)</f>
+        <v>REF211110009</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="3"/>
         <v>44271.522222222222</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P11" s="6">
+        <f t="array" ref="P11">MAX((N11:N109=N11)*O11:O109)</f>
+        <v>44271.522222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1607,15 +1571,19 @@
         <v>11</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C12=C11,D12=D11),N11,C12&amp;D12&amp;M12)</f>
         <v>REF212390011</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="3"/>
         <v>44271.424305555556</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P12" s="6">
+        <f t="array" ref="P12">MAX((N12:N110=N12)*O12:O110)</f>
+        <v>44271.731944444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1658,15 +1626,19 @@
         <v>12</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C13=C12,D13=D12),N12,C13&amp;D13&amp;M13)</f>
         <v>REF212390011</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="3"/>
         <v>44271.731944444444</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="6">
+        <f t="array" ref="P13">MAX((N13:N111=N13)*O13:O111)</f>
+        <v>44271.731944444444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1709,15 +1681,19 @@
         <v>13</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C14=C13,D14=D13),N13,C14&amp;D14&amp;M14)</f>
         <v>REF111564313</v>
       </c>
       <c r="O14" s="6">
         <f t="shared" si="3"/>
         <v>44275.551388888889</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="6">
+        <f t="array" ref="P14">MAX((N14:N112=N14)*O14:O112)</f>
+        <v>44276.523611111108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1760,15 +1736,19 @@
         <v>14</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C15=C14,D15=D14),N14,C15&amp;D15&amp;M15)</f>
         <v>REF111564313</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="3"/>
         <v>44276.523611111108</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="6">
+        <f t="array" ref="P15">MAX((N15:N113=N15)*O15:O113)</f>
+        <v>44276.523611111108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1811,15 +1791,19 @@
         <v>15</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C16=C15,D16=D15),N15,C16&amp;D16&amp;M16)</f>
         <v>REFD202102456915</v>
       </c>
       <c r="O16" s="6">
         <f t="shared" si="3"/>
         <v>44248.432638888888</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="6">
+        <f t="array" ref="P16">MAX((N16:N114=N16)*O16:O114)</f>
+        <v>44248.709722222222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1862,15 +1846,19 @@
         <v>16</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C17=C16,D17=D16),N16,C17&amp;D17&amp;M17)</f>
         <v>REFD202102456915</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="3"/>
         <v>44248.488194444442</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="6">
+        <f t="array" ref="P17">MAX((N17:N115=N17)*O17:O115)</f>
+        <v>44248.709722222222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1913,15 +1901,19 @@
         <v>17</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C18=C17,D18=D17),N17,C18&amp;D18&amp;M18)</f>
         <v>REFD202102456915</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="3"/>
         <v>44248.709722222222</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="6">
+        <f t="array" ref="P18">MAX((N18:N116=N18)*O18:O116)</f>
+        <v>44248.709722222222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1964,15 +1956,19 @@
         <v>18</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C19=C18,D19=D18),N18,C19&amp;D19&amp;M19)</f>
         <v>REFD20210345618</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="3"/>
         <v>44253.529861111114</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="6">
+        <f t="array" ref="P19">MAX((N19:N117=N19)*O19:O117)</f>
+        <v>44253.756944444445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2015,15 +2011,19 @@
         <v>19</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C20=C19,D20=D19),N19,C20&amp;D20&amp;M20)</f>
         <v>REFD20210345618</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="3"/>
         <v>44253.65347222222</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="6">
+        <f t="array" ref="P20">MAX((N20:N118=N20)*O20:O118)</f>
+        <v>44253.756944444445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2066,15 +2066,19 @@
         <v>20</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C21=C20,D21=D20),N20,C21&amp;D21&amp;M21)</f>
         <v>REFD20210345618</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="3"/>
         <v>44253.756944444445</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="6">
+        <f t="array" ref="P21">MAX((N21:N119=N21)*O21:O119)</f>
+        <v>44253.756944444445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -2117,15 +2121,19 @@
         <v>21</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C22=C21,D22=D21),N21,C22&amp;D22&amp;M22)</f>
         <v>REF001332621</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="3"/>
         <v>44571.529861111114</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P22" s="6">
+        <f t="array" ref="P22">MAX((N22:N120=N22)*O22:O120)</f>
+        <v>44572.76458333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -2168,15 +2176,19 @@
         <v>22</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C23=C22,D23=D22),N22,C23&amp;D23&amp;M23)</f>
         <v>REF001332621</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="3"/>
         <v>44572.605555555558</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="6">
+        <f t="array" ref="P23">MAX((N23:N121=N23)*O23:O121)</f>
+        <v>44572.76458333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2219,15 +2231,19 @@
         <v>23</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C24=C23,D24=D23),N23,C24&amp;D24&amp;M24)</f>
         <v>REF001332621</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="3"/>
         <v>44572.76458333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P24" s="6">
+        <f t="array" ref="P24">MAX((N24:N122=N24)*O24:O122)</f>
+        <v>44572.76458333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -2270,15 +2286,19 @@
         <v>24</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C25=C24,D25=D24),N24,C25&amp;D25&amp;M25)</f>
         <v>REF001DEMO110024</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="3"/>
         <v>44234.654861111114</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="6">
+        <f t="array" ref="P25">MAX((N25:N123=N25)*O25:O123)</f>
+        <v>44235.722916666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2321,15 +2341,19 @@
         <v>25</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C26=C25,D26=D25),N25,C26&amp;D26&amp;M26)</f>
         <v>REF001DEMO110024</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="3"/>
         <v>44235.722916666666</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="6">
+        <f t="array" ref="P26">MAX((N26:N124=N26)*O26:O124)</f>
+        <v>44235.722916666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2372,15 +2396,19 @@
         <v>26</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C27=C26,D27=D26),N26,C27&amp;D27&amp;M27)</f>
         <v>REFD543105110026</v>
       </c>
       <c r="O27" s="6">
         <f t="shared" si="3"/>
         <v>44257.508333333331</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="6">
+        <f t="array" ref="P27">MAX((N27:N125=N27)*O27:O125)</f>
+        <v>44258.756944444445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2423,15 +2451,19 @@
         <v>27</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C28=C27,D28=D27),N27,C28&amp;D28&amp;M28)</f>
         <v>REFD543105110026</v>
       </c>
       <c r="O28" s="6">
         <f t="shared" si="3"/>
         <v>44257.571527777778</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="6">
+        <f t="array" ref="P28">MAX((N28:N126=N28)*O28:O126)</f>
+        <v>44258.756944444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2474,15 +2506,19 @@
         <v>28</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C29=C28,D29=D28),N28,C29&amp;D29&amp;M29)</f>
         <v>REFD543105110026</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="3"/>
         <v>44258.756944444445</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="6">
+        <f t="array" ref="P29">MAX((N29:N127=N29)*O29:O127)</f>
+        <v>44258.756944444445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2525,15 +2561,19 @@
         <v>29</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C30=C29,D30=D29),N29,C30&amp;D30&amp;M30)</f>
         <v>REFDEMO0190029</v>
       </c>
       <c r="O30" s="6">
         <f t="shared" si="3"/>
         <v>44522.466666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P30" s="6">
+        <f t="array" ref="P30">MAX((N30:N128=N30)*O30:O128)</f>
+        <v>44524.613888888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2576,15 +2616,19 @@
         <v>30</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C31=C30,D31=D30),N30,C31&amp;D31&amp;M31)</f>
         <v>REFDEMO0190029</v>
       </c>
       <c r="O31" s="6">
         <f t="shared" si="3"/>
         <v>44524.613888888889</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P31" s="6">
+        <f t="array" ref="P31">MAX((N31:N129=N31)*O31:O129)</f>
+        <v>44524.613888888889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2627,15 +2671,19 @@
         <v>31</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
+        <f>IF(AND(C32=C31,D32=D31),N31,C32&amp;D32&amp;M32)</f>
+        <v>REFDEMO01102531</v>
       </c>
       <c r="O32" s="6">
         <f t="shared" si="3"/>
         <v>44520.432638888888</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="6">
+        <f t="array" ref="P32">MAX((N32:N130=N32)*O32:O130)</f>
+        <v>44521.480555555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2678,15 +2726,19 @@
         <v>32</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>REFDEMO0190029</v>
+        <f>IF(AND(C33=C32,D33=D32),N32,C33&amp;D33&amp;M33)</f>
+        <v>REFDEMO01102531</v>
       </c>
       <c r="O33" s="6">
         <f t="shared" si="3"/>
         <v>44521.480555555558</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P33" s="6">
+        <f t="array" ref="P33">MAX((N33:N131=N33)*O33:O131)</f>
+        <v>44521.480555555558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2729,15 +2781,19 @@
         <v>33</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C34=C33,D34=D33),N33,C34&amp;D34&amp;M34)</f>
         <v>REFDEM01223833</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" si="3"/>
         <v>44211.756944444445</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="6">
+        <f t="array" ref="P34">MAX((N34:N132=N34)*O34:O132)</f>
+        <v>44211.756944444445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2780,15 +2836,19 @@
         <v>34</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C35=C34,D35=D34),N34,C35&amp;D35&amp;M35)</f>
         <v>REFDEM01223833</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="3"/>
         <v>44211.529861111114</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P35" s="6">
+        <f t="array" ref="P35">MAX((N35:N133=N35)*O35:O133)</f>
+        <v>44211.529861111114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2831,15 +2891,19 @@
         <v>35</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C36=C35,D36=D35),N35,C36&amp;D36&amp;M36)</f>
         <v>REFDEM9992670935</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="3"/>
         <v>44209.605555555558</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P36" s="6">
+        <f t="array" ref="P36">MAX((N36:N134=N36)*O36:O134)</f>
+        <v>44209.605555555558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2882,15 +2946,19 @@
         <v>36</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C37=C36,D37=D36),N36,C37&amp;D37&amp;M37)</f>
         <v>REFDEM9992670935</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" si="3"/>
         <v>44209.605555555558</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="6">
+        <f t="array" ref="P37">MAX((N37:N135=N37)*O37:O135)</f>
+        <v>44209.605555555558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2933,15 +3001,19 @@
         <v>37</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C38=C37,D38=D37),N37,C38&amp;D38&amp;M38)</f>
         <v>REFDEM0091518837</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="3"/>
         <v>44210.654861111114</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P38" s="6">
+        <f t="array" ref="P38">MAX((N38:N136=N38)*O38:O136)</f>
+        <v>44210.654861111114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2984,15 +3056,19 @@
         <v>38</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C39=C38,D39=D38),N38,C39&amp;D39&amp;M39)</f>
         <v>REFDEM0091518837</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="3"/>
         <v>44210.654861111114</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P39" s="6">
+        <f t="array" ref="P39">MAX((N39:N137=N39)*O39:O137)</f>
+        <v>44210.654861111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3035,15 +3111,19 @@
         <v>39</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C40=C39,D40=D39),N39,C40&amp;D40&amp;M40)</f>
         <v>REFDEM559112039</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="3"/>
         <v>44201.508333333331</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="6">
+        <f t="array" ref="P40">MAX((N40:N138=N40)*O40:O138)</f>
+        <v>44201.722222222219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3086,15 +3166,19 @@
         <v>40</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C41=C40,D41=D40),N40,C41&amp;D41&amp;M41)</f>
         <v>REFDEM559112039</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" si="3"/>
         <v>44201.513194444444</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P41" s="6">
+        <f t="array" ref="P41">MAX((N41:N139=N41)*O41:O139)</f>
+        <v>44201.722222222219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3137,15 +3221,19 @@
         <v>41</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C42=C41,D42=D41),N41,C42&amp;D42&amp;M42)</f>
         <v>REFDEM559112039</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" si="3"/>
         <v>44201.722222222219</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="6">
+        <f t="array" ref="P42">MAX((N42:N140=N42)*O42:O140)</f>
+        <v>44201.722222222219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -3188,15 +3276,19 @@
         <v>42</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
+        <f>IF(AND(C43=C42,D43=D42),N42,C43&amp;D43&amp;M43)</f>
+        <v>REFDEM5591672042</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="3"/>
         <v>44224.557638888888</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P43" s="6">
+        <f t="array" ref="P43">MAX((N43:N141=N43)*O43:O141)</f>
+        <v>44224.798611111109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3239,15 +3331,19 @@
         <v>43</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="2"/>
-        <v>REFDEM559112039</v>
+        <f>IF(AND(C44=C43,D44=D43),N43,C44&amp;D44&amp;M44)</f>
+        <v>REFDEM5591672042</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" si="3"/>
         <v>44224.798611111109</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P44" s="6">
+        <f t="array" ref="P44">MAX((N44:N142=N44)*O44:O142)</f>
+        <v>44224.798611111109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -3290,15 +3386,19 @@
         <v>44</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C45=C44,D45=D44),N44,C45&amp;D45&amp;M45)</f>
         <v>REFD100926756944</v>
       </c>
       <c r="O45" s="6">
         <f t="shared" si="3"/>
         <v>44209.474305555559</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P45" s="6">
+        <f t="array" ref="P45">MAX((N45:N143=N45)*O45:O143)</f>
+        <v>44209.53125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -3341,15 +3441,19 @@
         <v>45</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C46=C45,D46=D45),N45,C46&amp;D46&amp;M46)</f>
         <v>REFD100926756944</v>
       </c>
       <c r="O46" s="6">
         <f t="shared" si="3"/>
         <v>44209.53125</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P46" s="6">
+        <f t="array" ref="P46">MAX((N46:N144=N46)*O46:O144)</f>
+        <v>44209.53125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -3392,15 +3496,19 @@
         <v>46</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C47=C46,D47=D46),N46,C47&amp;D47&amp;M47)</f>
         <v>REF201210046</v>
       </c>
       <c r="O47" s="6">
         <f t="shared" si="3"/>
         <v>44277.591666666667</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P47" s="6">
+        <f t="array" ref="P47">MAX((N47:N145=N47)*O47:O145)</f>
+        <v>44277.715277777781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3443,15 +3551,19 @@
         <v>47</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C48=C47,D48=D47),N47,C48&amp;D48&amp;M48)</f>
         <v>REF201210046</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" si="3"/>
         <v>44277.715277777781</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P48" s="6">
+        <f t="array" ref="P48">MAX((N48:N146=N48)*O48:O146)</f>
+        <v>44277.715277777781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -3494,15 +3606,19 @@
         <v>48</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C49=C48,D49=D48),N48,C49&amp;D49&amp;M49)</f>
         <v>REFDEMO0180048</v>
       </c>
       <c r="O49" s="6">
         <f t="shared" si="3"/>
         <v>44155.383333333331</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P49" s="6">
+        <f t="array" ref="P49">MAX((N49:N147=N49)*O49:O147)</f>
+        <v>44157.715277777781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3545,15 +3661,19 @@
         <v>49</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C50=C49,D50=D49),N49,C50&amp;D50&amp;M50)</f>
         <v>REFDEMO0180048</v>
       </c>
       <c r="O50" s="6">
         <f t="shared" si="3"/>
         <v>44157.715277777781</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P50" s="6">
+        <f t="array" ref="P50">MAX((N50:N148=N50)*O50:O148)</f>
+        <v>44157.715277777781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3596,15 +3716,19 @@
         <v>50</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C51=C50,D51=D50),N50,C51&amp;D51&amp;M51)</f>
         <v>REFDEMO02102550</v>
       </c>
       <c r="O51" s="6">
         <f t="shared" si="3"/>
         <v>44155.47152777778</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P51" s="6">
+        <f t="array" ref="P51">MAX((N51:N149=N51)*O51:O149)</f>
+        <v>44155.881944444445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3647,15 +3771,19 @@
         <v>51</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C52=C51,D52=D51),N51,C52&amp;D52&amp;M52)</f>
         <v>REFDEMO02102550</v>
       </c>
       <c r="O52" s="6">
         <f t="shared" si="3"/>
         <v>44155.881944444445</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P52" s="6">
+        <f t="array" ref="P52">MAX((N52:N150=N52)*O52:O150)</f>
+        <v>44155.881944444445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -3698,15 +3826,19 @@
         <v>52</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C53=C52,D53=D52),N52,C53&amp;D53&amp;M53)</f>
         <v>REFDEMO018760052</v>
       </c>
       <c r="O53" s="6">
         <f t="shared" si="3"/>
         <v>44156.474305555559</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P53" s="6">
+        <f t="array" ref="P53">MAX((N53:N151=N53)*O53:O151)</f>
+        <v>44156.591666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3749,15 +3881,19 @@
         <v>53</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C54=C53,D54=D53),N53,C54&amp;D54&amp;M54)</f>
         <v>REFDEMO018760052</v>
       </c>
       <c r="O54" s="6">
         <f t="shared" si="3"/>
         <v>44156.591666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P54" s="6">
+        <f t="array" ref="P54">MAX((N54:N152=N54)*O54:O152)</f>
+        <v>44156.591666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -3800,15 +3936,19 @@
         <v>54</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C55=C54,D55=D54),N54,C55&amp;D55&amp;M55)</f>
         <v>REFDEMO901160054</v>
       </c>
       <c r="O55" s="6">
         <f t="shared" si="3"/>
         <v>44162.40625</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P55" s="6">
+        <f t="array" ref="P55">MAX((N55:N153=N55)*O55:O153)</f>
+        <v>44162.763888888891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3851,15 +3991,19 @@
         <v>55</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C56=C55,D56=D55),N55,C56&amp;D56&amp;M56)</f>
         <v>REFDEMO901160054</v>
       </c>
       <c r="O56" s="6">
         <f t="shared" si="3"/>
         <v>44162.763888888891</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P56" s="6">
+        <f t="array" ref="P56">MAX((N56:N154=N56)*O56:O154)</f>
+        <v>44162.763888888891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -3902,15 +4046,19 @@
         <v>56</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C57=C56,D57=D56),N56,C57&amp;D57&amp;M57)</f>
         <v>REFD543104310056</v>
       </c>
       <c r="O57" s="6">
         <f t="shared" si="3"/>
         <v>44256.474305555559</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P57" s="6">
+        <f t="array" ref="P57">MAX((N57:N155=N57)*O57:O155)</f>
+        <v>44256.756944444445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3953,15 +4101,19 @@
         <v>57</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C58=C57,D58=D57),N57,C58&amp;D58&amp;M58)</f>
         <v>REFD543104310056</v>
       </c>
       <c r="O58" s="6">
         <f t="shared" si="3"/>
         <v>44256.756944444445</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P58" s="6">
+        <f t="array" ref="P58">MAX((N58:N156=N58)*O58:O156)</f>
+        <v>44256.756944444445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -4004,15 +4156,19 @@
         <v>58</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C59=C58,D59=D58),N58,C59&amp;D59&amp;M59)</f>
         <v>REFD54310345658</v>
       </c>
       <c r="O59" s="6">
         <f t="shared" si="3"/>
         <v>44256.599305555559</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P59" s="6">
+        <f t="array" ref="P59">MAX((N59:N157=N59)*O59:O157)</f>
+        <v>44256.800000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -4055,15 +4211,19 @@
         <v>59</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C60=C59,D60=D59),N59,C60&amp;D60&amp;M60)</f>
         <v>REFD54310345658</v>
       </c>
       <c r="O60" s="6">
         <f t="shared" si="3"/>
         <v>44256.800000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P60" s="6">
+        <f t="array" ref="P60">MAX((N60:N158=N60)*O60:O158)</f>
+        <v>44256.800000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -4106,15 +4266,19 @@
         <v>60</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C61=C60,D61=D60),N60,C61&amp;D61&amp;M61)</f>
         <v>REFDEM159134860</v>
       </c>
       <c r="O61" s="6">
         <f t="shared" si="3"/>
         <v>44211.356944444444</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P61" s="6">
+        <f t="array" ref="P61">MAX((N61:N159=N61)*O61:O159)</f>
+        <v>44211.527083333334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -4157,15 +4321,19 @@
         <v>61</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C62=C61,D62=D61),N61,C62&amp;D62&amp;M62)</f>
         <v>REFDEM159134860</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="3"/>
         <v>44211.527083333334</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P62" s="6">
+        <f t="array" ref="P62">MAX((N62:N160=N62)*O62:O160)</f>
+        <v>44211.527083333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -4208,15 +4376,19 @@
         <v>62</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C63=C62,D63=D62),N62,C63&amp;D63&amp;M63)</f>
         <v>REFD101926756962</v>
       </c>
       <c r="O63" s="6">
         <f t="shared" si="3"/>
         <v>44217.412499999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P63" s="6">
+        <f t="array" ref="P63">MAX((N63:N161=N63)*O63:O161)</f>
+        <v>44218.730555555558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -4259,15 +4431,19 @@
         <v>63</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C64=C63,D64=D63),N63,C64&amp;D64&amp;M64)</f>
         <v>REFD101926756962</v>
       </c>
       <c r="O64" s="6">
         <f t="shared" si="3"/>
         <v>44218.730555555558</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P64" s="6">
+        <f t="array" ref="P64">MAX((N64:N162=N64)*O64:O162)</f>
+        <v>44218.730555555558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -4310,15 +4486,19 @@
         <v>64</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C65=C64,D65=D64),N64,C65&amp;D65&amp;M65)</f>
         <v>REFD543105110064</v>
       </c>
       <c r="O65" s="6">
         <f t="shared" si="3"/>
         <v>44257.605555555558</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P65" s="6">
+        <f t="array" ref="P65">MAX((N65:N163=N65)*O65:O163)</f>
+        <v>44258.648611111108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4361,15 +4541,19 @@
         <v>65</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C66=C65,D66=D65),N65,C66&amp;D66&amp;M66)</f>
         <v>REFD543105110064</v>
       </c>
       <c r="O66" s="6">
         <f t="shared" si="3"/>
         <v>44258.648611111108</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P66" s="6">
+        <f t="array" ref="P66">MAX((N66:N164=N66)*O66:O164)</f>
+        <v>44258.648611111108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -4412,15 +4596,19 @@
         <v>66</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(C67=C66,D67=D66),N66,C67&amp;D67&amp;M67)</f>
         <v>REFZ9991210066</v>
       </c>
       <c r="O67" s="6">
         <f t="shared" si="3"/>
         <v>44278.341666666667</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P67" s="6">
+        <f t="array" ref="P67">MAX((N67:N165=N67)*O67:O165)</f>
+        <v>44278.523611111108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -4463,15 +4651,19 @@
         <v>67</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N91" si="6">IF(C68=C67,N67,C68&amp;D68&amp;M68)</f>
+        <f>IF(AND(C68=C67,D68=D67),N67,C68&amp;D68&amp;M68)</f>
         <v>REFZ9991210066</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" ref="O68:O91" si="7">H68+I68</f>
+        <f t="shared" ref="O68:O91" si="6">H68+I68</f>
         <v>44278.523611111108</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P68" s="6">
+        <f t="array" ref="P68">MAX((N68:N166=N68)*O68:O166)</f>
+        <v>44278.523611111108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -4514,15 +4706,19 @@
         <v>68</v>
       </c>
       <c r="N69" t="str">
+        <f>IF(AND(C69=C68,D69=D68),N68,C69&amp;D69&amp;M69)</f>
+        <v>REF2111000068</v>
+      </c>
+      <c r="O69" s="6">
         <f t="shared" si="6"/>
-        <v>REF2111000068</v>
-      </c>
-      <c r="O69" s="6">
-        <f t="shared" si="7"/>
         <v>44217.40625</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P69" s="6">
+        <f t="array" ref="P69">MAX((N69:N167=N69)*O69:O167)</f>
+        <v>44223.533333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -4565,15 +4761,19 @@
         <v>69</v>
       </c>
       <c r="N70" t="str">
+        <f>IF(AND(C70=C69,D70=D69),N69,C70&amp;D70&amp;M70)</f>
+        <v>REF2111000068</v>
+      </c>
+      <c r="O70" s="6">
         <f t="shared" si="6"/>
-        <v>REF2111000068</v>
-      </c>
-      <c r="O70" s="6">
-        <f t="shared" si="7"/>
         <v>44223.533333333333</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P70" s="6">
+        <f t="array" ref="P70">MAX((N70:N168=N70)*O70:O168)</f>
+        <v>44223.533333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -4616,15 +4816,19 @@
         <v>70</v>
       </c>
       <c r="N71" t="str">
+        <f>IF(AND(C71=C70,D71=D70),N70,C71&amp;D71&amp;M71)</f>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O71" s="6">
         <f t="shared" si="6"/>
-        <v>REFTEST01234570</v>
-      </c>
-      <c r="O71" s="6">
-        <f t="shared" si="7"/>
         <v>44549.425000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P71" s="6">
+        <f t="array" ref="P71">MAX((N71:N169=N71)*O71:O169)</f>
+        <v>44550.561805555553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -4667,15 +4871,19 @@
         <v>71</v>
       </c>
       <c r="N72" t="str">
+        <f>IF(AND(C72=C71,D72=D71),N71,C72&amp;D72&amp;M72)</f>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O72" s="6">
         <f t="shared" si="6"/>
-        <v>REFTEST01234570</v>
-      </c>
-      <c r="O72" s="6">
-        <f t="shared" si="7"/>
         <v>44550.561805555553</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P72" s="6">
+        <f t="array" ref="P72">MAX((N72:N170=N72)*O72:O170)</f>
+        <v>44550.561805555553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -4718,15 +4926,19 @@
         <v>72</v>
       </c>
       <c r="N73" t="str">
+        <f>IF(AND(C73=C72,D73=D72),N72,C73&amp;D73&amp;M73)</f>
+        <v>REFTEST01234570</v>
+      </c>
+      <c r="O73" s="6">
         <f t="shared" si="6"/>
-        <v>REFTEST01234570</v>
-      </c>
-      <c r="O73" s="6">
-        <f t="shared" si="7"/>
         <v>44550</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P73" s="6">
+        <f t="array" ref="P73">MAX((N73:N171=N73)*O73:O171)</f>
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4769,15 +4981,19 @@
         <v>73</v>
       </c>
       <c r="N74" t="str">
+        <f>IF(AND(C74=C73,D74=D73),N73,C74&amp;D74&amp;M74)</f>
+        <v>REF211789073</v>
+      </c>
+      <c r="O74" s="6">
         <f t="shared" si="6"/>
-        <v>REF211789073</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="7"/>
         <v>44297.523611111108</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P74" s="6">
+        <f t="array" ref="P74">MAX((N74:N172=N74)*O74:O172)</f>
+        <v>44299.756944444445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -4820,15 +5036,19 @@
         <v>74</v>
       </c>
       <c r="N75" t="str">
+        <f>IF(AND(C75=C74,D75=D74),N74,C75&amp;D75&amp;M75)</f>
+        <v>REF211789073</v>
+      </c>
+      <c r="O75" s="6">
         <f t="shared" si="6"/>
-        <v>REF211789073</v>
-      </c>
-      <c r="O75" s="6">
-        <f t="shared" si="7"/>
         <v>44297.716666666667</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P75" s="6">
+        <f t="array" ref="P75">MAX((N75:N173=N75)*O75:O173)</f>
+        <v>44299.756944444445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -4871,15 +5091,19 @@
         <v>75</v>
       </c>
       <c r="N76" t="str">
+        <f>IF(AND(C76=C75,D76=D75),N75,C76&amp;D76&amp;M76)</f>
+        <v>REF211789073</v>
+      </c>
+      <c r="O76" s="6">
         <f t="shared" si="6"/>
-        <v>REF211789073</v>
-      </c>
-      <c r="O76" s="6">
-        <f t="shared" si="7"/>
         <v>44299.756944444445</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P76" s="6">
+        <f t="array" ref="P76">MAX((N76:N174=N76)*O76:O174)</f>
+        <v>44299.756944444445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4922,15 +5146,19 @@
         <v>76</v>
       </c>
       <c r="N77" t="str">
+        <f>IF(AND(C77=C76,D77=D76),N76,C77&amp;D77&amp;M77)</f>
+        <v>REF2111200076</v>
+      </c>
+      <c r="O77" s="6">
         <f t="shared" si="6"/>
-        <v>REF211789073</v>
-      </c>
-      <c r="O77" s="6">
-        <f t="shared" si="7"/>
         <v>44240.386111111111</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P77" s="6">
+        <f t="array" ref="P77">MAX((N77:N175=N77)*O77:O175)</f>
+        <v>44241.522222222222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -4973,15 +5201,19 @@
         <v>77</v>
       </c>
       <c r="N78" t="str">
+        <f>IF(AND(C78=C77,D78=D77),N77,C78&amp;D78&amp;M78)</f>
+        <v>REF2111200076</v>
+      </c>
+      <c r="O78" s="6">
         <f t="shared" si="6"/>
-        <v>REF211789073</v>
-      </c>
-      <c r="O78" s="6">
-        <f t="shared" si="7"/>
         <v>44241.522222222222</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P78" s="6">
+        <f t="array" ref="P78">MAX((N78:N176=N78)*O78:O176)</f>
+        <v>44241.522222222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -5024,15 +5256,19 @@
         <v>78</v>
       </c>
       <c r="N79" t="str">
+        <f>IF(AND(C79=C78,D79=D78),N78,C79&amp;D79&amp;M79)</f>
+        <v>REF211200078</v>
+      </c>
+      <c r="O79" s="6">
         <f t="shared" si="6"/>
-        <v>REF211200078</v>
-      </c>
-      <c r="O79" s="6">
-        <f t="shared" si="7"/>
         <v>44388.424305555556</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P79" s="6">
+        <f t="array" ref="P79">MAX((N79:N177=N79)*O79:O177)</f>
+        <v>44388.731944444444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -5075,15 +5311,19 @@
         <v>79</v>
       </c>
       <c r="N80" t="str">
+        <f>IF(AND(C80=C79,D80=D79),N79,C80&amp;D80&amp;M80)</f>
+        <v>REF211200078</v>
+      </c>
+      <c r="O80" s="6">
         <f t="shared" si="6"/>
-        <v>REF211200078</v>
-      </c>
-      <c r="O80" s="6">
-        <f t="shared" si="7"/>
         <v>44388.731944444444</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P80" s="6">
+        <f t="array" ref="P80">MAX((N80:N178=N80)*O80:O178)</f>
+        <v>44388.731944444444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -5126,15 +5366,19 @@
         <v>80</v>
       </c>
       <c r="N81" t="str">
+        <f>IF(AND(C81=C80,D81=D80),N80,C81&amp;D81&amp;M81)</f>
+        <v>REF1113000080</v>
+      </c>
+      <c r="O81" s="6">
         <f t="shared" si="6"/>
-        <v>REF1113000080</v>
-      </c>
-      <c r="O81" s="6">
-        <f t="shared" si="7"/>
         <v>44305.551388888889</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P81" s="6">
+        <f t="array" ref="P81">MAX((N81:N179=N81)*O81:O179)</f>
+        <v>44305.551388888889</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -5177,15 +5421,19 @@
         <v>81</v>
       </c>
       <c r="N82" t="str">
+        <f>IF(AND(C82=C81,D82=D81),N81,C82&amp;D82&amp;M82)</f>
+        <v>REF111300081</v>
+      </c>
+      <c r="O82" s="6">
         <f t="shared" si="6"/>
-        <v>REF1113000080</v>
-      </c>
-      <c r="O82" s="6">
-        <f t="shared" si="7"/>
         <v>44306.523611111108</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P82" s="6">
+        <f t="array" ref="P82">MAX((N82:N180=N82)*O82:O180)</f>
+        <v>44306.523611111108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -5228,15 +5476,19 @@
         <v>82</v>
       </c>
       <c r="N83" t="str">
+        <f>IF(AND(C83=C82,D83=D82),N82,C83&amp;D83&amp;M83)</f>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O83" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021021240082</v>
-      </c>
-      <c r="O83" s="6">
-        <f t="shared" si="7"/>
         <v>44454.432638888888</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P83" s="6">
+        <f t="array" ref="P83">MAX((N83:N181=N83)*O83:O181)</f>
+        <v>44455.709722222222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -5279,15 +5531,19 @@
         <v>83</v>
       </c>
       <c r="N84" t="str">
+        <f>IF(AND(C84=C83,D84=D83),N83,C84&amp;D84&amp;M84)</f>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O84" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021021240082</v>
-      </c>
-      <c r="O84" s="6">
-        <f t="shared" si="7"/>
         <v>44455.488194444442</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P84" s="6">
+        <f t="array" ref="P84">MAX((N84:N182=N84)*O84:O182)</f>
+        <v>44455.709722222222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -5330,15 +5586,19 @@
         <v>84</v>
       </c>
       <c r="N85" t="str">
+        <f>IF(AND(C85=C84,D85=D84),N84,C85&amp;D85&amp;M85)</f>
+        <v>REFD2021021240082</v>
+      </c>
+      <c r="O85" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021021240082</v>
-      </c>
-      <c r="O85" s="6">
-        <f t="shared" si="7"/>
         <v>44455.709722222222</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P85" s="6">
+        <f t="array" ref="P85">MAX((N85:N183=N85)*O85:O183)</f>
+        <v>44455.709722222222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -5381,15 +5641,19 @@
         <v>85</v>
       </c>
       <c r="N86" t="str">
+        <f>IF(AND(C86=C85,D86=D85),N85,C86&amp;D86&amp;M86)</f>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O86" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021031743085</v>
-      </c>
-      <c r="O86" s="6">
-        <f t="shared" si="7"/>
         <v>44388.529861111114</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P86" s="6">
+        <f t="array" ref="P86">MAX((N86:N184=N86)*O86:O184)</f>
+        <v>44390.756944444445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -5432,15 +5696,19 @@
         <v>86</v>
       </c>
       <c r="N87" t="str">
+        <f>IF(AND(C87=C86,D87=D86),N86,C87&amp;D87&amp;M87)</f>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O87" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021031743085</v>
-      </c>
-      <c r="O87" s="6">
-        <f t="shared" si="7"/>
         <v>44389.65347222222</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P87" s="6">
+        <f t="array" ref="P87">MAX((N87:N185=N87)*O87:O185)</f>
+        <v>44390.756944444445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -5483,15 +5751,19 @@
         <v>87</v>
       </c>
       <c r="N88" t="str">
+        <f>IF(AND(C88=C87,D88=D87),N87,C88&amp;D88&amp;M88)</f>
+        <v>REFD2021031743085</v>
+      </c>
+      <c r="O88" s="6">
         <f t="shared" si="6"/>
-        <v>REFD2021031743085</v>
-      </c>
-      <c r="O88" s="6">
-        <f t="shared" si="7"/>
         <v>44390.756944444445</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P88" s="6">
+        <f t="array" ref="P88">MAX((N88:N186=N88)*O88:O186)</f>
+        <v>44390.756944444445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -5534,15 +5806,19 @@
         <v>88</v>
       </c>
       <c r="N89" t="str">
+        <f>IF(AND(C89=C88,D89=D88),N88,C89&amp;D89&amp;M89)</f>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O89" s="6">
         <f t="shared" si="6"/>
-        <v>REF0011200088</v>
-      </c>
-      <c r="O89" s="6">
-        <f t="shared" si="7"/>
         <v>44474.529861111114</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P89" s="6">
+        <f t="array" ref="P89">MAX((N89:N187=N89)*O89:O187)</f>
+        <v>44476.76458333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -5585,15 +5861,19 @@
         <v>89</v>
       </c>
       <c r="N90" t="str">
+        <f>IF(AND(C90=C89,D90=D89),N89,C90&amp;D90&amp;M90)</f>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O90" s="6">
         <f t="shared" si="6"/>
-        <v>REF0011200088</v>
-      </c>
-      <c r="O90" s="6">
-        <f t="shared" si="7"/>
         <v>44474.605555555558</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P90" s="6">
+        <f t="array" ref="P90">MAX((N90:N188=N90)*O90:O188)</f>
+        <v>44476.76458333333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -5636,653 +5916,21 @@
         <v>90</v>
       </c>
       <c r="N91" t="str">
+        <f>IF(AND(C91=C90,D91=D90),N90,C91&amp;D91&amp;M91)</f>
+        <v>REF0011200088</v>
+      </c>
+      <c r="O91" s="6">
         <f t="shared" si="6"/>
-        <v>REF0011200088</v>
-      </c>
-      <c r="O91" s="6">
-        <f t="shared" si="7"/>
         <v>44476.76458333333</v>
       </c>
+      <c r="P91" s="6">
+        <f t="array" ref="P91">MAX((N91:N189=N91)*O91:O189)</f>
+        <v>44476.76458333333</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q91" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="REF212390011"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E696A89E-917A-4B42-88D2-26C248F71D6E}">
-  <dimension ref="A1:D37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44272.65625</v>
-      </c>
-      <c r="C3" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A3,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271.34375</v>
-      </c>
-      <c r="D3" s="7">
-        <f>(B3-C3)*24</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44273.59375</v>
-      </c>
-      <c r="C4" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A4,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271</v>
-      </c>
-      <c r="D4" s="7">
-        <f>(B4-C4)*24</f>
-        <v>62.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44503.731944444444</v>
-      </c>
-      <c r="C5" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A5,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44502.356944444444</v>
-      </c>
-      <c r="D5" s="7">
-        <f>(B5-C5)*24</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A6,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44271.424305555556</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" ref="D6:D37" si="0">(B6-C6)*24</f>
-        <v>-1062514.1833333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44276.523611111108</v>
-      </c>
-      <c r="C7" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A7,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44275.551388888889</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>23.333333333255723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A8,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44248.432638888888</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>-1061962.3833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A9,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44253.529861111114</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062084.7166666668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A10,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44571.529861111114</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>-1069716.7166666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44235.722916666666</v>
-      </c>
-      <c r="C11" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A11,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44234.654861111114</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>25.633333333244082</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44258.756944444445</v>
-      </c>
-      <c r="C12" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A12,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44257.508333333331</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>29.966666666732635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44524.613888888889</v>
-      </c>
-      <c r="C13" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A13,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44522.466666666667</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>51.533333333325572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A14,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44211.756944444445</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>-1061082.1666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44209.605555555558</v>
-      </c>
-      <c r="C15" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A15,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44209.605555555558</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44210.654861111114</v>
-      </c>
-      <c r="C16" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A16,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44210.654861111114</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44224.798611111109</v>
-      </c>
-      <c r="C17" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A17,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44224.557638888888</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>5.7833333333255723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44209.53125</v>
-      </c>
-      <c r="C18" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A18,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44209.474305555559</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3666666665812954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44277.715277777781</v>
-      </c>
-      <c r="C19" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A19,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44277.591666666667</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9666666667326353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44157.715277777781</v>
-      </c>
-      <c r="C20" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A20,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44155.383333333331</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>55.966666666790843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44155.881944444445</v>
-      </c>
-      <c r="C21" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A21,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44155.47152777778</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>9.8499999999767169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44156.591666666667</v>
-      </c>
-      <c r="C22" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A22,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44156.474305555559</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.816666666592937</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44162.763888888891</v>
-      </c>
-      <c r="C23" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A23,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44162.40625</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>8.5833333333721384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A24,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44256.474305555559</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062155.3833333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44256.800000000003</v>
-      </c>
-      <c r="C25" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A25,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44256.599305555559</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8166666666511446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44211.527083333334</v>
-      </c>
-      <c r="C26" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A26,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44211.356944444444</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0833333333721384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44218.730555555558</v>
-      </c>
-      <c r="C27" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A27,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44217.412499999999</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="0"/>
-        <v>31.633333333418705</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A28,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44257.605555555558</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>-1062182.5333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44278.523611111108</v>
-      </c>
-      <c r="C29" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A29,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44278.341666666667</v>
-      </c>
-      <c r="D29" s="7">
-        <f t="shared" si="0"/>
-        <v>4.3666666665812954</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44223.533333333333</v>
-      </c>
-      <c r="C30" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A30,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44217.40625</v>
-      </c>
-      <c r="D30" s="7">
-        <f t="shared" si="0"/>
-        <v>147.04999999998836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44550</v>
-      </c>
-      <c r="C31" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A31,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44549.425000000003</v>
-      </c>
-      <c r="D31" s="7">
-        <f t="shared" si="0"/>
-        <v>13.799999999930151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44299.756944444445</v>
-      </c>
-      <c r="C32" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A32,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44297.523611111108</v>
-      </c>
-      <c r="D32" s="7">
-        <f t="shared" si="0"/>
-        <v>53.600000000093132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A33,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44388.424305555556</v>
-      </c>
-      <c r="D33" s="7">
-        <f t="shared" si="0"/>
-        <v>-1065322.1833333333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>44306.523611111108</v>
-      </c>
-      <c r="C34" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A34,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44305.551388888889</v>
-      </c>
-      <c r="D34" s="7">
-        <f t="shared" si="0"/>
-        <v>23.333333333255723</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A35,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44454.432638888888</v>
-      </c>
-      <c r="D35" s="7">
-        <f t="shared" si="0"/>
-        <v>-1066906.3833333333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A36,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44388.529861111114</v>
-      </c>
-      <c r="D36" s="7">
-        <f t="shared" si="0"/>
-        <v>-1065324.7166666668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,Feuil1!$A37,Sheet1!$J$2:$J$91,Feuil1!C$2)</f>
-        <v>44474.529861111114</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="0"/>
-        <v>-1067388.7166666668</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Payments_clean.xlsx
+++ b/Payments_clean.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Téléchargements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\Ironhack-DAFT-Project6-Descriptive_predictive_analysis_visualization_in_Tableau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C9C8A1-BA98-48BD-9192-5AFD2A9EB7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36203F4-DE84-44AE-9799-2A7A5A4BE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet OS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil6" sheetId="7" r:id="rId2"/>
     <sheet name="Feuil7" sheetId="8" r:id="rId3"/>
     <sheet name="Transac par mois" sheetId="6" r:id="rId4"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AvgTime!$A$9:$F$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Charges!$A$4:$C$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet OS'!$A$1:$Q$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="206">
   <si>
     <t>Debtor</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>LastStatus</t>
+  </si>
+  <si>
+    <t>Country_full</t>
   </si>
 </sst>
 </file>
@@ -3661,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3681,7 +3684,7 @@
     <col min="19" max="19" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3739,8 +3742,11 @@
       <c r="U1" s="11" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="Q2">
-        <f>COUNTIF($N$2:$N$91,$N2)</f>
+        <f t="shared" ref="Q2:Q33" si="0">COUNTIF($N$2:$N$91,$N2)</f>
         <v>2</v>
       </c>
       <c r="R2" t="str">
@@ -3803,7 +3809,7 @@
         <v>Delay</v>
       </c>
       <c r="S2" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N2,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J2,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N2,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J2,Charges!$A$3:$S$3,0))</f>
         <v>200</v>
       </c>
       <c r="T2">
@@ -3814,8 +3820,15 @@
         <f>VLOOKUP(N2,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2">
+        <f>COUNTIF($R$2:$R$91,"&lt;&gt;"&amp;R19)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3847,11 +3860,11 @@
         <v>124</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">MID(F3&amp;" ",1,4)</f>
+        <f t="shared" ref="K3:K66" si="1">MID(F3&amp;" ",1,4)</f>
         <v>BINA</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="1">MID(F3&amp;" ",5,2)</f>
+        <f t="shared" ref="L3:L66" si="2">MID(F3&amp;" ",5,2)</f>
         <v>AD</v>
       </c>
       <c r="M3">
@@ -3866,11 +3879,11 @@
         <v>44272.65625</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:Q66" si="2">COUNTIF($C$2:$C$91,$C3)</f>
+        <f t="shared" ref="P3:P66" si="3">COUNTIF($C$2:$C$91,$C3)</f>
         <v>14</v>
       </c>
       <c r="Q3">
-        <f>COUNTIF($N$2:$N$91,$N3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R3" t="str">
@@ -3878,19 +3891,22 @@
         <v>Delay</v>
       </c>
       <c r="S3" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N3,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J3,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N3,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J3,Charges!$A$3:$S$3,0))</f>
         <v>147</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="3">MONTH(O3)</f>
+        <f t="shared" ref="T3:T66" si="4">MONTH(O3)</f>
         <v>3</v>
       </c>
       <c r="U3" t="str">
         <f>VLOOKUP(N3,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3922,30 +3938,30 @@
         <v>123</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N67" si="4">IF(AND(C4=C3,D4=D3),N3,C4&amp;D4&amp;M4)</f>
+        <f t="shared" ref="N4:N67" si="5">IF(AND(C4=C3,D4=D3),N3,C4&amp;D4&amp;M4)</f>
         <v>REFTEST0145373</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O67" si="5">H4+I4</f>
+        <f t="shared" ref="O4:O67" si="6">H4+I4</f>
         <v>44271</v>
       </c>
       <c r="P4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q4">
-        <f>COUNTIF($N$2:$N$91,$N4)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R4" t="str">
@@ -3953,19 +3969,22 @@
         <v>Delay</v>
       </c>
       <c r="S4" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N4,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J4,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N4,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J4,Charges!$A$3:$S$3,0))</f>
         <v>90.74</v>
       </c>
       <c r="T4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U4" t="str">
         <f>VLOOKUP(N4,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -3997,30 +4016,30 @@
         <v>125</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BINA</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AD</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFTEST0145373</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44271.53125</v>
       </c>
       <c r="P5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q5">
-        <f>COUNTIF($N$2:$N$91,$N5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R5" t="str">
@@ -4028,19 +4047,22 @@
         <v>Delay</v>
       </c>
       <c r="S5" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N5,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J5,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N5,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J5,Charges!$A$3:$S$3,0))</f>
         <v>44.462600000000002</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U5" t="str">
         <f>VLOOKUP(N5,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4072,30 +4094,30 @@
         <v>124</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BSJU</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AR</v>
       </c>
       <c r="M6">
         <v>5</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFTEST0145373</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44273.59375</v>
       </c>
       <c r="P6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q6">
-        <f>COUNTIF($N$2:$N$91,$N6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R6" t="str">
@@ -4103,19 +4125,22 @@
         <v>Delay</v>
       </c>
       <c r="S6" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N6,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J6,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N6,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J6,Charges!$A$3:$S$3,0))</f>
         <v>88.035948000000005</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U6" t="str">
         <f>VLOOKUP(N6,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4147,30 +4172,30 @@
         <v>123</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF21110000006</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44502.356944444444</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q7">
-        <f>COUNTIF($N$2:$N$91,$N7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R7" t="str">
@@ -4178,19 +4203,22 @@
         <v>Delay</v>
       </c>
       <c r="S7" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N7,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J7,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N7,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J7,Charges!$A$3:$S$3,0))</f>
         <v>10000</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U7" t="str">
         <f>VLOOKUP(N7,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4222,30 +4250,30 @@
         <v>125</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AGRI</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FR</v>
       </c>
       <c r="M8">
         <v>7</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF21110000006</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44503.527777777781</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q8">
-        <f>COUNTIF($N$2:$N$91,$N8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R8" t="str">
@@ -4253,19 +4281,22 @@
         <v>Delay</v>
       </c>
       <c r="S8" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N8,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J8,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N8,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J8,Charges!$A$3:$S$3,0))</f>
         <v>14850</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U8" t="str">
         <f>VLOOKUP(N8,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4297,30 +4328,30 @@
         <v>124</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF21110000006</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44503.731944444444</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q9">
-        <f>COUNTIF($N$2:$N$91,$N9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R9" t="str">
@@ -4328,19 +4359,22 @@
         <v>Delay</v>
       </c>
       <c r="S9" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N9,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J9,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N9,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J9,Charges!$A$3:$S$3,0))</f>
         <v>14627.25</v>
       </c>
       <c r="T9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U9" t="str">
         <f>VLOOKUP(N9,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4372,30 +4406,30 @@
         <v>123</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M10">
         <v>9</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF211110009</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44271.386111111111</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q10">
-        <f>COUNTIF($N$2:$N$91,$N10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R10" t="str">
@@ -4403,19 +4437,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S10" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N10,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J10,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N10,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J10,Charges!$A$3:$S$3,0))</f>
         <v>220</v>
       </c>
       <c r="T10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U10" t="str">
         <f>VLOOKUP(N10,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4447,30 +4484,30 @@
         <v>124</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AGRI</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FR</v>
       </c>
       <c r="M11">
         <v>10</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF211110009</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44271.522222222222</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q11">
-        <f>COUNTIF($N$2:$N$91,$N11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R11" t="str">
@@ -4478,19 +4515,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S11" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N11,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J11,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N11,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J11,Charges!$A$3:$S$3,0))</f>
         <v>107.8</v>
       </c>
       <c r="T11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U11" t="str">
         <f>VLOOKUP(N11,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4522,30 +4562,30 @@
         <v>123</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M12">
         <v>11</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF212390011</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44271.424305555556</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q12">
-        <f>COUNTIF($N$2:$N$91,$N12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R12" t="str">
@@ -4553,19 +4593,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S12" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N12,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J12,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N12,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J12,Charges!$A$3:$S$3,0))</f>
         <v>478</v>
       </c>
       <c r="T12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U12" t="str">
         <f>VLOOKUP(N12,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4597,30 +4640,30 @@
         <v>126</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AGRI</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FR</v>
       </c>
       <c r="M13">
         <v>12</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF212390011</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44271.731944444444</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q13">
-        <f>COUNTIF($N$2:$N$91,$N13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R13" t="str">
@@ -4628,19 +4671,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S13" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N13,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J13,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N13,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J13,Charges!$A$3:$S$3,0))</f>
         <v>702.66</v>
       </c>
       <c r="T13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U13" t="str">
         <f>VLOOKUP(N13,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4672,30 +4718,30 @@
         <v>123</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M14">
         <v>13</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF111564313</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44275.551388888889</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q14">
-        <f>COUNTIF($N$2:$N$91,$N14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R14" t="str">
@@ -4703,19 +4749,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S14" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N14,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J14,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N14,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J14,Charges!$A$3:$S$3,0))</f>
         <v>112.86</v>
       </c>
       <c r="T14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U14" t="str">
         <f>VLOOKUP(N14,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -4747,30 +4796,30 @@
         <v>124</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BINA</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AD</v>
       </c>
       <c r="M15">
         <v>14</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF111564313</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44276.523611111108</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Q15">
-        <f>COUNTIF($N$2:$N$91,$N15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R15" t="str">
@@ -4778,19 +4827,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S15" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N15,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J15,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N15,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J15,Charges!$A$3:$S$3,0))</f>
         <v>55.301400000000001</v>
       </c>
       <c r="T15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U15" t="str">
         <f>VLOOKUP(N15,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4822,30 +4874,30 @@
         <v>123</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD202102456915</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44248.432638888888</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q16">
-        <f>COUNTIF($N$2:$N$91,$N16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R16" t="str">
@@ -4853,19 +4905,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S16" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N16,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J16,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N16,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J16,Charges!$A$3:$S$3,0))</f>
         <v>91.38</v>
       </c>
       <c r="T16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U16" t="str">
         <f>VLOOKUP(N16,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4897,30 +4952,30 @@
         <v>127</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AGRI</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FR</v>
       </c>
       <c r="M17">
         <v>16</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD202102456915</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44248.488194444442</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q17">
-        <f>COUNTIF($N$2:$N$91,$N17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R17" t="str">
@@ -4928,19 +4983,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S17" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N17,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J17,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N17,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J17,Charges!$A$3:$S$3,0))</f>
         <v>814.19580000000008</v>
       </c>
       <c r="T17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U17" t="str">
         <f>VLOOKUP(N17,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -4972,30 +5030,30 @@
         <v>127</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M18">
         <v>17</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD202102456915</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44248.709722222222</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q18">
-        <f>COUNTIF($N$2:$N$91,$N18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R18" t="str">
@@ -5003,19 +5061,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S18" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N18,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J18,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N18,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J18,Charges!$A$3:$S$3,0))</f>
         <v>814.19580000000008</v>
       </c>
       <c r="T18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U18" t="str">
         <f>VLOOKUP(N18,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -5047,30 +5108,30 @@
         <v>123</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M19">
         <v>18</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD20210345618</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44253.529861111114</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q19">
-        <f>COUNTIF($N$2:$N$91,$N19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R19" t="str">
@@ -5078,19 +5139,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S19" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N19,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J19,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N19,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J19,Charges!$A$3:$S$3,0))</f>
         <v>4.5600000000000005</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U19" t="str">
         <f>VLOOKUP(N19,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -5122,30 +5186,30 @@
         <v>125</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M20">
         <v>19</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD20210345618</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44253.65347222222</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q20">
-        <f>COUNTIF($N$2:$N$91,$N20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R20" t="str">
@@ -5153,19 +5217,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S20" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N20,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J20,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N20,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J20,Charges!$A$3:$S$3,0))</f>
         <v>9.0288000000000004</v>
       </c>
       <c r="T20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U20" t="str">
         <f>VLOOKUP(N20,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -5197,30 +5264,30 @@
         <v>126</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M21">
         <v>20</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD20210345618</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44253.756944444445</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q21">
-        <f>COUNTIF($N$2:$N$91,$N21)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R21" t="str">
@@ -5228,19 +5295,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S21" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N21,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J21,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N21,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J21,Charges!$A$3:$S$3,0))</f>
         <v>4.424112</v>
       </c>
       <c r="T21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U21" t="str">
         <f>VLOOKUP(N21,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -5272,30 +5342,30 @@
         <v>123</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M22">
         <v>21</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF001332621</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44571.529861111114</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q22">
-        <f>COUNTIF($N$2:$N$91,$N22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R22" t="str">
@@ -5303,19 +5373,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S22" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N22,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J22,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N22,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J22,Charges!$A$3:$S$3,0))</f>
         <v>33.26</v>
       </c>
       <c r="T22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U22" t="str">
         <f>VLOOKUP(N22,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -5347,30 +5420,30 @@
         <v>125</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M23">
         <v>22</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF001332621</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44572.605555555558</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q23">
-        <f>COUNTIF($N$2:$N$91,$N23)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R23" t="str">
@@ -5378,19 +5451,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S23" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N23,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J23,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N23,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J23,Charges!$A$3:$S$3,0))</f>
         <v>198.56219999999999</v>
       </c>
       <c r="T23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U23" t="str">
         <f>VLOOKUP(N23,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -5422,30 +5498,30 @@
         <v>125</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BINA</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AD</v>
       </c>
       <c r="M24">
         <v>23</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF001332621</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44572.76458333333</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q24">
-        <f>COUNTIF($N$2:$N$91,$N24)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R24" t="str">
@@ -5453,19 +5529,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S24" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N24,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J24,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N24,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J24,Charges!$A$3:$S$3,0))</f>
         <v>198.56219999999999</v>
       </c>
       <c r="T24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U24" t="str">
         <f>VLOOKUP(N24,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5497,30 +5576,30 @@
         <v>123</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M25">
         <v>24</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF001DEMO110024</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44234.654861111114</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q25">
-        <f>COUNTIF($N$2:$N$91,$N25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R25" t="str">
@@ -5528,19 +5607,22 @@
         <v>Delay</v>
       </c>
       <c r="S25" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N25,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J25,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N25,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J25,Charges!$A$3:$S$3,0))</f>
         <v>22</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U25" t="str">
         <f>VLOOKUP(N25,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -5572,30 +5654,30 @@
         <v>124</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M26">
         <v>25</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF001DEMO110024</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44235.722916666666</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q26">
-        <f>COUNTIF($N$2:$N$91,$N26)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R26" t="str">
@@ -5603,19 +5685,22 @@
         <v>Delay</v>
       </c>
       <c r="S26" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N26,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J26,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N26,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J26,Charges!$A$3:$S$3,0))</f>
         <v>10.78</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="U26" t="str">
         <f>VLOOKUP(N26,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -5647,30 +5732,30 @@
         <v>123</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M27">
         <v>26</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543105110026</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44257.508333333331</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q27">
-        <f>COUNTIF($N$2:$N$91,$N27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R27" t="str">
@@ -5678,19 +5763,22 @@
         <v>Delay</v>
       </c>
       <c r="S27" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N27,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J27,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N27,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J27,Charges!$A$3:$S$3,0))</f>
         <v>88</v>
       </c>
       <c r="T27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U27" t="str">
         <f>VLOOKUP(N27,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -5722,30 +5810,30 @@
         <v>125</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M28">
         <v>27</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543105110026</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44257.571527777778</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q28">
-        <f>COUNTIF($N$2:$N$91,$N28)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R28" t="str">
@@ -5753,19 +5841,22 @@
         <v>Delay</v>
       </c>
       <c r="S28" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N28,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J28,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N28,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J28,Charges!$A$3:$S$3,0))</f>
         <v>10.120000000000001</v>
       </c>
       <c r="T28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U28" t="str">
         <f>VLOOKUP(N28,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -5797,30 +5888,30 @@
         <v>124</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M29">
         <v>28</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543105110026</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44258.756944444445</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q29">
-        <f>COUNTIF($N$2:$N$91,$N29)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="R29" t="str">
@@ -5828,19 +5919,22 @@
         <v>Delay</v>
       </c>
       <c r="S29" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N29,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J29,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N29,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J29,Charges!$A$3:$S$3,0))</f>
         <v>20.037600000000001</v>
       </c>
       <c r="T29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U29" t="str">
         <f>VLOOKUP(N29,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -5872,30 +5966,30 @@
         <v>123</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M30">
         <v>29</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO0190029</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44522.466666666667</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q30">
-        <f>COUNTIF($N$2:$N$91,$N30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R30" t="str">
@@ -5903,19 +5997,22 @@
         <v>Delay</v>
       </c>
       <c r="S30" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N30,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J30,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N30,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J30,Charges!$A$3:$S$3,0))</f>
         <v>9</v>
       </c>
       <c r="T30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U30" t="str">
         <f>VLOOKUP(N30,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -5947,30 +6044,30 @@
         <v>124</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M31">
         <v>30</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO0190029</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44524.613888888889</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q31">
-        <f>COUNTIF($N$2:$N$91,$N31)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R31" t="str">
@@ -5978,19 +6075,22 @@
         <v>Delay</v>
       </c>
       <c r="S31" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N31,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J31,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N31,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J31,Charges!$A$3:$S$3,0))</f>
         <v>8.91</v>
       </c>
       <c r="T31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U31" t="str">
         <f>VLOOKUP(N31,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -6022,30 +6122,30 @@
         <v>123</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M32">
         <v>31</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO01102531</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44520.432638888888</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q32">
-        <f>COUNTIF($N$2:$N$91,$N32)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R32" t="str">
@@ -6053,19 +6153,22 @@
         <v>Delay</v>
       </c>
       <c r="S32" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N32,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J32,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N32,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J32,Charges!$A$3:$S$3,0))</f>
         <v>20.5</v>
       </c>
       <c r="T32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U32" t="str">
         <f>VLOOKUP(N32,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6097,30 +6200,30 @@
         <v>124</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M33">
         <v>32</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO01102531</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44521.480555555558</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q33">
-        <f>COUNTIF($N$2:$N$91,$N33)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R33" t="str">
@@ -6128,19 +6231,22 @@
         <v>Delay</v>
       </c>
       <c r="S33" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N33,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J33,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N33,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J33,Charges!$A$3:$S$3,0))</f>
         <v>10.045</v>
       </c>
       <c r="T33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U33" t="str">
         <f>VLOOKUP(N33,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -6172,30 +6278,30 @@
         <v>123</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M34">
         <v>33</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM01223833</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44211.756944444445</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q34">
-        <f>COUNTIF($N$2:$N$91,$N34)</f>
+        <f t="shared" ref="Q34:Q65" si="7">COUNTIF($N$2:$N$91,$N34)</f>
         <v>2</v>
       </c>
       <c r="R34" t="str">
@@ -6203,19 +6309,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S34" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N34,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J34,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N34,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J34,Charges!$A$3:$S$3,0))</f>
         <v>19.04</v>
       </c>
       <c r="T34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U34" t="str">
         <f>VLOOKUP(N34,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -6247,30 +6356,30 @@
         <v>128</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M35">
         <v>34</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM01223833</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44211.529861111114</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q35">
-        <f>COUNTIF($N$2:$N$91,$N35)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R35" t="str">
@@ -6278,19 +6387,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S35" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N35,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J35,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N35,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J35,Charges!$A$3:$S$3,0))</f>
         <v>17.5168</v>
       </c>
       <c r="T35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U35" t="str">
         <f>VLOOKUP(N35,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -6322,30 +6434,30 @@
         <v>123</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM9992670935</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44209.605555555558</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q36">
-        <f>COUNTIF($N$2:$N$91,$N36)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R36" t="str">
@@ -6353,19 +6465,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S36" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N36,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J36,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N36,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J36,Charges!$A$3:$S$3,0))</f>
         <v>67.09</v>
       </c>
       <c r="T36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U36" t="str">
         <f>VLOOKUP(N36,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -6397,30 +6512,30 @@
         <v>124</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FINV</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AL</v>
       </c>
       <c r="M37">
         <v>36</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM9992670935</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44209.605555555558</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q37">
-        <f>COUNTIF($N$2:$N$91,$N37)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R37" t="str">
@@ -6428,19 +6543,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S37" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N37,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J37,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N37,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J37,Charges!$A$3:$S$3,0))</f>
         <v>199.25729999999999</v>
       </c>
       <c r="T37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U37" t="str">
         <f>VLOOKUP(N37,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -6472,30 +6590,30 @@
         <v>123</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M38">
         <v>37</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM0091518837</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44210.654861111114</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q38">
-        <f>COUNTIF($N$2:$N$91,$N38)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R38" t="str">
@@ -6503,19 +6621,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S38" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N38,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J38,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N38,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J38,Charges!$A$3:$S$3,0))</f>
         <v>51.88</v>
       </c>
       <c r="T38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U38" t="str">
         <f>VLOOKUP(N38,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -6547,30 +6668,30 @@
         <v>124</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M39">
         <v>38</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM0091518837</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44210.654861111114</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q39">
-        <f>COUNTIF($N$2:$N$91,$N39)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R39" t="str">
@@ -6578,19 +6699,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S39" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N39,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J39,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N39,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J39,Charges!$A$3:$S$3,0))</f>
         <v>51.361199999999997</v>
       </c>
       <c r="T39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U39" t="str">
         <f>VLOOKUP(N39,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -6622,30 +6746,30 @@
         <v>123</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M40">
         <v>39</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM559112039</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44201.508333333331</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q40">
-        <f>COUNTIF($N$2:$N$91,$N40)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R40" t="str">
@@ -6653,19 +6777,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S40" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N40,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J40,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N40,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J40,Charges!$A$3:$S$3,0))</f>
         <v>1.2</v>
       </c>
       <c r="T40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U40" t="str">
         <f>VLOOKUP(N40,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -6697,30 +6824,30 @@
         <v>125</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FINV</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AL</v>
       </c>
       <c r="M41">
         <v>40</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM559112039</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44201.513194444444</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q41">
-        <f>COUNTIF($N$2:$N$91,$N41)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R41" t="str">
@@ -6728,19 +6855,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S41" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N41,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J41,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N41,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J41,Charges!$A$3:$S$3,0))</f>
         <v>1.1879999999999999</v>
       </c>
       <c r="T41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U41" t="str">
         <f>VLOOKUP(N41,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -6772,30 +6902,30 @@
         <v>126</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M42">
         <v>41</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM559112039</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44201.722222222219</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q42">
-        <f>COUNTIF($N$2:$N$91,$N42)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="R42" t="str">
@@ -6803,19 +6933,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S42" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N42,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J42,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N42,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J42,Charges!$A$3:$S$3,0))</f>
         <v>1.1761200000000001</v>
       </c>
       <c r="T42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U42" t="str">
         <f>VLOOKUP(N42,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -6847,30 +6980,30 @@
         <v>123</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M43">
         <v>42</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM5591672042</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44224.557638888888</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q43">
-        <f>COUNTIF($N$2:$N$91,$N43)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R43" t="str">
@@ -6878,19 +7011,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S43" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N43,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J43,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N43,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J43,Charges!$A$3:$S$3,0))</f>
         <v>134.4</v>
       </c>
       <c r="T43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U43" t="str">
         <f>VLOOKUP(N43,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -6922,30 +7058,30 @@
         <v>124</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M44">
         <v>43</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM5591672042</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44224.798611111109</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q44">
-        <f>COUNTIF($N$2:$N$91,$N44)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R44" t="str">
@@ -6953,19 +7089,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S44" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N44,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J44,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N44,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J44,Charges!$A$3:$S$3,0))</f>
         <v>131.71200000000002</v>
       </c>
       <c r="T44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U44" t="str">
         <f>VLOOKUP(N44,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -6997,30 +7136,30 @@
         <v>123</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M45">
         <v>44</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD100926756944</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44209.474305555559</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q45">
-        <f>COUNTIF($N$2:$N$91,$N45)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R45" t="str">
@@ -7028,19 +7167,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S45" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N45,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J45,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N45,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J45,Charges!$A$3:$S$3,0))</f>
         <v>675.69</v>
       </c>
       <c r="T45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U45" t="str">
         <f>VLOOKUP(N45,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -7072,30 +7214,30 @@
         <v>124</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M46">
         <v>45</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD100926756944</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44209.53125</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q46">
-        <f>COUNTIF($N$2:$N$91,$N46)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R46" t="str">
@@ -7103,19 +7245,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S46" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N46,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J46,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N46,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J46,Charges!$A$3:$S$3,0))</f>
         <v>668.93309999999997</v>
       </c>
       <c r="T46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U46" t="str">
         <f>VLOOKUP(N46,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -7147,30 +7292,30 @@
         <v>123</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M47">
         <v>46</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF201210046</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44277.591666666667</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q47">
-        <f>COUNTIF($N$2:$N$91,$N47)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R47" t="str">
@@ -7178,19 +7323,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S47" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N47,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J47,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N47,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J47,Charges!$A$3:$S$3,0))</f>
         <v>42</v>
       </c>
       <c r="T47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U47" t="str">
         <f>VLOOKUP(N47,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -7222,30 +7370,30 @@
         <v>124</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M48">
         <v>47</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REF201210046</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44277.715277777781</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q48">
-        <f>COUNTIF($N$2:$N$91,$N48)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R48" t="str">
@@ -7253,19 +7401,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S48" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N48,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J48,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N48,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J48,Charges!$A$3:$S$3,0))</f>
         <v>41.160000000000004</v>
       </c>
       <c r="T48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U48" t="str">
         <f>VLOOKUP(N48,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -7297,30 +7448,30 @@
         <v>123</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M49">
         <v>48</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO0180048</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44155.383333333331</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q49">
-        <f>COUNTIF($N$2:$N$91,$N49)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R49" t="str">
@@ -7328,19 +7479,22 @@
         <v>Delay</v>
       </c>
       <c r="S49" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N49,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J49,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N49,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J49,Charges!$A$3:$S$3,0))</f>
         <v>8</v>
       </c>
       <c r="T49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U49" t="str">
         <f>VLOOKUP(N49,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7372,30 +7526,30 @@
         <v>124</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M50">
         <v>49</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO0180048</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44157.715277777781</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q50">
-        <f>COUNTIF($N$2:$N$91,$N50)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R50" t="str">
@@ -7403,19 +7557,22 @@
         <v>Delay</v>
       </c>
       <c r="S50" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N50,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J50,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N50,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J50,Charges!$A$3:$S$3,0))</f>
         <v>7.92</v>
       </c>
       <c r="T50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U50" t="str">
         <f>VLOOKUP(N50,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -7447,30 +7604,30 @@
         <v>123</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M51">
         <v>50</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO02102550</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44155.47152777778</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q51">
-        <f>COUNTIF($N$2:$N$91,$N51)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R51" t="str">
@@ -7478,19 +7635,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S51" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N51,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J51,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N51,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J51,Charges!$A$3:$S$3,0))</f>
         <v>82</v>
       </c>
       <c r="T51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U51" t="str">
         <f>VLOOKUP(N51,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -7522,30 +7682,30 @@
         <v>124</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M52">
         <v>51</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO02102550</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44155.881944444445</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q52">
-        <f>COUNTIF($N$2:$N$91,$N52)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R52" t="str">
@@ -7553,19 +7713,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S52" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N52,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J52,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N52,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J52,Charges!$A$3:$S$3,0))</f>
         <v>75.44</v>
       </c>
       <c r="T52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U52" t="str">
         <f>VLOOKUP(N52,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -7597,30 +7760,30 @@
         <v>123</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M53">
         <v>52</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO018760052</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44156.474305555559</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q53">
-        <f>COUNTIF($N$2:$N$91,$N53)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R53" t="str">
@@ -7628,19 +7791,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S53" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N53,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J53,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N53,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J53,Charges!$A$3:$S$3,0))</f>
         <v>876</v>
       </c>
       <c r="T53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U53" t="str">
         <f>VLOOKUP(N53,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V53" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -7672,30 +7838,30 @@
         <v>124</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FNRO</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CN</v>
       </c>
       <c r="M54">
         <v>53</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO018760052</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44156.591666666667</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q54">
-        <f>COUNTIF($N$2:$N$91,$N54)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R54" t="str">
@@ -7703,19 +7869,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S54" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N54,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J54,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N54,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J54,Charges!$A$3:$S$3,0))</f>
         <v>867.24</v>
       </c>
       <c r="T54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U54" t="str">
         <f>VLOOKUP(N54,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -7747,30 +7916,30 @@
         <v>123</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M55">
         <v>54</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO901160054</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44162.40625</v>
       </c>
       <c r="P55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q55">
-        <f>COUNTIF($N$2:$N$91,$N55)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R55" t="str">
@@ -7778,19 +7947,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S55" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N55,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J55,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N55,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J55,Charges!$A$3:$S$3,0))</f>
         <v>64</v>
       </c>
       <c r="T55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U55" t="str">
         <f>VLOOKUP(N55,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7822,30 +7994,30 @@
         <v>124</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M56">
         <v>55</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEMO901160054</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44162.763888888891</v>
       </c>
       <c r="P56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q56">
-        <f>COUNTIF($N$2:$N$91,$N56)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R56" t="str">
@@ -7853,19 +8025,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S56" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N56,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J56,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N56,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J56,Charges!$A$3:$S$3,0))</f>
         <v>15.36</v>
       </c>
       <c r="T56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="U56" t="str">
         <f>VLOOKUP(N56,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V56" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -7897,30 +8072,30 @@
         <v>123</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M57">
         <v>56</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543104310056</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44256.474305555559</v>
       </c>
       <c r="P57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q57">
-        <f>COUNTIF($N$2:$N$91,$N57)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R57" t="str">
@@ -7928,19 +8103,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S57" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N57,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J57,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N57,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J57,Charges!$A$3:$S$3,0))</f>
         <v>31</v>
       </c>
       <c r="T57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U57" t="str">
         <f>VLOOKUP(N57,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -7972,30 +8150,30 @@
         <v>126</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M58">
         <v>57</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543104310056</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44256.756944444445</v>
       </c>
       <c r="P58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q58">
-        <f>COUNTIF($N$2:$N$91,$N58)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R58" t="str">
@@ -8003,19 +8181,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S58" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N58,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J58,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N58,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J58,Charges!$A$3:$S$3,0))</f>
         <v>245.52</v>
       </c>
       <c r="T58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U58" t="str">
         <f>VLOOKUP(N58,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -8047,30 +8228,30 @@
         <v>123</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M59">
         <v>58</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD54310345658</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44256.599305555559</v>
       </c>
       <c r="P59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q59">
-        <f>COUNTIF($N$2:$N$91,$N59)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R59" t="str">
@@ -8078,19 +8259,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S59" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N59,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J59,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N59,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J59,Charges!$A$3:$S$3,0))</f>
         <v>9.120000000000001</v>
       </c>
       <c r="T59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U59" t="str">
         <f>VLOOKUP(N59,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -8122,30 +8306,30 @@
         <v>124</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M60">
         <v>59</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD54310345658</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44256.800000000003</v>
       </c>
       <c r="P60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q60">
-        <f>COUNTIF($N$2:$N$91,$N60)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R60" t="str">
@@ -8153,19 +8337,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S60" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N60,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J60,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N60,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J60,Charges!$A$3:$S$3,0))</f>
         <v>4.4687999999999999</v>
       </c>
       <c r="T60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U60" t="str">
         <f>VLOOKUP(N60,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -8197,30 +8384,30 @@
         <v>123</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M61">
         <v>60</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM159134860</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44211.356944444444</v>
       </c>
       <c r="P61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q61">
-        <f>COUNTIF($N$2:$N$91,$N61)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R61" t="str">
@@ -8228,19 +8415,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S61" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N61,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J61,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N61,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J61,Charges!$A$3:$S$3,0))</f>
         <v>24.360000000000003</v>
       </c>
       <c r="T61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U61" t="str">
         <f>VLOOKUP(N61,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V61" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -8272,30 +8462,30 @@
         <v>124</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TSIB</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AU</v>
       </c>
       <c r="M62">
         <v>61</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFDEM159134860</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44211.527083333334</v>
       </c>
       <c r="P62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q62">
-        <f>COUNTIF($N$2:$N$91,$N62)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R62" t="str">
@@ -8303,19 +8493,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S62" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N62,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J62,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N62,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J62,Charges!$A$3:$S$3,0))</f>
         <v>3.2363999999999997</v>
       </c>
       <c r="T62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U62" t="str">
         <f>VLOOKUP(N62,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -8347,30 +8540,30 @@
         <v>123</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M63">
         <v>62</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD101926756962</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44217.412499999999</v>
       </c>
       <c r="P63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q63">
-        <f>COUNTIF($N$2:$N$91,$N63)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R63" t="str">
@@ -8378,19 +8571,22 @@
         <v>Delay</v>
       </c>
       <c r="S63" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N63,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J63,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N63,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J63,Charges!$A$3:$S$3,0))</f>
         <v>675.69</v>
       </c>
       <c r="T63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U63" t="str">
         <f>VLOOKUP(N63,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -8422,30 +8618,30 @@
         <v>124</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>BINA</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AD</v>
       </c>
       <c r="M64">
         <v>63</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD101926756962</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44218.730555555558</v>
       </c>
       <c r="P64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Q64">
-        <f>COUNTIF($N$2:$N$91,$N64)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R64" t="str">
@@ -8453,19 +8649,22 @@
         <v>Delay</v>
       </c>
       <c r="S64" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N64,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J64,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N64,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J64,Charges!$A$3:$S$3,0))</f>
         <v>5351.4647999999997</v>
       </c>
       <c r="T64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U64" t="str">
         <f>VLOOKUP(N64,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -8497,30 +8696,30 @@
         <v>123</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CHAS</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>US</v>
       </c>
       <c r="M65">
         <v>64</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543105110064</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44257.605555555558</v>
       </c>
       <c r="P65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q65">
-        <f>COUNTIF($N$2:$N$91,$N65)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="R65" t="str">
@@ -8528,19 +8727,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S65" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N65,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J65,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N65,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J65,Charges!$A$3:$S$3,0))</f>
         <v>11</v>
       </c>
       <c r="T65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U65" t="str">
         <f>VLOOKUP(N65,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -8572,30 +8774,30 @@
         <v>125</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>REDJ</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BY</v>
       </c>
       <c r="M66">
         <v>65</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFD543105110064</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44258.648611111108</v>
       </c>
       <c r="P66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q66">
-        <f>COUNTIF($N$2:$N$91,$N66)</f>
+        <f t="shared" ref="Q66:Q91" si="8">COUNTIF($N$2:$N$91,$N66)</f>
         <v>2</v>
       </c>
       <c r="R66" t="str">
@@ -8603,19 +8805,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S66" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N66,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J66,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N66,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J66,Charges!$A$3:$S$3,0))</f>
         <v>10.89</v>
       </c>
       <c r="T66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="U66" t="str">
         <f>VLOOKUP(N66,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -8647,30 +8852,30 @@
         <v>123</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K91" si="6">MID(F67&amp;" ",1,4)</f>
+        <f t="shared" ref="K67:K91" si="9">MID(F67&amp;" ",1,4)</f>
         <v>CHAS</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L91" si="7">MID(F67&amp;" ",5,2)</f>
+        <f t="shared" ref="L67:L91" si="10">MID(F67&amp;" ",5,2)</f>
         <v>US</v>
       </c>
       <c r="M67">
         <v>66</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>REFZ9991210066</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44278.341666666667</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:Q91" si="8">COUNTIF($C$2:$C$91,$C67)</f>
+        <f t="shared" ref="P67:P91" si="11">COUNTIF($C$2:$C$91,$C67)</f>
         <v>2</v>
       </c>
       <c r="Q67">
-        <f>COUNTIF($N$2:$N$91,$N67)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R67" t="str">
@@ -8678,19 +8883,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S67" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N67,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J67,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N67,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J67,Charges!$A$3:$S$3,0))</f>
         <v>968</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T91" si="9">MONTH(O67)</f>
+        <f t="shared" ref="T67:T91" si="12">MONTH(O67)</f>
         <v>3</v>
       </c>
       <c r="U67" t="str">
         <f>VLOOKUP(N67,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -8722,30 +8930,30 @@
         <v>124</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>REDJ</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>BY</v>
       </c>
       <c r="M68">
         <v>67</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" ref="N68:N91" si="10">IF(AND(C68=C67,D68=D67),N67,C68&amp;D68&amp;M68)</f>
+        <f t="shared" ref="N68:N91" si="13">IF(AND(C68=C67,D68=D67),N67,C68&amp;D68&amp;M68)</f>
         <v>REFZ9991210066</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" ref="O68:O91" si="11">H68+I68</f>
+        <f t="shared" ref="O68:O91" si="14">H68+I68</f>
         <v>44278.523611111108</v>
       </c>
       <c r="P68">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Q68">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="Q68">
-        <f>COUNTIF($N$2:$N$91,$N68)</f>
         <v>2</v>
       </c>
       <c r="R68" t="str">
@@ -8753,19 +8961,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S68" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N68,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J68,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N68,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J68,Charges!$A$3:$S$3,0))</f>
         <v>890.56000000000006</v>
       </c>
       <c r="T68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="U68" t="str">
         <f>VLOOKUP(N68,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -8797,30 +9008,30 @@
         <v>123</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M69">
         <v>68</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF2111000068</v>
       </c>
       <c r="O69" s="3">
+        <f t="shared" si="14"/>
+        <v>44217.40625</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="11"/>
-        <v>44217.40625</v>
-      </c>
-      <c r="P69">
+        <v>14</v>
+      </c>
+      <c r="Q69">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q69">
-        <f>COUNTIF($N$2:$N$91,$N69)</f>
         <v>2</v>
       </c>
       <c r="R69" t="str">
@@ -8828,19 +9039,22 @@
         <v>Delay</v>
       </c>
       <c r="S69" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N69,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J69,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N69,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J69,Charges!$A$3:$S$3,0))</f>
         <v>200</v>
       </c>
       <c r="T69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U69" t="str">
         <f>VLOOKUP(N69,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -8872,30 +9086,30 @@
         <v>124</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>BINA</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AD</v>
       </c>
       <c r="M70">
         <v>69</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF2111000068</v>
       </c>
       <c r="O70" s="3">
+        <f t="shared" si="14"/>
+        <v>44223.533333333333</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="11"/>
-        <v>44223.533333333333</v>
-      </c>
-      <c r="P70">
+        <v>14</v>
+      </c>
+      <c r="Q70">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q70">
-        <f>COUNTIF($N$2:$N$91,$N70)</f>
         <v>2</v>
       </c>
       <c r="R70" t="str">
@@ -8903,19 +9117,22 @@
         <v>Delay</v>
       </c>
       <c r="S70" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N70,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J70,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N70,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J70,Charges!$A$3:$S$3,0))</f>
         <v>147</v>
       </c>
       <c r="T70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U70" t="str">
         <f>VLOOKUP(N70,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -8947,30 +9164,30 @@
         <v>123</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M71">
         <v>70</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O71" s="3">
+        <f t="shared" si="14"/>
+        <v>44549.425000000003</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="11"/>
-        <v>44549.425000000003</v>
-      </c>
-      <c r="P71">
+        <v>6</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q71">
-        <f>COUNTIF($N$2:$N$91,$N71)</f>
         <v>3</v>
       </c>
       <c r="R71" t="str">
@@ -8978,19 +9195,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S71" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N71,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J71,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N71,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J71,Charges!$A$3:$S$3,0))</f>
         <v>46.9</v>
       </c>
       <c r="T71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="U71" t="str">
         <f>VLOOKUP(N71,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -9022,30 +9242,30 @@
         <v>125</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>BINA</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AD</v>
       </c>
       <c r="M72">
         <v>71</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O72" s="3">
+        <f t="shared" si="14"/>
+        <v>44550.561805555553</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="11"/>
-        <v>44550.561805555553</v>
-      </c>
-      <c r="P72">
+        <v>6</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q72">
-        <f>COUNTIF($N$2:$N$91,$N72)</f>
         <v>3</v>
       </c>
       <c r="R72" t="str">
@@ -9053,19 +9273,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S72" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N72,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J72,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N72,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J72,Charges!$A$3:$S$3,0))</f>
         <v>22.980999999999998</v>
       </c>
       <c r="T72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="U72" t="str">
         <f>VLOOKUP(N72,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -9097,30 +9320,30 @@
         <v>124</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>BSJU</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AR</v>
       </c>
       <c r="M73">
         <v>72</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFTEST01234570</v>
       </c>
       <c r="O73" s="3">
+        <f t="shared" si="14"/>
+        <v>44550</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="11"/>
-        <v>44550</v>
-      </c>
-      <c r="P73">
+        <v>6</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q73">
-        <f>COUNTIF($N$2:$N$91,$N73)</f>
         <v>3</v>
       </c>
       <c r="R73" t="str">
@@ -9128,19 +9351,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S73" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N73,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J73,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N73,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J73,Charges!$A$3:$S$3,0))</f>
         <v>45.502380000000002</v>
       </c>
       <c r="T73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="U73" t="str">
         <f>VLOOKUP(N73,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -9172,30 +9398,30 @@
         <v>123</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M74">
         <v>73</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF211789073</v>
       </c>
       <c r="O74" s="3">
+        <f t="shared" si="14"/>
+        <v>44297.523611111108</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="11"/>
-        <v>44297.523611111108</v>
-      </c>
-      <c r="P74">
+        <v>14</v>
+      </c>
+      <c r="Q74">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q74">
-        <f>COUNTIF($N$2:$N$91,$N74)</f>
         <v>3</v>
       </c>
       <c r="R74" t="str">
@@ -9203,19 +9429,22 @@
         <v>Delay</v>
       </c>
       <c r="S74" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N74,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J74,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N74,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J74,Charges!$A$3:$S$3,0))</f>
         <v>78.900000000000006</v>
       </c>
       <c r="T74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U74" t="str">
         <f>VLOOKUP(N74,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -9247,30 +9476,30 @@
         <v>125</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>AGRI</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>FR</v>
       </c>
       <c r="M75">
         <v>74</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF211789073</v>
       </c>
       <c r="O75" s="3">
+        <f t="shared" si="14"/>
+        <v>44297.716666666667</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="11"/>
-        <v>44297.716666666667</v>
-      </c>
-      <c r="P75">
+        <v>14</v>
+      </c>
+      <c r="Q75">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q75">
-        <f>COUNTIF($N$2:$N$91,$N75)</f>
         <v>3</v>
       </c>
       <c r="R75" t="str">
@@ -9278,19 +9507,22 @@
         <v>Delay</v>
       </c>
       <c r="S75" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N75,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J75,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N75,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J75,Charges!$A$3:$S$3,0))</f>
         <v>117.1665</v>
       </c>
       <c r="T75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U75" t="str">
         <f>VLOOKUP(N75,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -9322,30 +9554,30 @@
         <v>124</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>REDJ</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>BY</v>
       </c>
       <c r="M76">
         <v>75</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF211789073</v>
       </c>
       <c r="O76" s="3">
+        <f t="shared" si="14"/>
+        <v>44299.756944444445</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="11"/>
-        <v>44299.756944444445</v>
-      </c>
-      <c r="P76">
+        <v>14</v>
+      </c>
+      <c r="Q76">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q76">
-        <f>COUNTIF($N$2:$N$91,$N76)</f>
         <v>3</v>
       </c>
       <c r="R76" t="str">
@@ -9353,19 +9585,22 @@
         <v>Delay</v>
       </c>
       <c r="S76" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N76,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J76,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N76,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J76,Charges!$A$3:$S$3,0))</f>
         <v>115.4090025</v>
       </c>
       <c r="T76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U76" t="str">
         <f>VLOOKUP(N76,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -9397,30 +9632,30 @@
         <v>123</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M77">
         <v>76</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF2111200076</v>
       </c>
       <c r="O77" s="3">
+        <f t="shared" si="14"/>
+        <v>44240.386111111111</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="11"/>
-        <v>44240.386111111111</v>
-      </c>
-      <c r="P77">
+        <v>14</v>
+      </c>
+      <c r="Q77">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q77">
-        <f>COUNTIF($N$2:$N$91,$N77)</f>
         <v>2</v>
       </c>
       <c r="R77" t="str">
@@ -9428,19 +9663,22 @@
         <v>Delay</v>
       </c>
       <c r="S77" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N77,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J77,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N77,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J77,Charges!$A$3:$S$3,0))</f>
         <v>240</v>
       </c>
       <c r="T77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U77" t="str">
         <f>VLOOKUP(N77,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -9472,30 +9710,30 @@
         <v>124</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>AGRI</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>FR</v>
       </c>
       <c r="M78">
         <v>77</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF2111200076</v>
       </c>
       <c r="O78" s="3">
+        <f t="shared" si="14"/>
+        <v>44241.522222222222</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="11"/>
-        <v>44241.522222222222</v>
-      </c>
-      <c r="P78">
+        <v>14</v>
+      </c>
+      <c r="Q78">
         <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="Q78">
-        <f>COUNTIF($N$2:$N$91,$N78)</f>
         <v>2</v>
       </c>
       <c r="R78" t="str">
@@ -9503,19 +9741,22 @@
         <v>Delay</v>
       </c>
       <c r="S78" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N78,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J78,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N78,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J78,Charges!$A$3:$S$3,0))</f>
         <v>117.60000000000001</v>
       </c>
       <c r="T78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="U78" t="str">
         <f>VLOOKUP(N78,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -9547,30 +9788,30 @@
         <v>123</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M79">
         <v>78</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF211200078</v>
       </c>
       <c r="O79" s="3">
+        <f t="shared" si="14"/>
+        <v>44388.424305555556</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="11"/>
-        <v>44388.424305555556</v>
-      </c>
-      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q79">
-        <f>COUNTIF($N$2:$N$91,$N79)</f>
         <v>2</v>
       </c>
       <c r="R79" t="str">
@@ -9578,19 +9819,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S79" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N79,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J79,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N79,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J79,Charges!$A$3:$S$3,0))</f>
         <v>240</v>
       </c>
       <c r="T79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U79" t="str">
         <f>VLOOKUP(N79,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -9622,30 +9866,30 @@
         <v>126</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>AGRI</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>FR</v>
       </c>
       <c r="M80">
         <v>79</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF211200078</v>
       </c>
       <c r="O80" s="3">
+        <f t="shared" si="14"/>
+        <v>44388.731944444444</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="11"/>
-        <v>44388.731944444444</v>
-      </c>
-      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <f>COUNTIF($N$2:$N$91,$N80)</f>
         <v>2</v>
       </c>
       <c r="R80" t="str">
@@ -9653,19 +9897,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S80" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N80,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J80,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N80,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J80,Charges!$A$3:$S$3,0))</f>
         <v>352.8</v>
       </c>
       <c r="T80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U80" t="str">
         <f>VLOOKUP(N80,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -9697,30 +9944,30 @@
         <v>123</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M81">
         <v>80</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF1113000080</v>
       </c>
       <c r="O81" s="3">
+        <f t="shared" si="14"/>
+        <v>44305.551388888889</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="11"/>
-        <v>44305.551388888889</v>
-      </c>
-      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q81">
-        <f>COUNTIF($N$2:$N$91,$N81)</f>
         <v>1</v>
       </c>
       <c r="R81" t="str">
@@ -9728,19 +9975,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S81" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N81,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J81,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N81,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J81,Charges!$A$3:$S$3,0))</f>
         <v>600</v>
       </c>
       <c r="T81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U81" t="str">
         <f>VLOOKUP(N81,'Last Status'!A:C,3,FALSE)</f>
         <v>NEW</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -9772,30 +10022,30 @@
         <v>124</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>BINA</v>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AD</v>
       </c>
       <c r="M82">
         <v>81</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF111300081</v>
       </c>
       <c r="O82" s="3">
+        <f t="shared" si="14"/>
+        <v>44306.523611111108</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="11"/>
-        <v>44306.523611111108</v>
-      </c>
-      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Q82">
-        <f>COUNTIF($N$2:$N$91,$N82)</f>
         <v>1</v>
       </c>
       <c r="R82" t="str">
@@ -9803,19 +10053,22 @@
         <v>Less than 24h</v>
       </c>
       <c r="S82" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N82,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J82,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N82,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J82,Charges!$A$3:$S$3,0))</f>
         <v>30</v>
       </c>
       <c r="T82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="U82" t="str">
         <f>VLOOKUP(N82,'Last Status'!A:C,3,FALSE)</f>
         <v>COMPLETED</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -9847,30 +10100,30 @@
         <v>123</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M83">
         <v>82</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O83" s="3">
+        <f t="shared" si="14"/>
+        <v>44454.432638888888</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="11"/>
-        <v>44454.432638888888</v>
-      </c>
-      <c r="P83">
+        <v>6</v>
+      </c>
+      <c r="Q83">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q83">
-        <f>COUNTIF($N$2:$N$91,$N83)</f>
         <v>3</v>
       </c>
       <c r="R83" t="str">
@@ -9878,19 +10131,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S83" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N83,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J83,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N83,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J83,Charges!$A$3:$S$3,0))</f>
         <v>248</v>
       </c>
       <c r="T83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="U83" t="str">
         <f>VLOOKUP(N83,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -9922,30 +10178,30 @@
         <v>127</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>AGRI</v>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>FR</v>
       </c>
       <c r="M84">
         <v>83</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O84" s="3">
+        <f t="shared" si="14"/>
+        <v>44455.488194444442</v>
+      </c>
+      <c r="P84">
         <f t="shared" si="11"/>
-        <v>44455.488194444442</v>
-      </c>
-      <c r="P84">
+        <v>6</v>
+      </c>
+      <c r="Q84">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q84">
-        <f>COUNTIF($N$2:$N$91,$N84)</f>
         <v>3</v>
       </c>
       <c r="R84" t="str">
@@ -9953,19 +10209,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S84" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N84,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J84,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N84,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J84,Charges!$A$3:$S$3,0))</f>
         <v>2209.6799999999998</v>
       </c>
       <c r="T84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="U84" t="str">
         <f>VLOOKUP(N84,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -9997,30 +10256,30 @@
         <v>127</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>REDJ</v>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>BY</v>
       </c>
       <c r="M85">
         <v>84</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021021240082</v>
       </c>
       <c r="O85" s="3">
+        <f t="shared" si="14"/>
+        <v>44455.709722222222</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="11"/>
-        <v>44455.709722222222</v>
-      </c>
-      <c r="P85">
+        <v>6</v>
+      </c>
+      <c r="Q85">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q85">
-        <f>COUNTIF($N$2:$N$91,$N85)</f>
         <v>3</v>
       </c>
       <c r="R85" t="str">
@@ -10028,19 +10287,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S85" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N85,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J85,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N85,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J85,Charges!$A$3:$S$3,0))</f>
         <v>2209.6799999999998</v>
       </c>
       <c r="T85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="U85" t="str">
         <f>VLOOKUP(N85,'Last Status'!A:C,3,FALSE)</f>
         <v>PROCESSING</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -10072,30 +10334,30 @@
         <v>123</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M86">
         <v>85</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O86" s="3">
+        <f t="shared" si="14"/>
+        <v>44388.529861111114</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="11"/>
-        <v>44388.529861111114</v>
-      </c>
-      <c r="P86">
+        <v>6</v>
+      </c>
+      <c r="Q86">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q86">
-        <f>COUNTIF($N$2:$N$91,$N86)</f>
         <v>3</v>
       </c>
       <c r="R86" t="str">
@@ -10103,19 +10365,22 @@
         <v>Delay</v>
       </c>
       <c r="S86" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N86,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J86,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N86,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J86,Charges!$A$3:$S$3,0))</f>
         <v>174.3</v>
       </c>
       <c r="T86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U86" t="str">
         <f>VLOOKUP(N86,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -10147,30 +10412,30 @@
         <v>125</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M87">
         <v>86</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O87" s="3">
+        <f t="shared" si="14"/>
+        <v>44389.65347222222</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="11"/>
-        <v>44389.65347222222</v>
-      </c>
-      <c r="P87">
+        <v>6</v>
+      </c>
+      <c r="Q87">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q87">
-        <f>COUNTIF($N$2:$N$91,$N87)</f>
         <v>3</v>
       </c>
       <c r="R87" t="str">
@@ -10178,19 +10443,22 @@
         <v>Delay</v>
       </c>
       <c r="S87" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N87,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J87,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N87,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J87,Charges!$A$3:$S$3,0))</f>
         <v>345.11400000000003</v>
       </c>
       <c r="T87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U87" t="str">
         <f>VLOOKUP(N87,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -10222,30 +10490,30 @@
         <v>126</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M88">
         <v>87</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REFD2021031743085</v>
       </c>
       <c r="O88" s="3">
+        <f t="shared" si="14"/>
+        <v>44390.756944444445</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="11"/>
-        <v>44390.756944444445</v>
-      </c>
-      <c r="P88">
+        <v>6</v>
+      </c>
+      <c r="Q88">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q88">
-        <f>COUNTIF($N$2:$N$91,$N88)</f>
         <v>3</v>
       </c>
       <c r="R88" t="str">
@@ -10253,19 +10521,22 @@
         <v>Delay</v>
       </c>
       <c r="S88" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N88,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J88,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N88,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J88,Charges!$A$3:$S$3,0))</f>
         <v>169.10586000000001</v>
       </c>
       <c r="T88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="U88" t="str">
         <f>VLOOKUP(N88,'Last Status'!A:C,3,FALSE)</f>
         <v>DELIVERED</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -10297,30 +10568,30 @@
         <v>123</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M89">
         <v>88</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF0011200088</v>
       </c>
       <c r="O89" s="3">
+        <f t="shared" si="14"/>
+        <v>44474.529861111114</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="11"/>
-        <v>44474.529861111114</v>
-      </c>
-      <c r="P89">
+        <v>6</v>
+      </c>
+      <c r="Q89">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q89">
-        <f>COUNTIF($N$2:$N$91,$N89)</f>
         <v>3</v>
       </c>
       <c r="R89" t="str">
@@ -10328,19 +10599,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S89" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N89,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J89,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N89,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J89,Charges!$A$3:$S$3,0))</f>
         <v>120</v>
       </c>
       <c r="T89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="U89" t="str">
         <f>VLOOKUP(N89,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -10372,30 +10646,30 @@
         <v>125</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHAS</v>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>US</v>
       </c>
       <c r="M90">
         <v>89</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF0011200088</v>
       </c>
       <c r="O90" s="3">
+        <f t="shared" si="14"/>
+        <v>44474.605555555558</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="11"/>
-        <v>44474.605555555558</v>
-      </c>
-      <c r="P90">
+        <v>6</v>
+      </c>
+      <c r="Q90">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q90">
-        <f>COUNTIF($N$2:$N$91,$N90)</f>
         <v>3</v>
       </c>
       <c r="R90" t="str">
@@ -10403,19 +10677,22 @@
         <v>NotCompleted</v>
       </c>
       <c r="S90" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N90,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J90,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N90,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J90,Charges!$A$3:$S$3,0))</f>
         <v>716.4</v>
       </c>
       <c r="T90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="U90" t="str">
         <f>VLOOKUP(N90,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -10447,30 +10724,30 @@
         <v>125</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>BINA</v>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>AD</v>
       </c>
       <c r="M91">
         <v>90</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>REF0011200088</v>
       </c>
       <c r="O91" s="3">
+        <f t="shared" si="14"/>
+        <v>44476.76458333333</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="11"/>
-        <v>44476.76458333333</v>
-      </c>
-      <c r="P91">
+        <v>6</v>
+      </c>
+      <c r="Q91">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Q91">
-        <f>COUNTIF($N$2:$N$91,$N91)</f>
         <v>3</v>
       </c>
       <c r="R91" t="str">
@@ -10478,20 +10755,23 @@
         <v>NotCompleted</v>
       </c>
       <c r="S91" s="7">
-        <f>INDEX(Charges!$A$3:$S$48,MATCH('Sheet OS'!$N91,Charges!$A$3:$A$48,0),MATCH('Sheet OS'!$J91,Charges!$A$3:$S$3,0))</f>
+        <f>INDEX(Charges!$A$3:$S$48,MATCH(Sheet1!$N91,Charges!$A$3:$A$48,0),MATCH(Sheet1!$J91,Charges!$A$3:$S$3,0))</f>
         <v>716.4</v>
       </c>
       <c r="T91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="U91" t="str">
         <f>VLOOKUP(N91,'Last Status'!A:C,3,FALSE)</f>
         <v>PENDING</v>
       </c>
+      <c r="V91" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -10906,11 +11186,11 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B2)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B2)</f>
         <v>22</v>
       </c>
       <c r="D2">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C2)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C2)</f>
         <v>0</v>
       </c>
     </row>
@@ -10919,11 +11199,11 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B3)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B3)</f>
         <v>10</v>
       </c>
       <c r="D3">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C3)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C3)</f>
         <v>3</v>
       </c>
     </row>
@@ -10932,11 +11212,11 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B4)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B4)</f>
         <v>24</v>
       </c>
       <c r="D4">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C4)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C4)</f>
         <v>0</v>
       </c>
     </row>
@@ -10945,11 +11225,11 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B5)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B5)</f>
         <v>5</v>
       </c>
       <c r="D5">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C5)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C5)</f>
         <v>0</v>
       </c>
     </row>
@@ -10958,11 +11238,11 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B6)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B6)</f>
         <v>5</v>
       </c>
       <c r="D6">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C6)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C6)</f>
         <v>0</v>
       </c>
     </row>
@@ -10971,11 +11251,11 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B7)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B7)</f>
         <v>3</v>
       </c>
       <c r="D7">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C7)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C7)</f>
         <v>24</v>
       </c>
     </row>
@@ -10984,11 +11264,11 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B8)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B8)</f>
         <v>3</v>
       </c>
       <c r="D8">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C8)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C8)</f>
         <v>24</v>
       </c>
     </row>
@@ -10997,11 +11277,11 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B9)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B9)</f>
         <v>15</v>
       </c>
       <c r="D9">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C9)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C9)</f>
         <v>0</v>
       </c>
     </row>
@@ -11010,11 +11290,11 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!B10)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!B10)</f>
         <v>3</v>
       </c>
       <c r="D10">
-        <f>COUNTIFS('Sheet OS'!$T$2:$T$91,'Transac par mois'!C10)</f>
+        <f>COUNTIFS(Sheet1!$T$2:$T$91,'Transac par mois'!C10)</f>
         <v>24</v>
       </c>
     </row>
@@ -11107,11 +11387,11 @@
         <v>39</v>
       </c>
       <c r="B9" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A9,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44272.65625</v>
       </c>
       <c r="C9" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A9,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44271.34375</v>
       </c>
       <c r="D9" s="4">
@@ -11123,7 +11403,7 @@
         <v>Delay</v>
       </c>
       <c r="F9" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A9,'Sheet OS'!$J$2:$J$91,AvgTime!F$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A9,Sheet1!$J$2:$J$91,AvgTime!F$7)</f>
         <v>44272.65625</v>
       </c>
       <c r="G9">
@@ -11140,11 +11420,11 @@
         <v>134</v>
       </c>
       <c r="B10" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A10,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A10,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44273.59375</v>
       </c>
       <c r="C10" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A10,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A10,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44271</v>
       </c>
       <c r="D10" s="4">
@@ -11169,11 +11449,11 @@
         <v>135</v>
       </c>
       <c r="B11" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A11,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A11,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44503.731944444444</v>
       </c>
       <c r="C11" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A11,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A11,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44502.356944444444</v>
       </c>
       <c r="D11" s="4">
@@ -11198,11 +11478,11 @@
         <v>171</v>
       </c>
       <c r="B12" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A12,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A12,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44271.522222222222</v>
       </c>
       <c r="C12" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A12,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A12,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44271.386111111111</v>
       </c>
       <c r="D12" s="4">
@@ -11227,11 +11507,11 @@
         <v>136</v>
       </c>
       <c r="B13" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A13,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A13,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44271.731944444444</v>
       </c>
       <c r="C13" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A13,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A13,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44271.424305555556</v>
       </c>
       <c r="D13" s="4">
@@ -11256,11 +11536,11 @@
         <v>137</v>
       </c>
       <c r="B14" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A14,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A14,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44276.523611111108</v>
       </c>
       <c r="C14" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A14,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A14,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44275.551388888889</v>
       </c>
       <c r="D14" s="4">
@@ -11285,11 +11565,11 @@
         <v>138</v>
       </c>
       <c r="B15" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A15,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A15,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A15,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A15,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44248.432638888888</v>
       </c>
       <c r="D15" s="4">
@@ -11306,11 +11586,11 @@
         <v>139</v>
       </c>
       <c r="B16" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A16,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A16,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44253.756944444445</v>
       </c>
       <c r="C16" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A16,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A16,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44253.529861111114</v>
       </c>
       <c r="D16" s="4">
@@ -11335,11 +11615,11 @@
         <v>140</v>
       </c>
       <c r="B17" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A17,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A17,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A17,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A17,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44571.529861111114</v>
       </c>
       <c r="D17" s="4">
@@ -11356,11 +11636,11 @@
         <v>141</v>
       </c>
       <c r="B18" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A18,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A18,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44235.722916666666</v>
       </c>
       <c r="C18" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A18,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A18,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44234.654861111114</v>
       </c>
       <c r="D18" s="4">
@@ -11385,11 +11665,11 @@
         <v>142</v>
       </c>
       <c r="B19" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A19,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A19,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44258.756944444445</v>
       </c>
       <c r="C19" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A19,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A19,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44257.508333333331</v>
       </c>
       <c r="D19" s="4">
@@ -11414,11 +11694,11 @@
         <v>143</v>
       </c>
       <c r="B20" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A20,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A20,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44524.613888888889</v>
       </c>
       <c r="C20" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A20,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A20,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44522.466666666667</v>
       </c>
       <c r="D20" s="4">
@@ -11443,11 +11723,11 @@
         <v>172</v>
       </c>
       <c r="B21" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A21,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A21,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44521.480555555558</v>
       </c>
       <c r="C21" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A21,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A21,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44520.432638888888</v>
       </c>
       <c r="D21" s="4">
@@ -11472,11 +11752,11 @@
         <v>144</v>
       </c>
       <c r="B22" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A22,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A22,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C22" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A22,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A22,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44211.756944444445</v>
       </c>
       <c r="D22" s="4">
@@ -11493,11 +11773,11 @@
         <v>145</v>
       </c>
       <c r="B23" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A23,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A23,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44209.605555555558</v>
       </c>
       <c r="C23" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A23,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A23,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44209.605555555558</v>
       </c>
       <c r="D23" s="4">
@@ -11522,11 +11802,11 @@
         <v>146</v>
       </c>
       <c r="B24" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A24,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A24,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44210.654861111114</v>
       </c>
       <c r="C24" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A24,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A24,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44210.654861111114</v>
       </c>
       <c r="D24" s="4">
@@ -11551,11 +11831,11 @@
         <v>147</v>
       </c>
       <c r="B25" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A25,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A25,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44201.722222222219</v>
       </c>
       <c r="C25" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A25,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A25,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44201.508333333331</v>
       </c>
       <c r="D25" s="4">
@@ -11580,11 +11860,11 @@
         <v>173</v>
       </c>
       <c r="B26" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A26,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A26,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44224.798611111109</v>
       </c>
       <c r="C26" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A26,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A26,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44224.557638888888</v>
       </c>
       <c r="D26" s="4">
@@ -11609,11 +11889,11 @@
         <v>148</v>
       </c>
       <c r="B27" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A27,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A27,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44209.53125</v>
       </c>
       <c r="C27" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A27,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A27,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44209.474305555559</v>
       </c>
       <c r="D27" s="4">
@@ -11638,11 +11918,11 @@
         <v>149</v>
       </c>
       <c r="B28" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A28,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A28,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44277.715277777781</v>
       </c>
       <c r="C28" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A28,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A28,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44277.591666666667</v>
       </c>
       <c r="D28" s="4">
@@ -11667,11 +11947,11 @@
         <v>150</v>
       </c>
       <c r="B29" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A29,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A29,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44157.715277777781</v>
       </c>
       <c r="C29" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A29,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A29,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44155.383333333331</v>
       </c>
       <c r="D29" s="4">
@@ -11696,11 +11976,11 @@
         <v>151</v>
       </c>
       <c r="B30" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A30,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A30,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44155.881944444445</v>
       </c>
       <c r="C30" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A30,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A30,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44155.47152777778</v>
       </c>
       <c r="D30" s="4">
@@ -11725,11 +12005,11 @@
         <v>152</v>
       </c>
       <c r="B31" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A31,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A31,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44156.591666666667</v>
       </c>
       <c r="C31" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A31,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A31,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44156.474305555559</v>
       </c>
       <c r="D31" s="4">
@@ -11754,11 +12034,11 @@
         <v>153</v>
       </c>
       <c r="B32" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A32,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A32,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44162.763888888891</v>
       </c>
       <c r="C32" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A32,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A32,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44162.40625</v>
       </c>
       <c r="D32" s="4">
@@ -11783,11 +12063,11 @@
         <v>154</v>
       </c>
       <c r="B33" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A33,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A33,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44256.756944444445</v>
       </c>
       <c r="C33" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A33,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A33,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44256.474305555559</v>
       </c>
       <c r="D33" s="4">
@@ -11812,11 +12092,11 @@
         <v>155</v>
       </c>
       <c r="B34" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A34,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A34,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44256.800000000003</v>
       </c>
       <c r="C34" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A34,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A34,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44256.599305555559</v>
       </c>
       <c r="D34" s="4">
@@ -11841,11 +12121,11 @@
         <v>156</v>
       </c>
       <c r="B35" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A35,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A35,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44211.527083333334</v>
       </c>
       <c r="C35" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A35,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A35,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44211.356944444444</v>
       </c>
       <c r="D35" s="4">
@@ -11870,11 +12150,11 @@
         <v>157</v>
       </c>
       <c r="B36" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A36,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A36,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44218.730555555558</v>
       </c>
       <c r="C36" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A36,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A36,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44217.412499999999</v>
       </c>
       <c r="D36" s="4">
@@ -11899,11 +12179,11 @@
         <v>158</v>
       </c>
       <c r="B37" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A37,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A37,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A37,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A37,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44257.605555555558</v>
       </c>
       <c r="D37" s="4">
@@ -11920,11 +12200,11 @@
         <v>159</v>
       </c>
       <c r="B38" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A38,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A38,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44278.523611111108</v>
       </c>
       <c r="C38" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A38,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A38,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44278.341666666667</v>
       </c>
       <c r="D38" s="4">
@@ -11949,11 +12229,11 @@
         <v>160</v>
       </c>
       <c r="B39" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A39,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A39,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44223.533333333333</v>
       </c>
       <c r="C39" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A39,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A39,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44217.40625</v>
       </c>
       <c r="D39" s="4">
@@ -11978,11 +12258,11 @@
         <v>161</v>
       </c>
       <c r="B40" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A40,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A40,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44550</v>
       </c>
       <c r="C40" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A40,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A40,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44549.425000000003</v>
       </c>
       <c r="D40" s="4">
@@ -12007,11 +12287,11 @@
         <v>162</v>
       </c>
       <c r="B41" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A41,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A41,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44299.756944444445</v>
       </c>
       <c r="C41" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A41,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A41,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44297.523611111108</v>
       </c>
       <c r="D41" s="4">
@@ -12036,11 +12316,11 @@
         <v>174</v>
       </c>
       <c r="B42" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A42,'Sheet OS'!$J$2:$J$91,AvgTime!B$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A42,Sheet1!$J$2:$J$91,AvgTime!B$7)</f>
         <v>44241.522222222222</v>
       </c>
       <c r="C42" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A42,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A42,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44240.386111111111</v>
       </c>
       <c r="D42" s="4">
@@ -12065,11 +12345,11 @@
         <v>163</v>
       </c>
       <c r="B43" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A43,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A43,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44388.731944444444</v>
       </c>
       <c r="C43" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A43,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A43,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44388.424305555556</v>
       </c>
       <c r="D43" s="4">
@@ -12094,11 +12374,11 @@
         <v>164</v>
       </c>
       <c r="B44" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A44,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A44,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C44" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A44,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A44,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44305.551388888889</v>
       </c>
       <c r="D44" s="4">
@@ -12115,11 +12395,11 @@
         <v>175</v>
       </c>
       <c r="B45" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A45,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A45,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C45" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A45,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A45,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>0</v>
       </c>
       <c r="D45" s="4">
@@ -12144,11 +12424,11 @@
         <v>165</v>
       </c>
       <c r="B46" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A46,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A46,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C46" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A46,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A46,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44454.432638888888</v>
       </c>
       <c r="D46" s="4">
@@ -12165,11 +12445,11 @@
         <v>166</v>
       </c>
       <c r="B47" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A47,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A47,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>44390.756944444445</v>
       </c>
       <c r="C47" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A47,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A47,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44388.529861111114</v>
       </c>
       <c r="D47" s="4">
@@ -12194,11 +12474,11 @@
         <v>167</v>
       </c>
       <c r="B48" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A48,'Sheet OS'!$J$2:$J$91,AvgTime!B$8)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A48,Sheet1!$J$2:$J$91,AvgTime!B$8)</f>
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <f>_xlfn.MAXIFS('Sheet OS'!$O$2:$O$91,'Sheet OS'!$N$2:$N$91,AvgTime!$A48,'Sheet OS'!$J$2:$J$91,AvgTime!C$7)</f>
+        <f>_xlfn.MAXIFS(Sheet1!$O$2:$O$91,Sheet1!$N$2:$N$91,AvgTime!$A48,Sheet1!$J$2:$J$91,AvgTime!C$7)</f>
         <v>44474.529861111114</v>
       </c>
       <c r="D48" s="4">
@@ -12327,51 +12607,51 @@
         <v>39</v>
       </c>
       <c r="B4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>10000</v>
       </c>
       <c r="C4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>10000</v>
       </c>
       <c r="E4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A4,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A4,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N4" s="4">
@@ -12399,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <f>SUM(N4:S4)</f>
+        <f t="shared" ref="T4:T38" si="0">SUM(N4:S4)</f>
         <v>347</v>
       </c>
     </row>
@@ -12408,51 +12688,51 @@
         <v>134</v>
       </c>
       <c r="B5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>4537</v>
       </c>
       <c r="C5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>4537</v>
       </c>
       <c r="D5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>4537</v>
       </c>
       <c r="E5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.01</v>
       </c>
       <c r="J5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.02</v>
       </c>
       <c r="K5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M5" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A5,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A5,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N5" s="4">
@@ -12480,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="4">
-        <f>SUM(N5:S5)</f>
+        <f t="shared" si="0"/>
         <v>223.23854799999998</v>
       </c>
     </row>
@@ -12489,51 +12769,51 @@
         <v>135</v>
       </c>
       <c r="B6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1000000</v>
       </c>
       <c r="C6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>1000000</v>
       </c>
       <c r="D6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1000000</v>
       </c>
       <c r="E6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G6" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M6" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A6,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A6,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N6" s="4">
@@ -12561,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="4">
-        <f>SUM(N6:S6)</f>
+        <f t="shared" si="0"/>
         <v>39477.25</v>
       </c>
     </row>
@@ -12570,55 +12850,55 @@
         <v>171</v>
       </c>
       <c r="B7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>11000</v>
       </c>
       <c r="C7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>11000</v>
       </c>
       <c r="E7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A7,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A7,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N38" si="0">IF(B7=0,0,B7*H7)</f>
+        <f t="shared" ref="N7:N38" si="1">IF(B7=0,0,B7*H7)</f>
         <v>220</v>
       </c>
       <c r="O7" s="4">
@@ -12642,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="4">
-        <f>SUM(N7:S7)</f>
+        <f t="shared" si="0"/>
         <v>327.8</v>
       </c>
     </row>
@@ -12651,55 +12931,55 @@
         <v>136</v>
       </c>
       <c r="B8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>23900</v>
       </c>
       <c r="C8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>23900</v>
       </c>
       <c r="F8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.03</v>
       </c>
       <c r="L8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M8" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A8,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A8,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>478</v>
       </c>
       <c r="O8" s="4">
@@ -12723,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="4">
-        <f>SUM(N8:S8)</f>
+        <f t="shared" si="0"/>
         <v>1180.6599999999999</v>
       </c>
     </row>
@@ -12732,55 +13012,55 @@
         <v>137</v>
       </c>
       <c r="B9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>5643</v>
       </c>
       <c r="C9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>5643</v>
       </c>
       <c r="E9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M9" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A9,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A9,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.86</v>
       </c>
       <c r="O9" s="4">
@@ -12804,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="4">
-        <f>SUM(N9:S9)</f>
+        <f t="shared" si="0"/>
         <v>168.16140000000001</v>
       </c>
     </row>
@@ -12813,55 +13093,55 @@
         <v>138</v>
       </c>
       <c r="B10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>4569</v>
       </c>
       <c r="C10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>9138</v>
       </c>
       <c r="G10" s="5">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0.09</v>
       </c>
       <c r="M10" s="5">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A10,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A10,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91.38</v>
       </c>
       <c r="O10" s="5">
@@ -12885,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5">
-        <f>SUM(N10:S10)</f>
+        <f t="shared" si="0"/>
         <v>905.57580000000007</v>
       </c>
     </row>
@@ -12894,55 +13174,55 @@
         <v>139</v>
       </c>
       <c r="B11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>456</v>
       </c>
       <c r="C11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>456</v>
       </c>
       <c r="D11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>456</v>
       </c>
       <c r="F11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.02</v>
       </c>
       <c r="J11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.01</v>
       </c>
       <c r="L11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A11,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A11,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5600000000000005</v>
       </c>
       <c r="O11" s="4">
@@ -12966,7 +13246,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="4">
-        <f>SUM(N11:S11)</f>
+        <f t="shared" si="0"/>
         <v>18.012912</v>
       </c>
     </row>
@@ -12975,55 +13255,55 @@
         <v>140</v>
       </c>
       <c r="B12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>3326</v>
       </c>
       <c r="C12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>6652</v>
       </c>
       <c r="D12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.03</v>
       </c>
       <c r="J12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A12,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A12,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.26</v>
       </c>
       <c r="O12" s="4">
@@ -13047,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f>SUM(N12:S12)</f>
+        <f t="shared" si="0"/>
         <v>231.82219999999998</v>
       </c>
     </row>
@@ -13056,55 +13336,55 @@
         <v>141</v>
       </c>
       <c r="B13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1100</v>
       </c>
       <c r="C13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1100</v>
       </c>
       <c r="E13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A13,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A13,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="O13" s="4">
@@ -13128,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <f>SUM(N13:S13)</f>
+        <f t="shared" si="0"/>
         <v>32.78</v>
       </c>
     </row>
@@ -13137,55 +13417,55 @@
         <v>142</v>
       </c>
       <c r="B14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1100</v>
       </c>
       <c r="C14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>1100</v>
       </c>
       <c r="D14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1100</v>
       </c>
       <c r="E14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.08</v>
       </c>
       <c r="I14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.01</v>
       </c>
       <c r="J14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.02</v>
       </c>
       <c r="K14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A14,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A14,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="O14" s="4">
@@ -13209,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="4">
-        <f>SUM(N14:S14)</f>
+        <f t="shared" si="0"/>
         <v>118.1576</v>
       </c>
     </row>
@@ -13218,55 +13498,55 @@
         <v>143</v>
       </c>
       <c r="B15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>900</v>
       </c>
       <c r="C15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>900</v>
       </c>
       <c r="E15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A15,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A15,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O15" s="4">
@@ -13290,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="4">
-        <f>SUM(N15:S15)</f>
+        <f t="shared" si="0"/>
         <v>17.91</v>
       </c>
     </row>
@@ -13299,55 +13579,55 @@
         <v>172</v>
       </c>
       <c r="B16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1025</v>
       </c>
       <c r="C16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1025</v>
       </c>
       <c r="E16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A16,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A16,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
       <c r="O16" s="4">
@@ -13371,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="4">
-        <f>SUM(N16:S16)</f>
+        <f t="shared" si="0"/>
         <v>30.545000000000002</v>
       </c>
     </row>
@@ -13380,55 +13660,55 @@
         <v>144</v>
       </c>
       <c r="B17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>238</v>
       </c>
       <c r="C17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>238</v>
       </c>
       <c r="H17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.08</v>
       </c>
       <c r="I17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A17,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A17,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0.08</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.04</v>
       </c>
       <c r="O17" s="4">
@@ -13452,7 +13732,7 @@
         <v>17.5168</v>
       </c>
       <c r="T17" s="4">
-        <f>SUM(N17:S17)</f>
+        <f t="shared" si="0"/>
         <v>36.556799999999996</v>
       </c>
     </row>
@@ -13461,55 +13741,55 @@
         <v>145</v>
       </c>
       <c r="B18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>6709</v>
       </c>
       <c r="C18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>6709</v>
       </c>
       <c r="E18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.03</v>
       </c>
       <c r="K18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A18,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A18,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.09</v>
       </c>
       <c r="O18" s="4">
@@ -13533,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="4">
-        <f>SUM(N18:S18)</f>
+        <f t="shared" si="0"/>
         <v>266.34730000000002</v>
       </c>
     </row>
@@ -13542,55 +13822,55 @@
         <v>146</v>
       </c>
       <c r="B19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>5188</v>
       </c>
       <c r="C19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>5188</v>
       </c>
       <c r="E19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A19,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A19,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.88</v>
       </c>
       <c r="O19" s="4">
@@ -13614,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="4">
-        <f>SUM(N19:S19)</f>
+        <f t="shared" si="0"/>
         <v>103.24119999999999</v>
       </c>
     </row>
@@ -13623,55 +13903,55 @@
         <v>147</v>
       </c>
       <c r="B20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>120</v>
       </c>
       <c r="C20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>120</v>
       </c>
       <c r="D20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>120</v>
       </c>
       <c r="F20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.01</v>
       </c>
       <c r="J20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.01</v>
       </c>
       <c r="L20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A20,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A20,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="O20" s="4">
@@ -13695,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="4">
-        <f>SUM(N20:S20)</f>
+        <f t="shared" si="0"/>
         <v>3.56412</v>
       </c>
     </row>
@@ -13704,55 +13984,55 @@
         <v>173</v>
       </c>
       <c r="B21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>6720</v>
       </c>
       <c r="C21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>6720</v>
       </c>
       <c r="E21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.02</v>
       </c>
       <c r="K21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A21,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A21,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134.4</v>
       </c>
       <c r="O21" s="4">
@@ -13776,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="4">
-        <f>SUM(N21:S21)</f>
+        <f t="shared" si="0"/>
         <v>266.11200000000002</v>
       </c>
     </row>
@@ -13785,55 +14065,55 @@
         <v>148</v>
       </c>
       <c r="B22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>67569</v>
       </c>
       <c r="C22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>67569</v>
       </c>
       <c r="E22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A22,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A22,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>675.69</v>
       </c>
       <c r="O22" s="4">
@@ -13857,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="4">
-        <f>SUM(N22:S22)</f>
+        <f t="shared" si="0"/>
         <v>1344.6231</v>
       </c>
     </row>
@@ -13866,55 +14146,55 @@
         <v>149</v>
       </c>
       <c r="B23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>2100</v>
       </c>
       <c r="C23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>2100</v>
       </c>
       <c r="E23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.02</v>
       </c>
       <c r="K23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A23,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A23,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="O23" s="4">
@@ -13938,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="4">
-        <f>SUM(N23:S23)</f>
+        <f t="shared" si="0"/>
         <v>83.16</v>
       </c>
     </row>
@@ -13947,55 +14227,55 @@
         <v>150</v>
       </c>
       <c r="B24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>800</v>
       </c>
       <c r="C24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>800</v>
       </c>
       <c r="E24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M24" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A24,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A24,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O24" s="4">
@@ -14019,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="4">
-        <f>SUM(N24:S24)</f>
+        <f t="shared" si="0"/>
         <v>15.92</v>
       </c>
     </row>
@@ -14028,55 +14308,55 @@
         <v>151</v>
       </c>
       <c r="B25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1025</v>
       </c>
       <c r="C25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1025</v>
       </c>
       <c r="E25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.08</v>
       </c>
       <c r="I25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.08</v>
       </c>
       <c r="K25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M25" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A25,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A25,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="O25" s="4">
@@ -14100,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="4">
-        <f>SUM(N25:S25)</f>
+        <f t="shared" si="0"/>
         <v>157.44</v>
       </c>
     </row>
@@ -14109,55 +14389,55 @@
         <v>152</v>
       </c>
       <c r="B26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>87600</v>
       </c>
       <c r="C26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>87600</v>
       </c>
       <c r="E26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M26" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A26,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A26,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>876</v>
       </c>
       <c r="O26" s="4">
@@ -14181,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="4">
-        <f>SUM(N26:S26)</f>
+        <f t="shared" si="0"/>
         <v>1743.24</v>
       </c>
     </row>
@@ -14190,55 +14470,55 @@
         <v>153</v>
       </c>
       <c r="B27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1600</v>
       </c>
       <c r="C27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>1600</v>
       </c>
       <c r="E27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.04</v>
       </c>
       <c r="I27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A27,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A27,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="O27" s="4">
@@ -14262,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="4">
-        <f>SUM(N27:S27)</f>
+        <f t="shared" si="0"/>
         <v>79.36</v>
       </c>
     </row>
@@ -14271,55 +14551,55 @@
         <v>154</v>
       </c>
       <c r="B28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>3100</v>
       </c>
       <c r="C28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>3100</v>
       </c>
       <c r="F28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.08</v>
       </c>
       <c r="L28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A28,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A28,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="O28" s="4">
@@ -14343,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="4">
-        <f>SUM(N28:S28)</f>
+        <f t="shared" si="0"/>
         <v>276.52</v>
       </c>
     </row>
@@ -14352,55 +14632,55 @@
         <v>155</v>
       </c>
       <c r="B29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>456</v>
       </c>
       <c r="C29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>456</v>
       </c>
       <c r="E29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A29,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A29,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.120000000000001</v>
       </c>
       <c r="O29" s="4">
@@ -14424,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="4">
-        <f>SUM(N29:S29)</f>
+        <f t="shared" si="0"/>
         <v>13.588800000000001</v>
       </c>
     </row>
@@ -14433,55 +14713,55 @@
         <v>156</v>
       </c>
       <c r="B30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>348</v>
       </c>
       <c r="C30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>348</v>
       </c>
       <c r="E30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A30,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A30,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.360000000000003</v>
       </c>
       <c r="O30" s="4">
@@ -14505,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="4">
-        <f>SUM(N30:S30)</f>
+        <f t="shared" si="0"/>
         <v>27.596400000000003</v>
       </c>
     </row>
@@ -14514,55 +14794,55 @@
         <v>157</v>
       </c>
       <c r="B31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>67569</v>
       </c>
       <c r="C31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>67569</v>
       </c>
       <c r="E31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.08</v>
       </c>
       <c r="K31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A31,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A31,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>675.69</v>
       </c>
       <c r="O31" s="4">
@@ -14586,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="4">
-        <f>SUM(N31:S31)</f>
+        <f t="shared" si="0"/>
         <v>6027.1548000000003</v>
       </c>
     </row>
@@ -14595,55 +14875,55 @@
         <v>158</v>
       </c>
       <c r="B32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>1100</v>
       </c>
       <c r="C32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>1100</v>
       </c>
       <c r="D32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.01</v>
       </c>
       <c r="J32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A32,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A32,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O32" s="4">
@@ -14667,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="4">
-        <f>SUM(N32:S32)</f>
+        <f t="shared" si="0"/>
         <v>21.89</v>
       </c>
     </row>
@@ -14676,55 +14956,55 @@
         <v>159</v>
       </c>
       <c r="B33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>12100</v>
       </c>
       <c r="C33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>12100</v>
       </c>
       <c r="E33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.08</v>
       </c>
       <c r="I33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.08</v>
       </c>
       <c r="K33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M33" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A33,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A33,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>968</v>
       </c>
       <c r="O33" s="4">
@@ -14748,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="4">
-        <f>SUM(N33:S33)</f>
+        <f t="shared" si="0"/>
         <v>1858.56</v>
       </c>
     </row>
@@ -14757,55 +15037,55 @@
         <v>160</v>
       </c>
       <c r="B34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>10000</v>
       </c>
       <c r="C34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>10000</v>
       </c>
       <c r="E34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G34" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M34" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A34,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A34,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="O34" s="4">
@@ -14829,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="4">
-        <f>SUM(N34:S34)</f>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
     </row>
@@ -14838,55 +15118,55 @@
         <v>161</v>
       </c>
       <c r="B35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>2345</v>
       </c>
       <c r="C35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>2345</v>
       </c>
       <c r="D35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>2345</v>
       </c>
       <c r="E35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.01</v>
       </c>
       <c r="J35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.02</v>
       </c>
       <c r="K35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M35" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A35,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A35,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.9</v>
       </c>
       <c r="O35" s="4">
@@ -14910,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="4">
-        <f>SUM(N35:S35)</f>
+        <f t="shared" si="0"/>
         <v>115.38338</v>
       </c>
     </row>
@@ -14919,55 +15199,55 @@
         <v>162</v>
       </c>
       <c r="B36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>7890</v>
       </c>
       <c r="C36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>7890</v>
       </c>
       <c r="D36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>7890</v>
       </c>
       <c r="E36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G36" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="J36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M36" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A36,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A36,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78.900000000000006</v>
       </c>
       <c r="O36" s="4">
@@ -14991,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="4">
-        <f>SUM(N36:S36)</f>
+        <f t="shared" si="0"/>
         <v>311.4755025</v>
       </c>
     </row>
@@ -15000,55 +15280,55 @@
         <v>174</v>
       </c>
       <c r="B37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>12000</v>
       </c>
       <c r="C37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>12000</v>
       </c>
       <c r="E37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M37" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A37,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A37,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="O37" s="4">
@@ -15072,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="4">
-        <f>SUM(N37:S37)</f>
+        <f t="shared" si="0"/>
         <v>357.6</v>
       </c>
     </row>
@@ -15081,55 +15361,55 @@
         <v>163</v>
       </c>
       <c r="B38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>12000</v>
       </c>
       <c r="C38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>12000</v>
       </c>
       <c r="F38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G38" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.03</v>
       </c>
       <c r="L38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M38" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A38,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A38,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="O38" s="4">
@@ -15153,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="4">
-        <f>SUM(N38:S38)</f>
+        <f t="shared" si="0"/>
         <v>592.79999999999995</v>
       </c>
     </row>
@@ -15162,55 +15442,55 @@
         <v>164</v>
       </c>
       <c r="B39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>30000</v>
       </c>
       <c r="C39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M39" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A39,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A39,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39:N43" si="1">IF(B39=0,0,B39*H39)</f>
+        <f t="shared" ref="N39:N43" si="2">IF(B39=0,0,B39*H39)</f>
         <v>600</v>
       </c>
       <c r="O39" s="4">
@@ -15234,7 +15514,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" ref="T39:T43" si="2">SUM(N39:S39)</f>
+        <f t="shared" ref="T39:T43" si="3">SUM(N39:S39)</f>
         <v>600</v>
       </c>
     </row>
@@ -15243,55 +15523,55 @@
         <v>175</v>
       </c>
       <c r="B40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>0</v>
       </c>
       <c r="C40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>3000</v>
       </c>
       <c r="E40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0</v>
       </c>
       <c r="I40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0.01</v>
       </c>
       <c r="K40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M40" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A40,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A40,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O40" s="4">
@@ -15315,7 +15595,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -15324,55 +15604,55 @@
         <v>165</v>
       </c>
       <c r="B41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>12400</v>
       </c>
       <c r="C41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>24800</v>
       </c>
       <c r="G41" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.02</v>
       </c>
       <c r="I41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0.09</v>
       </c>
       <c r="M41" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A41,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A41,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
       <c r="O41" s="4">
@@ -15396,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2457.6799999999998</v>
       </c>
     </row>
@@ -15405,55 +15685,55 @@
         <v>166</v>
       </c>
       <c r="B42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>17430</v>
       </c>
       <c r="C42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>17430</v>
       </c>
       <c r="D42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>17430</v>
       </c>
       <c r="F42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.02</v>
       </c>
       <c r="J42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0.01</v>
       </c>
       <c r="L42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M42" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A42,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A42,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>174.3</v>
       </c>
       <c r="O42" s="4">
@@ -15477,7 +15757,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>688.51985999999999</v>
       </c>
     </row>
@@ -15486,55 +15766,55 @@
         <v>167</v>
       </c>
       <c r="B43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!B$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!B$2)</f>
         <v>12000</v>
       </c>
       <c r="C43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!C$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!C$2)</f>
         <v>24000</v>
       </c>
       <c r="D43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!D$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!D$2)</f>
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!E$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!E$2)</f>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!F$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!F$2)</f>
         <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f>SUMIFS('Sheet OS'!$D$2:$D$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!G$2)</f>
+        <f>SUMIFS(Sheet1!$D$2:$D$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!G$2)</f>
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!H$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!H$2)</f>
         <v>0.01</v>
       </c>
       <c r="I43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!I$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!I$2)</f>
         <v>0.03</v>
       </c>
       <c r="J43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!J$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!J$2)</f>
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!K$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!K$2)</f>
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!L$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!L$2)</f>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>SUMIFS('Sheet OS'!$G$2:$G$91,'Sheet OS'!$N$2:$N$91,Charges!$A43,'Sheet OS'!$J$2:$J$91,Charges!M$2)</f>
+        <f>SUMIFS(Sheet1!$G$2:$G$91,Sheet1!$N$2:$N$91,Charges!$A43,Sheet1!$J$2:$J$91,Charges!M$2)</f>
         <v>0</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="O43" s="4">
@@ -15558,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>836.4</v>
       </c>
     </row>
